--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="747">
   <si>
     <t>Tester</t>
   </si>
@@ -578,9 +578,6 @@
     <t>TC-10</t>
   </si>
   <si>
-    <t>1332.00</t>
-  </si>
-  <si>
     <t>TC-11</t>
   </si>
   <si>
@@ -2039,9 +2036,6 @@
     <t>3690.00</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>Customer Details</t>
   </si>
   <si>
@@ -2241,6 +2235,33 @@
   </si>
   <si>
     <t>110324</t>
+  </si>
+  <si>
+    <t>TC-50</t>
+  </si>
+  <si>
+    <t>Modified Action code /No. of Pax</t>
+  </si>
+  <si>
+    <t>240524</t>
+  </si>
+  <si>
+    <t>7112.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>220524</t>
+  </si>
+  <si>
+    <t>Copyright © Zeus 2023</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>error message</t>
   </si>
 </sst>
 </file>
@@ -2849,16 +2870,31 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2869,20 +2905,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2900,12 +2927,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3216,7 +3237,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3358,7 +3379,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>744</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
@@ -3415,7 +3436,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>744</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
@@ -3526,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" topLeftCell="A655" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E659" sqref="E659:E660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3542,14 +3563,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="140"/>
+      <c r="B5" s="137"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -3564,14 +3585,14 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="140"/>
+      <c r="A10" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="137"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>76</v>
@@ -3579,7 +3600,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>62</v>
@@ -3587,21 +3608,21 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="143"/>
+      <c r="B15" s="138"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>78</v>
@@ -3609,7 +3630,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>80</v>
@@ -3617,7 +3638,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>81</v>
@@ -3625,7 +3646,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>82</v>
@@ -3633,7 +3654,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>83</v>
@@ -3641,7 +3662,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>84</v>
@@ -3649,7 +3670,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>85</v>
@@ -3657,7 +3678,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>86</v>
@@ -3665,7 +3686,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>87</v>
@@ -3680,54 +3701,54 @@
       <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="139"/>
+      <c r="C27" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="38" t="s">
-        <v>239</v>
-      </c>
       <c r="D27" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
+        <v>247</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>244</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
@@ -3743,7 +3764,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>78</v>
@@ -3759,7 +3780,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>90</v>
@@ -3775,7 +3796,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>68</v>
@@ -3797,7 +3818,7 @@
         <v>91</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>165</v>
@@ -3814,10 +3835,10 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="143"/>
+      <c r="B37" s="138"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -3832,7 +3853,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -3840,7 +3861,7 @@
         <v>95</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -3864,7 +3885,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -3872,7 +3893,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -3882,13 +3903,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="143"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -3912,10 +3933,10 @@
         <v>105</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>68</v>
@@ -3929,10 +3950,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>67</v>
@@ -3946,10 +3967,10 @@
         <v>111</v>
       </c>
       <c r="B51" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>81</v>
@@ -3963,10 +3984,10 @@
         <v>112</v>
       </c>
       <c r="B52" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>520</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>521</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>164</v>
@@ -3980,10 +4001,10 @@
         <v>113</v>
       </c>
       <c r="B53" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>522</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>523</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>78</v>
@@ -3997,10 +4018,10 @@
         <v>114</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>91</v>
@@ -4014,10 +4035,10 @@
         <v>115</v>
       </c>
       <c r="B55" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>525</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>526</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>165</v>
@@ -4031,10 +4052,10 @@
         <v>116</v>
       </c>
       <c r="B56" s="80" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>527</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>528</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>166</v>
@@ -4044,12 +4065,12 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A58" s="139" t="s">
+      <c r="A58" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="140"/>
+      <c r="B58" s="137"/>
       <c r="C58" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -4064,10 +4085,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A62" s="139" t="s">
+      <c r="A62" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="140"/>
+      <c r="B62" s="137"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4081,17 +4102,17 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="143"/>
-      <c r="C66" s="143"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="138"/>
       <c r="D66" s="34"/>
       <c r="E66" s="36"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>71</v>
@@ -4136,7 +4157,7 @@
         <v>127</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -4149,7 +4170,7 @@
         <v>89</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -4211,7 +4232,7 @@
         <v>131</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>159</v>
@@ -4224,10 +4245,10 @@
         <v>132</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D77" s="34"/>
     </row>
@@ -4245,10 +4266,10 @@
         <v>134</v>
       </c>
       <c r="B79" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -4256,10 +4277,10 @@
         <v>135</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4267,7 +4288,7 @@
         <v>136</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C81" s="4"/>
     </row>
@@ -4276,10 +4297,10 @@
         <v>137</v>
       </c>
       <c r="B82" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4287,7 +4308,7 @@
         <v>138</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>160</v>
@@ -4307,7 +4328,7 @@
         <v>140</v>
       </c>
       <c r="B85" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>161</v>
@@ -4318,10 +4339,10 @@
         <v>141</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4338,10 +4359,10 @@
         <v>143</v>
       </c>
       <c r="B88" s="80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -4349,7 +4370,7 @@
         <v>144</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>162</v>
@@ -4369,7 +4390,7 @@
         <v>146</v>
       </c>
       <c r="B91" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>163</v>
@@ -4380,10 +4401,10 @@
         <v>147</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -4397,21 +4418,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B94" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>96</v>
@@ -4431,10 +4452,10 @@
         <v>150</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -4442,10 +4463,10 @@
         <v>151</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
@@ -4456,17 +4477,17 @@
         <v>169</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="141" t="s">
-        <v>673</v>
-      </c>
-      <c r="E99" s="142"/>
+      <c r="D99" s="144" t="s">
+        <v>671</v>
+      </c>
+      <c r="E99" s="145"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
         <v>170</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.35">
@@ -4475,27 +4496,27 @@
       </c>
       <c r="B101" s="116"/>
       <c r="C101" s="115" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C102" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>172</v>
@@ -4512,7 +4533,7 @@
         <v>67</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>173</v>
@@ -4529,10 +4550,10 @@
         <v>62</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -4554,7 +4575,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B106" s="67" t="s">
         <v>89</v>
@@ -4563,7 +4584,7 @@
         <v>89</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>175</v>
@@ -4610,13 +4631,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B110" s="80" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C110" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="36"/>
@@ -4629,18 +4650,18 @@
         <v>72</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B112" s="66" t="s">
         <v>177</v>
       </c>
       <c r="C112" s="75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="71"/>
@@ -4659,10 +4680,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -4691,7 +4712,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B120" s="67" t="s">
         <v>89</v>
@@ -4723,10 +4744,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B124" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -4739,7 +4760,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B126" s="66" t="s">
         <v>177</v>
@@ -4761,10 +4782,10 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B130" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -4793,7 +4814,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B134" s="67" t="s">
         <v>89</v>
@@ -4833,7 +4854,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B139" s="66" t="s">
         <v>177</v>
@@ -4847,10 +4868,10 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B143" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -4879,7 +4900,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B147" s="67" t="s">
         <v>89</v>
@@ -4911,18 +4932,18 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B151" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B152" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -4935,7 +4956,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B154" s="66" t="s">
         <v>182</v>
@@ -4957,10 +4978,10 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -4989,7 +5010,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B162" s="67" t="s">
         <v>89</v>
@@ -5021,18 +5042,18 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B166" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B167" s="80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -5045,7 +5066,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B169" s="66" t="s">
         <v>182</v>
@@ -5067,10 +5088,10 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B173" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -5099,7 +5120,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B177" s="67" t="s">
         <v>89</v>
@@ -5131,15 +5152,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B181" s="80" t="s">
-        <v>541</v>
+        <v>714</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B182" s="67" t="s">
         <v>81</v>
@@ -5155,10 +5176,10 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="B184" s="67" t="s">
-        <v>185</v>
+        <v>206</v>
+      </c>
+      <c r="B184" s="80" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -5171,16 +5192,16 @@
     </row>
     <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.35">
       <c r="A187" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="31"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -5209,7 +5230,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B192" s="67" t="s">
         <v>89</v>
@@ -5241,18 +5262,18 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -5265,10 +5286,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B199" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -5277,16 +5298,16 @@
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.35">
       <c r="A202" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -5315,7 +5336,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B207" s="67" t="s">
         <v>89</v>
@@ -5347,7 +5368,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B211" s="67" t="s">
         <v>69</v>
@@ -5355,10 +5376,10 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -5371,10 +5392,10 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B214" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -5387,16 +5408,16 @@
     </row>
     <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.35">
       <c r="A217" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B217" s="66"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B218" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -5425,7 +5446,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B222" s="67" t="s">
         <v>89</v>
@@ -5457,18 +5478,18 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" s="80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B227" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -5481,10 +5502,10 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B229" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -5497,16 +5518,16 @@
     </row>
     <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.35">
       <c r="A232" s="79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B232" s="66"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B233" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -5535,7 +5556,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237" s="67" t="s">
         <v>89</v>
@@ -5567,19 +5588,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E241" s="36"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B242" s="80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E242" s="36"/>
     </row>
@@ -5594,7 +5615,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B244" s="67" t="s">
         <v>153</v>
@@ -5604,28 +5625,28 @@
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="33"/>
       <c r="B245" s="35"/>
-      <c r="E245" s="36"/>
+      <c r="E245" s="13"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="33"/>
       <c r="B246" s="35"/>
-      <c r="E246" s="36"/>
+      <c r="E246" s="13"/>
     </row>
     <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.35">
       <c r="A247" s="79" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B247" s="66"/>
-      <c r="E247" s="131"/>
+      <c r="E247" s="133"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B248" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="E248" s="131"/>
+        <v>377</v>
+      </c>
+      <c r="E248" s="133"/>
       <c r="F248" s="105"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -5635,7 +5656,7 @@
       <c r="B249" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E249" s="131"/>
+      <c r="E249" s="133"/>
       <c r="F249" s="105"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -5645,7 +5666,7 @@
       <c r="B250" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E250" s="131"/>
+      <c r="E250" s="133"/>
       <c r="F250" s="105"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -5655,17 +5676,17 @@
       <c r="B251" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="E251" s="132"/>
+      <c r="E251" s="134"/>
       <c r="F251" s="106"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B252" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="E252" s="133"/>
+      <c r="E252" s="135"/>
       <c r="F252" s="107"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -5675,7 +5696,7 @@
       <c r="B253" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E253" s="133"/>
+      <c r="E253" s="135"/>
       <c r="F253" s="107"/>
     </row>
     <row r="254" spans="1:6" ht="17" x14ac:dyDescent="0.4">
@@ -5686,7 +5707,7 @@
         <v>67</v>
       </c>
       <c r="D254" s="117"/>
-      <c r="E254" s="133"/>
+      <c r="E254" s="135"/>
       <c r="F254" s="107"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -5696,27 +5717,27 @@
       <c r="B255" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E255" s="133"/>
+      <c r="E255" s="135"/>
       <c r="F255" s="107"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B256" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="E256" s="133"/>
+        <v>515</v>
+      </c>
+      <c r="E256" s="135"/>
       <c r="F256" s="107"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B257" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="E257" s="133"/>
+        <v>530</v>
+      </c>
+      <c r="E257" s="135"/>
       <c r="F257" s="107"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -5727,18 +5748,18 @@
         <v>72</v>
       </c>
       <c r="C258" s="42"/>
-      <c r="E258" s="131"/>
+      <c r="E258" s="133"/>
       <c r="F258" s="105"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B259" s="75" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C259" s="42"/>
-      <c r="E259" s="36"/>
+      <c r="E259" s="13"/>
       <c r="F259" s="105"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -5749,25 +5770,25 @@
     </row>
     <row r="261" spans="1:6" ht="17" x14ac:dyDescent="0.35">
       <c r="A261" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B261" s="118"/>
       <c r="C261" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D261" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E261" s="121" t="s">
-        <v>718</v>
-      </c>
-      <c r="F261" s="26" t="s">
-        <v>727</v>
+        <v>716</v>
+      </c>
+      <c r="F261" s="128" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B262" s="67" t="s">
         <v>71</v>
@@ -5847,7 +5868,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B266" s="67" t="s">
         <v>89</v>
@@ -5927,42 +5948,42 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B270" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C270" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D270" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E270" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F270" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B271" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C271" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D271" s="80" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E271" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F271" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -5987,27 +6008,27 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B273" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C273" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D273" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E273" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F273" s="116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B274" s="67" t="s">
         <v>164</v>
@@ -6016,10 +6037,10 @@
         <v>164</v>
       </c>
       <c r="D274" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E274" s="80" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F274" s="80" t="s">
         <v>164</v>
@@ -6027,7 +6048,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B275" s="67" t="s">
         <v>164</v>
@@ -6043,35 +6064,35 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B276" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="C276" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
       <c r="F276" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B277" s="67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C277" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D277" s="80" t="s">
         <v>168</v>
       </c>
       <c r="E277" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F277" s="80" t="s">
         <v>168</v>
@@ -6093,22 +6114,22 @@
     </row>
     <row r="280" spans="1:6" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A280" s="79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="118"/>
       <c r="C280" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D280" s="79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E280" s="94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B281" s="68" t="s">
         <v>71</v>
@@ -6176,7 +6197,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B285" s="68" t="s">
         <v>89</v>
@@ -6244,36 +6265,36 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B289" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C289" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D289" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E289" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B290" s="80" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C290" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D290" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E290" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -6295,56 +6316,56 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B292" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C292" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D292" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E292" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B293" s="80" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C293" s="80" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D293" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E293" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B294" s="68"/>
       <c r="C294" s="80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D294" s="80" t="s">
+        <v>536</v>
+      </c>
+      <c r="E294" s="80" t="s">
         <v>537</v>
-      </c>
-      <c r="E294" s="80" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -6355,24 +6376,24 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B296" s="80" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C296" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E296" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="6"/>
@@ -6383,33 +6404,33 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="6"/>
       <c r="D298" s="76"/>
       <c r="E298" s="95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.4">
       <c r="A299" s="79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B299" s="69"/>
       <c r="C299" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D299" s="94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E299" s="121" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B300" s="68" t="s">
         <v>71</v>
@@ -6477,7 +6498,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B304" s="68" t="s">
         <v>89</v>
@@ -6545,36 +6566,36 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B308" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C308" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D308" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E308" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B309" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C309" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D309" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E309" s="80" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -6596,47 +6617,47 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B311" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C311" s="69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D311" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E311" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B312" s="68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C312" s="68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D312" s="53" t="s">
         <v>168</v>
       </c>
       <c r="E312" s="80" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B313" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D313" s="53" t="s">
         <v>168</v>
@@ -6645,17 +6666,17 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="114" t="s">
         <v>164</v>
       </c>
       <c r="D314" s="92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -6667,22 +6688,22 @@
     </row>
     <row r="316" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A316" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B316" s="118"/>
       <c r="C316" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D316" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="E316" s="121" t="s">
         <v>210</v>
-      </c>
-      <c r="E316" s="121" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B317" s="68" t="s">
         <v>71</v>
@@ -6750,7 +6771,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B321" s="68" t="s">
         <v>89</v>
@@ -6818,36 +6839,36 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B325" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C325" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D325" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E325" s="80" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D326" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -6855,33 +6876,33 @@
         <v>158</v>
       </c>
       <c r="B327" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C327" s="68" t="s">
         <v>72</v>
       </c>
       <c r="D327" s="68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E327" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B328" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C328" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="D328" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C328" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="D328" s="30" t="s">
+      <c r="E328" s="30" t="s">
         <v>387</v>
-      </c>
-      <c r="E328" s="30" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -6900,34 +6921,34 @@
     </row>
     <row r="331" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A331" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B331" s="118"/>
       <c r="C331" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D331" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="E331" s="120" t="s">
         <v>217</v>
-      </c>
-      <c r="E331" s="120" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B332" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C332" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D332" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E332" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -6983,7 +7004,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B336" s="80" t="s">
         <v>89</v>
@@ -7051,36 +7072,36 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B340" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C340" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D340" s="113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E340" s="80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C341" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D341" s="113" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E341" s="80" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -7102,19 +7123,19 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B343" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C343" s="80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D343" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E343" s="80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -7133,34 +7154,34 @@
     </row>
     <row r="346" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A346" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B346" s="118"/>
       <c r="C346" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D346" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="D346" s="120" t="s">
-        <v>223</v>
-      </c>
       <c r="E346" s="120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B347" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C347" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D347" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E347" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
@@ -7216,7 +7237,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B351" s="80" t="s">
         <v>89</v>
@@ -7284,36 +7305,36 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B355" s="80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C355" s="80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D355" s="80" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E355" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B356" s="80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C356" s="80" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D356" s="80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E356" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -7335,19 +7356,19 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B358" s="80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C358" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D358" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E358" s="80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -7366,29 +7387,29 @@
     </row>
     <row r="361" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A361" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B361" s="118"/>
       <c r="C361" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D361" s="120" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E361" s="120"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B362" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C362" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D362" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E362" s="80"/>
     </row>
@@ -7439,7 +7460,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B366" s="80" t="s">
         <v>89</v>
@@ -7499,31 +7520,31 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B370" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E370" s="30"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B371" s="30" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C371" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="D371" s="30" t="s">
         <v>621</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>622</v>
       </c>
       <c r="E371" s="30"/>
     </row>
@@ -7544,16 +7565,16 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B373" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C373" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D373" s="30" t="s">
         <v>229</v>
-      </c>
-      <c r="C373" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D373" s="30" t="s">
-        <v>230</v>
       </c>
       <c r="E373" s="80"/>
     </row>
@@ -7573,34 +7594,34 @@
     </row>
     <row r="376" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A376" s="79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B376" s="118"/>
       <c r="C376" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D376" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="E376" s="120" t="s">
         <v>287</v>
-      </c>
-      <c r="D376" s="120" t="s">
-        <v>286</v>
-      </c>
-      <c r="E376" s="120" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B377" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C377" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D377" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E377" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
@@ -7656,19 +7677,19 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B381" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C381" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D381" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E381" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
@@ -7724,36 +7745,36 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B385" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C385" s="80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D385" s="80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E385" s="80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B386" s="80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C386" s="80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D386" s="80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E386" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -7775,19 +7796,19 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B388" s="80" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C388" s="80" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D388" s="80" t="s">
+        <v>669</v>
+      </c>
+      <c r="E388" s="80" t="s">
         <v>670</v>
-      </c>
-      <c r="E388" s="80" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -7806,34 +7827,34 @@
     </row>
     <row r="391" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A391" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B391" s="118"/>
       <c r="C391" s="79" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D391" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="E391" s="120" t="s">
         <v>291</v>
-      </c>
-      <c r="E391" s="120" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B392" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D392" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E392" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
@@ -7889,19 +7910,19 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B396" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C396" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D396" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E396" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
@@ -7957,36 +7978,36 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B400" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C400" s="80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D400" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E400" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B401" s="80" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C401" s="80" t="s">
+        <v>631</v>
+      </c>
+      <c r="D401" s="80" t="s">
         <v>632</v>
       </c>
-      <c r="D401" s="80" t="s">
-        <v>633</v>
-      </c>
       <c r="E401" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -8008,19 +8029,19 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B403" s="80" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C403" s="80" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
@@ -8039,34 +8060,34 @@
     </row>
     <row r="406" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A406" s="79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B406" s="118"/>
       <c r="C406" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D406" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="D406" s="120" t="s">
+      <c r="E406" s="120" t="s">
         <v>295</v>
-      </c>
-      <c r="E406" s="120" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B407" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C407" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D407" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E407" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
@@ -8122,19 +8143,19 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B411" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C411" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D411" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E411" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
@@ -8190,36 +8211,36 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B415" s="80" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C415" s="80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D415" s="80" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E415" s="80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B416" s="80" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C416" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="D416" s="80" t="s">
+        <v>627</v>
+      </c>
+      <c r="E416" s="80" t="s">
         <v>629</v>
-      </c>
-      <c r="D416" s="80" t="s">
-        <v>628</v>
-      </c>
-      <c r="E416" s="80" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
@@ -8241,19 +8262,19 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C418" s="80" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
@@ -8272,34 +8293,34 @@
     </row>
     <row r="421" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A421" s="79" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B421" s="118"/>
       <c r="C421" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D421" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D421" s="120" t="s">
-        <v>299</v>
-      </c>
       <c r="E421" s="120" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B422" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C422" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D422" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E422" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
@@ -8355,19 +8376,19 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B426" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C426" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D426" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E426" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
@@ -8423,36 +8444,36 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B430" s="80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C430" s="80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D430" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E430" s="80" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B431" s="80" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C431" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D431" s="80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E431" s="80" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
@@ -8474,19 +8495,19 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C433" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D433" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E433" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
@@ -8505,34 +8526,34 @@
     </row>
     <row r="436" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A436" s="79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B436" s="118"/>
       <c r="C436" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D436" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="D436" s="120" t="s">
-        <v>306</v>
-      </c>
       <c r="E436" s="120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B437" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C437" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D437" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E437" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
@@ -8588,19 +8609,19 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B441" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C441" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D441" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E441" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
@@ -8656,36 +8677,36 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B445" s="80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C445" s="80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D445" s="80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E445" s="80" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B446" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C446" s="80" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D446" s="80" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E446" s="80" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
@@ -8707,19 +8728,19 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E448" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
@@ -8738,34 +8759,34 @@
     </row>
     <row r="451" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A451" s="79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B451" s="118"/>
       <c r="C451" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="D451" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="D451" s="120" t="s">
-        <v>310</v>
-      </c>
       <c r="E451" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B452" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C452" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D452" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E452" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.35">
@@ -8821,19 +8842,19 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B456" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C456" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D456" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E456" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.35">
@@ -8889,36 +8910,36 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B460" s="80" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C460" s="80" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E460" s="80" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B461" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="C461" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="C461" s="80" t="s">
+      <c r="D461" s="30" t="s">
         <v>645</v>
       </c>
-      <c r="D461" s="30" t="s">
+      <c r="E461" s="80" t="s">
         <v>646</v>
-      </c>
-      <c r="E461" s="80" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
@@ -8940,19 +8961,19 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -8971,34 +8992,34 @@
     </row>
     <row r="466" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A466" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B466" s="118"/>
       <c r="C466" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D466" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="D466" s="120" t="s">
+      <c r="E466" s="120" t="s">
         <v>316</v>
-      </c>
-      <c r="E466" s="120" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B467" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C467" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D467" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E467" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
@@ -9054,19 +9075,19 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B471" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C471" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D471" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E471" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.35">
@@ -9122,36 +9143,36 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B475" s="80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C475" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D475" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E475" s="80" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B476" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="C476" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="C476" s="80" t="s">
+      <c r="D476" s="80" t="s">
         <v>650</v>
       </c>
-      <c r="D476" s="80" t="s">
-        <v>651</v>
-      </c>
       <c r="E476" s="80" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
@@ -9173,19 +9194,19 @@
     </row>
     <row r="478" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B478" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C478" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
@@ -9204,34 +9225,34 @@
     </row>
     <row r="481" spans="1:5" s="119" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B481" s="118"/>
       <c r="C481" s="79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D481" s="120" t="s">
         <v>320</v>
       </c>
-      <c r="D481" s="120" t="s">
+      <c r="E481" s="120" t="s">
         <v>321</v>
-      </c>
-      <c r="E481" s="120" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B482" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C482" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D482" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E482" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9287,19 +9308,19 @@
     </row>
     <row r="486" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B486" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C486" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D486" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E486" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9355,36 +9376,36 @@
     </row>
     <row r="490" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B490" s="80" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C490" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D490" s="80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E490" s="80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B491" s="80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C491" s="80" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D491" s="80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E491" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9406,19 +9427,19 @@
     </row>
     <row r="493" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9437,34 +9458,34 @@
     </row>
     <row r="496" spans="1:5" s="119" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A496" s="79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B496" s="118"/>
       <c r="C496" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="D496" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="D496" s="120" t="s">
+      <c r="E496" s="120" t="s">
         <v>342</v>
-      </c>
-      <c r="E496" s="120" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B497" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C497" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D497" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E497" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9520,19 +9541,19 @@
     </row>
     <row r="501" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B501" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C501" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D501" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E501" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9588,36 +9609,36 @@
     </row>
     <row r="505" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B505" s="80" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C505" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D505" s="80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E505" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B506" s="80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C506" s="80" t="s">
+        <v>657</v>
+      </c>
+      <c r="D506" s="80" t="s">
+        <v>651</v>
+      </c>
+      <c r="E506" s="80" t="s">
         <v>658</v>
-      </c>
-      <c r="D506" s="80" t="s">
-        <v>652</v>
-      </c>
-      <c r="E506" s="80" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9639,19 +9660,19 @@
     </row>
     <row r="508" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C508" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9670,34 +9691,34 @@
     </row>
     <row r="511" spans="1:5" s="119" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A511" s="79" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B511" s="118"/>
       <c r="C511" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D511" s="120" t="s">
         <v>345</v>
       </c>
-      <c r="D511" s="120" t="s">
+      <c r="E511" s="120" t="s">
         <v>346</v>
-      </c>
-      <c r="E511" s="120" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B512" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C512" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D512" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E512" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9753,19 +9774,19 @@
     </row>
     <row r="516" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B516" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C516" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D516" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E516" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9821,36 +9842,36 @@
     </row>
     <row r="520" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B520" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C520" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D520" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E520" s="80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B521" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C521" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="D521" s="80" t="s">
+        <v>631</v>
+      </c>
+      <c r="E521" s="80" t="s">
         <v>629</v>
-      </c>
-      <c r="D521" s="80" t="s">
-        <v>632</v>
-      </c>
-      <c r="E521" s="80" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9872,19 +9893,19 @@
     </row>
     <row r="523" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C523" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="D523" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="D523" s="22" t="s">
+      <c r="E523" s="22" t="s">
         <v>661</v>
-      </c>
-      <c r="E523" s="22" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9903,28 +9924,28 @@
     </row>
     <row r="526" spans="1:5" s="119" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A526" s="79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B526" s="118"/>
       <c r="C526" s="79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D526" s="120" t="s">
+        <v>363</v>
+      </c>
+      <c r="E526" s="120" t="s">
         <v>364</v>
-      </c>
-      <c r="E526" s="120" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B527" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C527" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D527" s="80" t="s">
         <v>71</v>
@@ -9986,19 +10007,19 @@
     </row>
     <row r="531" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B531" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C531" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D531" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E531" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10054,36 +10075,36 @@
     </row>
     <row r="535" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B535" s="80" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C535" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D535" s="80" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E535" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B536" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C536" s="80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D536" s="80" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E536" s="80" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
@@ -10105,19 +10126,19 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B538" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C538" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B538" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C538" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="D538" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E538" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
@@ -10136,22 +10157,22 @@
     </row>
     <row r="541" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A541" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B541" s="118"/>
       <c r="C541" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="D541" s="120" t="s">
         <v>367</v>
       </c>
-      <c r="D541" s="120" t="s">
+      <c r="E541" s="120" t="s">
         <v>368</v>
-      </c>
-      <c r="E541" s="120" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B542" s="80" t="s">
         <v>71</v>
@@ -10219,19 +10240,19 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B546" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C546" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D546" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E546" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
@@ -10287,36 +10308,36 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B550" s="80" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C550" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D550" s="80" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E550" s="80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B551" s="80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C551" s="80" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D551" s="80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E551" s="80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
@@ -10338,19 +10359,19 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B553" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="C553" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B553" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="C553" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="D553" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E553" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
@@ -10369,20 +10390,20 @@
     </row>
     <row r="556" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A556" s="79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B556" s="118"/>
       <c r="C556" s="79" t="s">
+        <v>370</v>
+      </c>
+      <c r="D556" s="120" t="s">
         <v>371</v>
-      </c>
-      <c r="D556" s="120" t="s">
-        <v>372</v>
       </c>
       <c r="E556" s="120"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B557" s="80" t="s">
         <v>71</v>
@@ -10442,16 +10463,16 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B561" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C561" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D561" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E561" s="80"/>
     </row>
@@ -10502,31 +10523,31 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B565" s="80" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C565" s="80" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D565" s="80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E565" s="80"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B566" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C566" s="80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D566" s="80" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E566" s="80"/>
     </row>
@@ -10547,16 +10568,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B568" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B568" s="14" t="s">
-        <v>272</v>
-      </c>
       <c r="C568" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D568" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E568" s="22"/>
     </row>
@@ -10576,20 +10597,20 @@
     </row>
     <row r="571" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A571" s="79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B571" s="122"/>
       <c r="C571" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D571" s="79" t="s">
         <v>376</v>
-      </c>
-      <c r="D571" s="79" t="s">
-        <v>377</v>
       </c>
       <c r="E571" s="123"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B572" s="80" t="s">
         <v>71</v>
@@ -10649,16 +10670,16 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B576" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C576" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D576" s="80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E576" s="85"/>
     </row>
@@ -10709,31 +10730,31 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B580" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C580" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D580" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E580" s="85"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B581" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C581" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D581" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E581" s="85"/>
     </row>
@@ -10754,37 +10775,37 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B583" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C583" s="86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D583" s="86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E583" s="85"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B584" s="80" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C584" s="80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D584" s="80" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E584" s="85"/>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B585" s="80"/>
       <c r="C585" s="80"/>
@@ -10793,7 +10814,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -10802,16 +10823,16 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C587" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D587" s="80" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E587" s="85"/>
     </row>
@@ -10838,7 +10859,7 @@
     </row>
     <row r="591" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A591" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B591" s="122"/>
       <c r="C591" s="122"/>
@@ -10847,7 +10868,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B592" s="80" t="s">
         <v>71</v>
@@ -10907,7 +10928,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B596" s="80" t="s">
         <v>89</v>
@@ -10967,31 +10988,31 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B600" s="80" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C600" s="80" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D600" s="80" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E600" s="85"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B601" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C601" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D601" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E601" s="85"/>
     </row>
@@ -11012,16 +11033,16 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B603" s="80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C603" s="80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D603" s="80" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E603" s="85"/>
     </row>
@@ -11048,20 +11069,20 @@
     </row>
     <row r="607" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A607" s="79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B607" s="125"/>
       <c r="C607" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="D607" s="79" t="s">
         <v>394</v>
-      </c>
-      <c r="D607" s="79" t="s">
-        <v>395</v>
       </c>
       <c r="E607" s="123"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B608" s="80" t="s">
         <v>71</v>
@@ -11121,16 +11142,16 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B612" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C612" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D612" s="80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E612" s="85"/>
     </row>
@@ -11181,31 +11202,31 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B616" s="80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C616" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="D616" s="80" t="s">
         <v>558</v>
-      </c>
-      <c r="D616" s="80" t="s">
-        <v>559</v>
       </c>
       <c r="E616" s="85"/>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B617" s="80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C617" s="80" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D617" s="80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E617" s="85"/>
     </row>
@@ -11217,61 +11238,61 @@
         <v>72</v>
       </c>
       <c r="C618" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D618" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E618" s="85"/>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B619" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C619" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D619" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E619" s="85"/>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D620" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E620" s="85"/>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D621" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E621" s="85"/>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -11279,52 +11300,52 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B623" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C623" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D623" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E623" s="85"/>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D624" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E624" s="85"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D625" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E625" s="85"/>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -11333,61 +11354,61 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B627" s="80" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C627" s="80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D627" s="80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E627" s="36"/>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B628" s="80"/>
       <c r="C628" s="80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D628" s="80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E628" s="36"/>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B629" s="80"/>
       <c r="C629" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D629" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E629" s="36"/>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B630" s="80"/>
       <c r="C630" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D630" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E630" s="36"/>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B631" s="80"/>
       <c r="C631" s="8"/>
@@ -11410,7 +11431,7 @@
     </row>
     <row r="634" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A634" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B634" s="118"/>
       <c r="C634" s="125"/>
@@ -11419,10 +11440,10 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B635" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C635" s="80"/>
       <c r="D635" s="76"/>
@@ -11463,7 +11484,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B639" s="80" t="s">
         <v>89</v>
@@ -11507,10 +11528,10 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B643" s="80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C643" s="80"/>
       <c r="D643" s="76"/>
@@ -11518,10 +11539,10 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B644" s="80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C644" s="80"/>
       <c r="D644" s="76"/>
@@ -11540,10 +11561,10 @@
     </row>
     <row r="646" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B646" s="98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C646" s="80"/>
       <c r="D646" s="76"/>
@@ -11565,20 +11586,20 @@
     </row>
     <row r="649" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A649" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B649" s="118"/>
       <c r="C649" s="128" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D649" s="128" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E649" s="127"/>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B650" s="80" t="s">
         <v>71</v>
@@ -11638,7 +11659,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B654" s="80" t="s">
         <v>89</v>
@@ -11698,31 +11719,31 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B658" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C658" s="80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D658" s="80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E658" s="36"/>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B659" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C659" s="80" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D659" s="80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E659" s="36"/>
     </row>
@@ -11743,57 +11764,57 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B661" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C661" s="93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D661" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E661" s="36"/>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B662" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="C662" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="C662" s="80" t="s">
-        <v>551</v>
-      </c>
       <c r="D662" s="80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E662" s="36"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B663" s="80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C663" s="80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D663" s="80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E663" s="36"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B664" s="80"/>
       <c r="C664" s="80"/>
       <c r="D664" s="112" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E664" s="36"/>
     </row>
@@ -11806,20 +11827,22 @@
     </row>
     <row r="666" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A666" s="79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B666" s="118"/>
       <c r="C666" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D666" s="79" t="s">
-        <v>729</v>
-      </c>
-      <c r="E666" s="127"/>
+        <v>727</v>
+      </c>
+      <c r="E666" s="79" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B667" s="80" t="s">
         <v>71</v>
@@ -11828,9 +11851,11 @@
         <v>71</v>
       </c>
       <c r="D667" s="80" t="s">
-        <v>378</v>
-      </c>
-      <c r="E667" s="36"/>
+        <v>377</v>
+      </c>
+      <c r="E667" s="80" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" s="4" t="s">
@@ -11845,7 +11870,9 @@
       <c r="D668" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E668" s="36"/>
+      <c r="E668" s="80" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" s="4" t="s">
@@ -11860,7 +11887,9 @@
       <c r="D669" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E669" s="36"/>
+      <c r="E669" s="80" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" s="4" t="s">
@@ -11870,27 +11899,31 @@
         <v>127</v>
       </c>
       <c r="C670" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D670" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="E670" s="36"/>
+      <c r="E670" s="70" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B671" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C671" s="80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D671" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E671" s="36"/>
+      <c r="E671" s="80" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" s="4" t="s">
@@ -11905,7 +11938,9 @@
       <c r="D672" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E672" s="36"/>
+      <c r="E672" s="116" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" s="4" t="s">
@@ -11920,7 +11955,9 @@
       <c r="D673" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="E673" s="36"/>
+      <c r="E673" s="80" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" s="4" t="s">
@@ -11935,37 +11972,43 @@
       <c r="D674" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="E674" s="36"/>
+      <c r="E674" s="80" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B675" s="80" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="C675" s="80" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="D675" s="80" t="s">
-        <v>732</v>
-      </c>
-      <c r="E675" s="36"/>
+        <v>730</v>
+      </c>
+      <c r="E675" s="80" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B676" s="80" t="s">
-        <v>586</v>
+        <v>743</v>
       </c>
       <c r="C676" s="80" t="s">
-        <v>586</v>
+        <v>743</v>
       </c>
       <c r="D676" s="80" t="s">
-        <v>596</v>
-      </c>
-      <c r="E676" s="36"/>
+        <v>595</v>
+      </c>
+      <c r="E676" s="80" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" s="4" t="s">
@@ -11980,40 +12023,50 @@
       <c r="D677" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="E677" s="36"/>
+      <c r="E677" s="80" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B678" s="80" t="s">
-        <v>214</v>
+        <v>741</v>
       </c>
       <c r="C678" s="80" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="D678" s="80" t="s">
-        <v>731</v>
-      </c>
-      <c r="E678" s="36"/>
+        <v>729</v>
+      </c>
+      <c r="E678" s="80" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="4" t="s">
-        <v>510</v>
+        <v>739</v>
       </c>
       <c r="B679" s="80"/>
       <c r="C679" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D679" s="62"/>
-      <c r="E679" s="36"/>
+      <c r="E679" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A680" s="4"/>
+      <c r="A680" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="B680" s="80"/>
       <c r="C680" s="80"/>
       <c r="D680" s="62"/>
-      <c r="E680" s="36"/>
+      <c r="E680" s="30" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" s="4"/>
@@ -12024,22 +12077,22 @@
     </row>
     <row r="682" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A682" s="79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B682" s="125"/>
       <c r="C682" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="D682" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="D682" s="79" t="s">
+      <c r="E682" s="79" t="s">
         <v>437</v>
-      </c>
-      <c r="E682" s="79" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B683" s="80" t="s">
         <v>71</v>
@@ -12107,19 +12160,19 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B687" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C687" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D687" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E687" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.35">
@@ -12175,36 +12228,36 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B691" s="80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C691" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D691" s="80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E691" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B692" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C692" s="80" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D692" s="80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E692" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
@@ -12212,7 +12265,7 @@
         <v>158</v>
       </c>
       <c r="B693" s="80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C693" s="80" t="s">
         <v>68</v>
@@ -12221,63 +12274,63 @@
         <v>72</v>
       </c>
       <c r="E693" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B694" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C694" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D694" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E694" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C695" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D695" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E695" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C696" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D696" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E696" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -12285,52 +12338,52 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B698" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C698" s="80"/>
       <c r="D698" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E698" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C699" s="8"/>
       <c r="D699" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E699" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C700" s="8"/>
       <c r="D700" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E700" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="E700" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -12339,46 +12392,46 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B702" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C702" s="80"/>
       <c r="D702" s="80"/>
       <c r="E702" s="80" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B705" s="80"/>
       <c r="C705" s="8"/>
@@ -12387,10 +12440,10 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B706" s="80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -12398,10 +12451,10 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -12409,10 +12462,10 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -12420,7 +12473,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B709" s="80"/>
       <c r="C709" s="8"/>
@@ -12429,10 +12482,10 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B710" s="80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -12440,10 +12493,10 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -12451,10 +12504,10 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -12462,7 +12515,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B713" s="80"/>
       <c r="C713" s="8"/>
@@ -12471,19 +12524,19 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B714" s="80" t="s">
+        <v>492</v>
+      </c>
+      <c r="C714" s="80" t="s">
+        <v>386</v>
+      </c>
+      <c r="D714" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="E714" s="80" t="s">
         <v>493</v>
-      </c>
-      <c r="C714" s="80" t="s">
-        <v>387</v>
-      </c>
-      <c r="D714" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="E714" s="80" t="s">
-        <v>494</v>
       </c>
       <c r="F714" s="41"/>
     </row>
@@ -12501,22 +12554,22 @@
     </row>
     <row r="717" spans="1:6" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A717" s="79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B717" s="125"/>
       <c r="C717" s="79" t="s">
+        <v>446</v>
+      </c>
+      <c r="D717" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="D717" s="79" t="s">
+      <c r="E717" s="79" t="s">
         <v>448</v>
-      </c>
-      <c r="E717" s="79" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B718" s="80" t="s">
         <v>71</v>
@@ -12584,19 +12637,19 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B722" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C722" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D722" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E722" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
@@ -12652,36 +12705,36 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B726" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C726" s="80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D726" s="80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E726" s="80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B727" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C727" s="80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D727" s="80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E727" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -12692,69 +12745,69 @@
         <v>72</v>
       </c>
       <c r="C728" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D728" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E728" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B729" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C729" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D729" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E729" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C730" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D730" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E730" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C731" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D731" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E731" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -12762,58 +12815,58 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B733" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C733" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D733" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E733" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C734" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D734" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E734" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C735" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D735" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E735" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -12822,52 +12875,52 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B737" s="80"/>
       <c r="C737" s="80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D737" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E737" s="80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B738" s="8"/>
       <c r="C738" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D738" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E738" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B739" s="8"/>
       <c r="C739" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D739" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E739" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B740" s="8"/>
       <c r="C740" s="13"/>
@@ -12876,40 +12929,40 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B741" s="8"/>
       <c r="C741" s="13"/>
       <c r="D741" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E741" s="13"/>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B742" s="8"/>
       <c r="C742" s="13"/>
       <c r="D742" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E742" s="13"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B743" s="8"/>
       <c r="C743" s="13"/>
       <c r="D743" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E743" s="13"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B744" s="8"/>
       <c r="C744" s="13"/>
@@ -12918,19 +12971,19 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B745" s="80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C745" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="D745" s="80" t="s">
         <v>494</v>
       </c>
-      <c r="D745" s="80" t="s">
-        <v>495</v>
-      </c>
       <c r="E745" s="80" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -12949,22 +13002,22 @@
     </row>
     <row r="748" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A748" s="79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B748" s="125"/>
       <c r="C748" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="D748" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="D748" s="79" t="s">
+      <c r="E748" s="79" t="s">
         <v>452</v>
-      </c>
-      <c r="E748" s="79" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B749" s="80" t="s">
         <v>71</v>
@@ -13032,19 +13085,19 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B753" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C753" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D753" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E753" s="80" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.35">
@@ -13100,36 +13153,36 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B757" s="80" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C757" s="80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D757" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E757" s="80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B758" s="80" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C758" s="80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D758" s="80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E758" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.35">
@@ -13137,72 +13190,72 @@
         <v>158</v>
       </c>
       <c r="B759" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C759" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D759" s="80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E759" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B760" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C760" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D760" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E760" s="80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C761" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D761" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E761" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C762" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D762" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E762" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -13210,52 +13263,52 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B764" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C764" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D764" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E764" s="80"/>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C765" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D765" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E765" s="8"/>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C766" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D766" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E766" s="8"/>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -13264,52 +13317,52 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B768" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C768" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D768" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E768" s="80"/>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C769" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D769" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E769" s="8"/>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C770" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D770" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E770" s="8"/>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B771" s="80"/>
       <c r="C771" s="80"/>
@@ -13318,52 +13371,52 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B772" s="80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C772" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D772" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E772" s="8"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B773" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C773" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D773" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C773" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D773" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="E773" s="8"/>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B774" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C774" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D774" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E774" s="8"/>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -13372,40 +13425,40 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
       <c r="D776" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E776" s="8"/>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E777" s="8"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E778" s="8"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -13414,40 +13467,40 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
       <c r="D780" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E780" s="80"/>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E781" s="13"/>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E782" s="13"/>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -13456,19 +13509,19 @@
     </row>
     <row r="784" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B784" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="C784" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="C784" s="80" t="s">
-        <v>496</v>
-      </c>
       <c r="D784" s="98" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E784" s="80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13487,22 +13540,22 @@
     </row>
     <row r="787" spans="1:5" s="119" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A787" s="79" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B787" s="129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C787" s="129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D787" s="129" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E787" s="125"/>
     </row>
     <row r="788" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B788" s="80" t="s">
         <v>71</v>
@@ -13547,7 +13600,7 @@
     </row>
     <row r="791" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B791" s="70" t="s">
         <v>127</v>
@@ -13562,16 +13615,16 @@
     </row>
     <row r="792" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B792" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C792" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D792" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E792" s="80"/>
     </row>
@@ -13622,31 +13675,31 @@
     </row>
     <row r="796" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B796" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C796" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="C796" s="80" t="s">
-        <v>607</v>
-      </c>
       <c r="D796" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E796" s="80"/>
     </row>
     <row r="797" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B797" s="80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C797" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D797" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E797" s="80"/>
     </row>
@@ -13667,62 +13720,62 @@
     </row>
     <row r="799" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B799" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C799" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D799" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E799" s="80"/>
     </row>
     <row r="800" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B800" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C800" s="80"/>
       <c r="D800" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E800" s="80"/>
     </row>
     <row r="801" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B801" s="80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C801" s="80"/>
       <c r="D801" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E801" s="80"/>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B802" s="146" t="s">
         <v>271</v>
       </c>
-      <c r="B802" s="144" t="s">
-        <v>272</v>
-      </c>
-      <c r="C802" s="145"/>
-      <c r="D802" s="146"/>
+      <c r="C802" s="147"/>
+      <c r="D802" s="148"/>
       <c r="E802" s="80"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B803" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C803" s="80"/>
       <c r="D803" s="80"/>
@@ -13744,16 +13797,16 @@
     </row>
     <row r="806" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A806" s="79" t="s">
-        <v>504</v>
-      </c>
-      <c r="B806" s="136"/>
-      <c r="C806" s="137"/>
-      <c r="D806" s="138"/>
+        <v>503</v>
+      </c>
+      <c r="B806" s="141"/>
+      <c r="C806" s="142"/>
+      <c r="D806" s="143"/>
       <c r="E806" s="125"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B807" s="80" t="s">
         <v>71</v>
@@ -13798,7 +13851,7 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B810" s="70" t="s">
         <v>127</v>
@@ -13813,16 +13866,16 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B811" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C811" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D811" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E811" s="80"/>
     </row>
@@ -13873,31 +13926,31 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A815" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B815" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C815" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="C815" s="80" t="s">
-        <v>607</v>
-      </c>
       <c r="D815" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E815" s="80"/>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A816" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B816" s="80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C816" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D816" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E816" s="80"/>
     </row>
@@ -13918,58 +13971,58 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B818" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C818" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D818" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E818" s="80"/>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B819" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C819" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="C819" s="80" t="s">
-        <v>607</v>
-      </c>
       <c r="D819" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E819" s="80"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B820" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C820" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="C820" s="80" t="s">
+      <c r="D820" s="80" t="s">
         <v>613</v>
-      </c>
-      <c r="D820" s="80" t="s">
-        <v>614</v>
       </c>
       <c r="E820" s="80"/>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B821" s="147" t="s">
-        <v>266</v>
-      </c>
-      <c r="C821" s="148"/>
-      <c r="D821" s="149"/>
+        <v>270</v>
+      </c>
+      <c r="B821" s="149" t="s">
+        <v>265</v>
+      </c>
+      <c r="C821" s="150"/>
+      <c r="D821" s="151"/>
       <c r="E821" s="80"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -13988,16 +14041,16 @@
     </row>
     <row r="824" spans="1:5" s="119" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A824" s="79" t="s">
-        <v>507</v>
-      </c>
-      <c r="B824" s="136"/>
-      <c r="C824" s="137"/>
-      <c r="D824" s="138"/>
+        <v>506</v>
+      </c>
+      <c r="B824" s="141"/>
+      <c r="C824" s="142"/>
+      <c r="D824" s="143"/>
       <c r="E824" s="125"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B825" s="80" t="s">
         <v>71</v>
@@ -14042,7 +14095,7 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B828" s="70" t="s">
         <v>127</v>
@@ -14057,16 +14110,16 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B829" s="80" t="s">
         <v>89</v>
       </c>
       <c r="C829" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D829" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E829" s="80"/>
     </row>
@@ -14117,31 +14170,31 @@
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A833" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B833" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="C833" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="C833" s="80" t="s">
-        <v>607</v>
-      </c>
       <c r="D833" s="80" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E833" s="80"/>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A834" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B834" s="80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C834" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D834" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E834" s="80"/>
     </row>
@@ -14162,52 +14215,52 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A836" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B836" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C836" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D836" s="80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E836" s="80"/>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A837" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B837" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C837" s="80" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D837" s="80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E837" s="80"/>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A838" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B838" s="80" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C838" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D838" s="80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E838" s="80"/>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A839" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B839" s="84"/>
       <c r="C839" s="84"/>
@@ -14216,7 +14269,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A840" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B840" s="40"/>
       <c r="C840" s="40"/>
@@ -14239,22 +14292,22 @@
     </row>
     <row r="843" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A843" s="79" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B843" s="125"/>
       <c r="C843" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="D843" s="79" t="s">
+        <v>678</v>
+      </c>
+      <c r="E843" s="79" t="s">
         <v>679</v>
-      </c>
-      <c r="D843" s="79" t="s">
-        <v>680</v>
-      </c>
-      <c r="E843" s="79" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A844" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B844" s="80" t="s">
         <v>71</v>
@@ -14322,19 +14375,19 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A848" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B848" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C848" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D848" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E848" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.35">
@@ -14390,36 +14443,36 @@
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A852" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B852" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C852" s="80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D852" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E852" s="80" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A853" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B853" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C853" s="80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D853" s="80" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E853" s="80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.35">
@@ -14427,72 +14480,72 @@
         <v>158</v>
       </c>
       <c r="B854" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C854" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D854" s="80" t="s">
         <v>72</v>
       </c>
       <c r="E854" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A855" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B855" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C855" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D855" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E855" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A856" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C856" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D856" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E856" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A857" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C857" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D857" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E857" s="8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A858" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -14500,52 +14553,52 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A859" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B859" s="80"/>
       <c r="C859" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D859" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E859" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A860" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B860" s="8"/>
       <c r="C860" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D860" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E860" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A861" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B861" s="8"/>
       <c r="C861" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E861" s="8" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A862" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
@@ -14554,46 +14607,46 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A863" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B863" s="80"/>
       <c r="C863" s="80" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D863" s="80"/>
       <c r="E863" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A864" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B864" s="8"/>
       <c r="C864" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D864" s="8"/>
       <c r="E864" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A865" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B865" s="8"/>
       <c r="C865" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D865" s="8"/>
       <c r="E865" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A866" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B866" s="8"/>
       <c r="C866" s="80"/>
@@ -14602,46 +14655,46 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A867" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B867" s="8"/>
       <c r="C867" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D867" s="80"/>
       <c r="E867" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A868" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B868" s="8"/>
       <c r="C868" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D868" s="8"/>
       <c r="E868" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A869" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B869" s="8"/>
       <c r="C869" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D869" s="8"/>
       <c r="E869" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A870" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B870" s="8"/>
       <c r="C870" s="13"/>
@@ -14650,19 +14703,19 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A871" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B871" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C871" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D871" s="130" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E871" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.35">
@@ -14679,22 +14732,22 @@
     </row>
     <row r="874" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A874" s="79" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B874" s="125"/>
       <c r="C874" s="79" t="s">
+        <v>681</v>
+      </c>
+      <c r="D874" s="79" t="s">
+        <v>682</v>
+      </c>
+      <c r="E874" s="79" t="s">
         <v>683</v>
-      </c>
-      <c r="D874" s="79" t="s">
-        <v>684</v>
-      </c>
-      <c r="E874" s="79" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A875" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B875" s="80" t="s">
         <v>71</v>
@@ -14723,7 +14776,7 @@
         <v>164</v>
       </c>
       <c r="E876" s="80" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.35">
@@ -14762,19 +14815,19 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A879" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B879" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C879" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D879" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E879" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.35">
@@ -14830,36 +14883,36 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A883" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B883" s="80" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C883" s="80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D883" s="80" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E883" s="80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A884" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B884" s="80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C884" s="80" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D884" s="80" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E884" s="80" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.35">
@@ -14867,66 +14920,66 @@
         <v>158</v>
       </c>
       <c r="B885" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C885" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D885" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E885" s="80" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A886" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B886" s="80" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C886" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D886" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E886" s="80"/>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A887" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D887" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E887" s="8"/>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A888" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C888" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D888" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E888" s="8"/>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A889" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -14934,46 +14987,46 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A890" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B890" s="80"/>
       <c r="C890" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D890" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E890" s="80"/>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A891" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B891" s="8"/>
       <c r="C891" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E891" s="8"/>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A892" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B892" s="8"/>
       <c r="C892" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D892" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E892" s="8"/>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A893" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
@@ -14982,46 +15035,46 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A894" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B894" s="80"/>
       <c r="C894" s="80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D894" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E894" s="80"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A895" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B895" s="8"/>
       <c r="C895" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E895" s="8"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A896" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B896" s="8"/>
       <c r="C896" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D896" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E896" s="8"/>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A897" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B897" s="8"/>
       <c r="C897" s="13"/>
@@ -15030,40 +15083,40 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A898" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B898" s="8"/>
       <c r="C898" s="13"/>
       <c r="D898" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E898" s="13"/>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A899" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B899" s="8"/>
       <c r="C899" s="13"/>
       <c r="D899" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E899" s="13"/>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A900" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B900" s="8"/>
       <c r="C900" s="13"/>
       <c r="D900" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E900" s="13"/>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A901" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B901" s="8"/>
       <c r="C901" s="13"/>
@@ -15072,19 +15125,19 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A902" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B902" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C902" s="14" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D902" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E902" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.35">
@@ -15095,22 +15148,22 @@
     </row>
     <row r="905" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A905" s="79" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B905" s="125"/>
       <c r="C905" s="79" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D905" s="79" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E905" s="79" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A906" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B906" s="80" t="s">
         <v>71</v>
@@ -15178,19 +15231,19 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A910" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B910" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C910" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D910" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E910" s="80" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.35">
@@ -15246,36 +15299,36 @@
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A914" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B914" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C914" s="80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D914" s="80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E914" s="80" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A915" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B915" s="80" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C915" s="80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D915" s="80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E915" s="80" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.35">
@@ -15283,72 +15336,72 @@
         <v>158</v>
       </c>
       <c r="B916" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C916" s="80" t="s">
         <v>72</v>
       </c>
       <c r="D916" s="80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E916" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A917" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B917" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C917" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D917" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E917" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A918" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C918" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D918" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E918" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A919" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C919" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D919" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E919" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A920" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -15356,58 +15409,58 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A921" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B921" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C921" s="80" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D921" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E921" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A922" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D922" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E922" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A923" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C923" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D923" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E923" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="E923" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A924" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
@@ -15416,58 +15469,58 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A925" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B925" s="80" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C925" s="80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D925" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E925" s="80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A926" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E926" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A927" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C927" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E927" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A928" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B928" s="8"/>
       <c r="C928" s="13"/>
@@ -15476,40 +15529,40 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A929" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B929" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C929" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D929" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E929" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A932" s="79" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B932" s="118"/>
       <c r="C932" s="79" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D932" s="28"/>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A933" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B933" s="116" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C933" s="116" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D933" s="35"/>
       <c r="E933" s="36"/>
@@ -15554,7 +15607,7 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A937" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B937" s="80" t="s">
         <v>89</v>
@@ -15602,25 +15655,25 @@
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A941" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B941" s="80" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C941" s="80" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D941" s="35"/>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A942" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B942" s="80" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C942" s="80" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D942" s="35"/>
     </row>
@@ -15638,13 +15691,13 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B944" s="80" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C944" s="80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D944" s="35"/>
     </row>
@@ -15860,9 +15913,9 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" s="33"/>
-      <c r="B980" s="134"/>
-      <c r="C980" s="134"/>
-      <c r="D980" s="134"/>
+      <c r="B980" s="131"/>
+      <c r="C980" s="131"/>
+      <c r="D980" s="131"/>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" s="33"/>
@@ -15940,7 +15993,7 @@
       <c r="A993" s="33"/>
       <c r="B993" s="85"/>
       <c r="C993" s="85"/>
-      <c r="D993" s="134"/>
+      <c r="D993" s="131"/>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" s="33"/>
@@ -15980,8 +16033,8 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" s="33"/>
-      <c r="B1000" s="134"/>
-      <c r="C1000" s="134"/>
+      <c r="B1000" s="131"/>
+      <c r="C1000" s="131"/>
       <c r="D1000" s="34"/>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
@@ -16046,7 +16099,7 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1011" s="33"/>
-      <c r="B1011" s="135"/>
+      <c r="B1011" s="132"/>
       <c r="C1011" s="33"/>
       <c r="D1011" s="34"/>
     </row>
@@ -16082,6 +16135,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B824:D824"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B802:D802"/>
+    <mergeCell ref="B806:D806"/>
+    <mergeCell ref="B821:D821"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:B15"/>
@@ -16090,13 +16150,6 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B824:D824"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B802:D802"/>
-    <mergeCell ref="B806:D806"/>
-    <mergeCell ref="B821:D821"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
@@ -16143,7 +16196,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
@@ -16152,22 +16205,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>253</v>
       </c>
       <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>62</v>
@@ -16197,16 +16250,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="36"/>
     </row>
@@ -16227,7 +16280,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>67</v>
@@ -16242,7 +16295,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>68</v>
@@ -16257,16 +16310,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E11" s="36"/>
     </row>
@@ -16275,34 +16328,34 @@
         <v>181</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>262</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>263</v>
       </c>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="153" t="s">
         <v>91</v>
@@ -16320,7 +16373,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="156"/>
       <c r="C16" s="156"/>
@@ -16329,16 +16382,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E17" s="100"/>
     </row>
@@ -16347,28 +16400,28 @@
         <v>181</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E18" s="100"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="53"/>
     </row>
@@ -16381,31 +16434,31 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="D21" s="58" t="s">
         <v>252</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>253</v>
       </c>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>596</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="D22" s="55" t="s">
         <v>597</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>598</v>
       </c>
       <c r="E22" s="36"/>
     </row>
@@ -16414,43 +16467,43 @@
         <v>181</v>
       </c>
       <c r="B23" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="C23" s="53" t="s">
-        <v>541</v>
-      </c>
       <c r="D23" s="53" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="D24" s="58" t="s">
         <v>252</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>253</v>
       </c>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E25" s="36"/>
     </row>
@@ -16459,43 +16512,43 @@
         <v>181</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C26" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>600</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>601</v>
       </c>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="D27" s="58" t="s">
         <v>252</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>253</v>
       </c>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="36"/>
     </row>
@@ -16504,22 +16557,22 @@
         <v>181</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
@@ -16527,31 +16580,31 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="D31" s="58" t="s">
         <v>252</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>253</v>
       </c>
       <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E32" s="36"/>
     </row>
@@ -16560,22 +16613,22 @@
         <v>181</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C33" s="60" t="s">
+        <v>601</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>602</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>603</v>
       </c>
       <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" s="53" t="s">
         <v>271</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>272</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -16583,10 +16636,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="152" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C35" s="152"/>
       <c r="D35" s="152"/>

--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="763">
   <si>
     <t>Tester</t>
   </si>
@@ -2306,7 +2306,10 @@
     <t xml:space="preserve">error message                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
   </si>
   <si>
-    <t>HK009</t>
+    <t>HK003</t>
+  </si>
+  <si>
+    <t>HK004</t>
   </si>
 </sst>
 </file>
@@ -2565,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2950,20 +2953,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2974,11 +2965,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2996,6 +2996,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3632,10 +3638,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="147"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -3654,10 +3660,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="146" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="143"/>
+      <c r="B10" s="147"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -3684,10 +3690,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="144"/>
+      <c r="B15" s="150"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3770,18 +3776,18 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="126" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -3909,10 +3915,10 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="150"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -3977,13 +3983,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A47" s="144" t="s">
+      <c r="A47" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4139,10 +4145,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A58" s="142" t="s">
+      <c r="A58" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="143"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="6" t="s">
         <v>241</v>
       </c>
@@ -4157,12 +4163,15 @@
       <c r="C59" s="22" t="s">
         <v>158</v>
       </c>
+      <c r="D59" s="142" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="147"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4176,11 +4185,11 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A66" s="144" t="s">
+      <c r="A66" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
+      <c r="B66" s="150"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -4551,10 +4560,10 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="150" t="s">
+      <c r="D99" s="148" t="s">
         <v>663</v>
       </c>
-      <c r="E99" s="151"/>
+      <c r="E99" s="149"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
@@ -13837,11 +13846,11 @@
       <c r="A802" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B802" s="152" t="s">
+      <c r="B802" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="C802" s="153"/>
-      <c r="D802" s="154"/>
+      <c r="C802" s="152"/>
+      <c r="D802" s="153"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -13873,9 +13882,9 @@
       <c r="A806" s="127" t="s">
         <v>495</v>
       </c>
-      <c r="B806" s="147"/>
-      <c r="C806" s="148"/>
-      <c r="D806" s="149"/>
+      <c r="B806" s="143"/>
+      <c r="C806" s="144"/>
+      <c r="D806" s="145"/>
       <c r="E806" s="115"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
@@ -14092,11 +14101,11 @@
       <c r="A821" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B821" s="155" t="s">
+      <c r="B821" s="154" t="s">
         <v>258</v>
       </c>
-      <c r="C821" s="156"/>
-      <c r="D821" s="157"/>
+      <c r="C821" s="155"/>
+      <c r="D821" s="156"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14117,9 +14126,9 @@
       <c r="A824" s="127" t="s">
         <v>498</v>
       </c>
-      <c r="B824" s="147"/>
-      <c r="C824" s="148"/>
-      <c r="D824" s="149"/>
+      <c r="B824" s="143"/>
+      <c r="C824" s="144"/>
+      <c r="D824" s="145"/>
       <c r="E824" s="115"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
@@ -16285,13 +16294,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B824:D824"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B802:D802"/>
-    <mergeCell ref="B806:D806"/>
-    <mergeCell ref="B821:D821"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:B15"/>
@@ -16300,6 +16302,13 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="B824:D824"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B802:D802"/>
+    <mergeCell ref="B806:D806"/>
+    <mergeCell ref="B821:D821"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
@@ -16345,12 +16354,12 @@
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16507,11 +16516,11 @@
       <c r="A14" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16522,12 +16531,12 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="163" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -16788,11 +16797,11 @@
       <c r="A35" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="159" t="s">
         <v>595</v>
       </c>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">

--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="767">
   <si>
     <t>Tester</t>
   </si>
@@ -737,9 +737,6 @@
     <t>802</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>803</t>
   </si>
   <si>
@@ -2310,6 +2307,21 @@
   </si>
   <si>
     <t>HK004</t>
+  </si>
+  <si>
+    <t>220624</t>
+  </si>
+  <si>
+    <t>Arrival/Departure condition</t>
+  </si>
+  <si>
+    <t>Travel From</t>
+  </si>
+  <si>
+    <t>Min Stay</t>
+  </si>
+  <si>
+    <t>Max Stay</t>
   </si>
 </sst>
 </file>
@@ -2568,7 +2580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2956,6 +2968,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2965,20 +2992,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2996,12 +3014,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3027,6 +3039,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3454,7 +3469,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
@@ -3511,7 +3526,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
@@ -3622,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3638,14 +3653,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="144"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -3660,14 +3675,14 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="144"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>75</v>
@@ -3675,7 +3690,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>62</v>
@@ -3683,17 +3698,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="150"/>
+      <c r="B15" s="145"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3705,7 +3720,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>79</v>
@@ -3713,7 +3728,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>80</v>
@@ -3721,7 +3736,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>81</v>
@@ -3729,7 +3744,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>82</v>
@@ -3737,7 +3752,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>83</v>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>84</v>
@@ -3753,7 +3768,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>85</v>
@@ -3761,7 +3776,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>86</v>
@@ -3776,22 +3791,22 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="157"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="126" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="126" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+        <v>239</v>
+      </c>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>234</v>
@@ -3807,7 +3822,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>88</v>
@@ -3816,19 +3831,19 @@
         <v>237</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="76" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="36" t="s">
@@ -3839,13 +3854,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>159</v>
+      <c r="C31" s="76" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>90</v>
@@ -3855,13 +3870,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>68</v>
+      <c r="C32" s="76" t="s">
+        <v>89</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>89</v>
@@ -3871,13 +3886,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>67</v>
+      <c r="C33" s="76" t="s">
+        <v>68</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>68</v>
@@ -3892,8 +3907,8 @@
       <c r="B34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>238</v>
+      <c r="C34" s="76" t="s">
+        <v>90</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>159</v>
@@ -3903,10 +3918,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>738</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>739</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -3915,10 +3930,14 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="150"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="167" t="s">
+        <v>763</v>
+      </c>
+      <c r="D37" s="167"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -3927,13 +3946,25 @@
       <c r="B38" s="76" t="s">
         <v>75</v>
       </c>
+      <c r="C38" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>220</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -3941,20 +3972,32 @@
         <v>93</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>96</v>
@@ -3962,7 +4005,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>220</v>
@@ -3970,10 +4013,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -3983,13 +4026,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="150"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4016,7 +4059,7 @@
         <v>220</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>68</v>
@@ -4030,10 +4073,10 @@
         <v>104</v>
       </c>
       <c r="B50" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>507</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>67</v>
@@ -4047,10 +4090,10 @@
         <v>105</v>
       </c>
       <c r="B51" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>509</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>510</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>80</v>
@@ -4064,10 +4107,10 @@
         <v>106</v>
       </c>
       <c r="B52" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>158</v>
@@ -4081,10 +4124,10 @@
         <v>107</v>
       </c>
       <c r="B53" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>77</v>
@@ -4098,10 +4141,10 @@
         <v>108</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>90</v>
@@ -4115,10 +4158,10 @@
         <v>109</v>
       </c>
       <c r="B55" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>159</v>
@@ -4132,10 +4175,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>160</v>
@@ -4145,12 +4188,12 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="147"/>
+      <c r="B58" s="144"/>
       <c r="C58" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -4158,20 +4201,20 @@
         <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D59" s="142" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A62" s="146" t="s">
+      <c r="A62" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="147"/>
+      <c r="B62" s="144"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4185,11 +4228,11 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A66" s="150" t="s">
+      <c r="A66" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="150"/>
-      <c r="C66" s="150"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -4240,7 +4283,7 @@
         <v>121</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -4253,7 +4296,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
@@ -4328,10 +4371,10 @@
         <v>126</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D77" s="33"/>
     </row>
@@ -4349,10 +4392,10 @@
         <v>128</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -4360,10 +4403,10 @@
         <v>129</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -4371,7 +4414,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="72" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C81" s="4"/>
     </row>
@@ -4380,10 +4423,10 @@
         <v>131</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -4391,7 +4434,7 @@
         <v>132</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>154</v>
@@ -4411,7 +4454,7 @@
         <v>134</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>155</v>
@@ -4422,10 +4465,10 @@
         <v>135</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -4442,10 +4485,10 @@
         <v>137</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -4453,7 +4496,7 @@
         <v>138</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>156</v>
@@ -4473,7 +4516,7 @@
         <v>140</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>157</v>
@@ -4484,10 +4527,10 @@
         <v>141</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -4504,10 +4547,10 @@
         <v>232</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -4515,7 +4558,7 @@
         <v>233</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>94</v>
@@ -4535,7 +4578,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>220</v>
@@ -4546,10 +4589,10 @@
         <v>145</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
@@ -4560,17 +4603,17 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="148" t="s">
-        <v>663</v>
-      </c>
-      <c r="E99" s="149"/>
+      <c r="D99" s="151" t="s">
+        <v>662</v>
+      </c>
+      <c r="E99" s="152"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
         <v>164</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.35">
@@ -4579,13 +4622,13 @@
       </c>
       <c r="B101" s="125"/>
       <c r="C101" s="126" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -4593,13 +4636,13 @@
         <v>186</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C102" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>166</v>
@@ -4616,7 +4659,7 @@
         <v>67</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>167</v>
@@ -4633,10 +4676,10 @@
         <v>62</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -4658,7 +4701,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B106" s="64" t="s">
         <v>88</v>
@@ -4667,7 +4710,7 @@
         <v>88</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>169</v>
@@ -4714,13 +4757,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B110" s="76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C110" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D110" s="33"/>
       <c r="E110" s="35"/>
@@ -4733,18 +4776,18 @@
         <v>71</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B112" s="63" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="72" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="68"/>
@@ -4766,7 +4809,7 @@
         <v>186</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -4795,7 +4838,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B120" s="64" t="s">
         <v>88</v>
@@ -4827,10 +4870,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -4843,7 +4886,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B126" s="63" t="s">
         <v>171</v>
@@ -4868,7 +4911,7 @@
         <v>186</v>
       </c>
       <c r="B130" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -4897,7 +4940,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B134" s="64" t="s">
         <v>88</v>
@@ -4937,7 +4980,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B139" s="63" t="s">
         <v>171</v>
@@ -4954,7 +4997,7 @@
         <v>186</v>
       </c>
       <c r="B143" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -4983,7 +5026,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B147" s="64" t="s">
         <v>88</v>
@@ -5018,7 +5061,7 @@
         <v>225</v>
       </c>
       <c r="B151" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -5026,7 +5069,7 @@
         <v>226</v>
       </c>
       <c r="B152" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -5039,7 +5082,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B154" s="63" t="s">
         <v>176</v>
@@ -5064,7 +5107,7 @@
         <v>186</v>
       </c>
       <c r="B158" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -5093,7 +5136,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B162" s="64" t="s">
         <v>88</v>
@@ -5128,7 +5171,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -5136,7 +5179,7 @@
         <v>226</v>
       </c>
       <c r="B167" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -5149,7 +5192,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" s="63" t="s">
         <v>176</v>
@@ -5174,7 +5217,7 @@
         <v>186</v>
       </c>
       <c r="B173" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -5203,7 +5246,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B177" s="64" t="s">
         <v>88</v>
@@ -5238,7 +5281,7 @@
         <v>225</v>
       </c>
       <c r="B181" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -5262,7 +5305,7 @@
         <v>199</v>
       </c>
       <c r="B184" s="76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -5284,7 +5327,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -5313,7 +5356,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B192" s="64" t="s">
         <v>88</v>
@@ -5348,7 +5391,7 @@
         <v>225</v>
       </c>
       <c r="B196" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -5356,7 +5399,7 @@
         <v>226</v>
       </c>
       <c r="B197" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -5369,10 +5412,10 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B199" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -5390,7 +5433,7 @@
         <v>186</v>
       </c>
       <c r="B203" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -5419,7 +5462,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B207" s="64" t="s">
         <v>88</v>
@@ -5462,7 +5505,7 @@
         <v>226</v>
       </c>
       <c r="B212" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -5475,10 +5518,10 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B214" s="63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -5500,7 +5543,7 @@
         <v>186</v>
       </c>
       <c r="B218" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -5529,7 +5572,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B222" s="64" t="s">
         <v>88</v>
@@ -5564,7 +5607,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="76" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -5572,7 +5615,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="76" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -5585,10 +5628,10 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B229" s="76" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -5601,7 +5644,7 @@
     </row>
     <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.35">
       <c r="A232" s="127" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B232" s="125"/>
     </row>
@@ -5610,7 +5653,7 @@
         <v>186</v>
       </c>
       <c r="B233" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -5639,7 +5682,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B237" s="64" t="s">
         <v>88</v>
@@ -5683,7 +5726,7 @@
         <v>226</v>
       </c>
       <c r="B242" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E242" s="35"/>
     </row>
@@ -5717,7 +5760,7 @@
     </row>
     <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.35">
       <c r="A247" s="127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B247" s="125"/>
       <c r="E247" s="121"/>
@@ -5727,7 +5770,7 @@
         <v>186</v>
       </c>
       <c r="B248" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E248" s="121"/>
       <c r="F248" s="100"/>
@@ -5764,7 +5807,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B252" s="64" t="s">
         <v>88</v>
@@ -5808,7 +5851,7 @@
         <v>225</v>
       </c>
       <c r="B256" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E256" s="123"/>
       <c r="F256" s="102"/>
@@ -5818,7 +5861,7 @@
         <v>226</v>
       </c>
       <c r="B257" s="76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E257" s="123"/>
       <c r="F257" s="102"/>
@@ -5839,7 +5882,7 @@
         <v>199</v>
       </c>
       <c r="B259" s="72" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C259" s="40"/>
       <c r="E259" s="13"/>
@@ -5863,10 +5906,10 @@
         <v>196</v>
       </c>
       <c r="E261" s="127" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F261" s="130" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -5951,7 +5994,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B266" s="64" t="s">
         <v>88</v>
@@ -6034,19 +6077,19 @@
         <v>225</v>
       </c>
       <c r="B270" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C270" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D270" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E270" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F270" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -6054,19 +6097,19 @@
         <v>226</v>
       </c>
       <c r="B271" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D271" s="76" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E271" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F271" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -6111,7 +6154,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B274" s="64" t="s">
         <v>158</v>
@@ -6120,10 +6163,10 @@
         <v>158</v>
       </c>
       <c r="D274" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E274" s="76" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F274" s="76" t="s">
         <v>158</v>
@@ -6163,7 +6206,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B277" s="64" t="s">
         <v>192</v>
@@ -6175,7 +6218,7 @@
         <v>162</v>
       </c>
       <c r="E277" s="76" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F277" s="76" t="s">
         <v>162</v>
@@ -6197,17 +6240,17 @@
     </row>
     <row r="280" spans="1:6" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A280" s="127" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B280" s="129"/>
       <c r="C280" s="127" t="s">
         <v>229</v>
       </c>
       <c r="D280" s="127" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E280" s="131" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -6280,7 +6323,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B285" s="65" t="s">
         <v>88</v>
@@ -6351,16 +6394,16 @@
         <v>225</v>
       </c>
       <c r="B289" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C289" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D289" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E289" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -6368,16 +6411,16 @@
         <v>226</v>
       </c>
       <c r="B290" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C290" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D290" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E290" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -6416,39 +6459,39 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B293" s="76" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C293" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D293" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E293" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B294" s="65"/>
       <c r="C294" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D294" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="E294" s="76" t="s">
         <v>528</v>
-      </c>
-      <c r="E294" s="76" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -6459,24 +6502,24 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B296" s="76" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C296" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D296" s="23" t="s">
         <v>180</v>
       </c>
       <c r="E296" s="91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="6"/>
@@ -6487,28 +6530,28 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="6"/>
       <c r="D298" s="73"/>
       <c r="E298" s="90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.4">
       <c r="A299" s="127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B299" s="125"/>
       <c r="C299" s="127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D299" s="131" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E299" s="127" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -6581,7 +6624,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B304" s="65" t="s">
         <v>88</v>
@@ -6652,16 +6695,16 @@
         <v>225</v>
       </c>
       <c r="B308" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C308" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D308" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E308" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -6669,16 +6712,16 @@
         <v>226</v>
       </c>
       <c r="B309" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C309" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D309" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E309" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -6717,30 +6760,30 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B312" s="65" t="s">
         <v>237</v>
       </c>
       <c r="C312" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D312" s="51" t="s">
         <v>162</v>
       </c>
       <c r="E312" s="76" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B313" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D313" s="51" t="s">
         <v>162</v>
@@ -6749,17 +6792,17 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="109" t="s">
         <v>158</v>
       </c>
       <c r="D314" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -6854,7 +6897,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B321" s="65" t="s">
         <v>88</v>
@@ -6925,16 +6968,16 @@
         <v>225</v>
       </c>
       <c r="B325" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C325" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D325" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E325" s="76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -6942,16 +6985,16 @@
         <v>226</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D326" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -6976,16 +7019,16 @@
         <v>199</v>
       </c>
       <c r="B328" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="C328" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D328" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="C328" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="D328" s="30" t="s">
+      <c r="E328" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="E328" s="30" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -7022,16 +7065,16 @@
         <v>186</v>
       </c>
       <c r="B332" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C332" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D332" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E332" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -7087,7 +7130,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B336" s="76" t="s">
         <v>88</v>
@@ -7164,10 +7207,10 @@
         <v>228</v>
       </c>
       <c r="D340" s="108" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E340" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -7178,13 +7221,13 @@
         <v>183</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D341" s="108" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E341" s="76" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -7255,16 +7298,16 @@
         <v>186</v>
       </c>
       <c r="B347" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C347" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D347" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E347" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
@@ -7320,7 +7363,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B351" s="76" t="s">
         <v>88</v>
@@ -7391,16 +7434,16 @@
         <v>225</v>
       </c>
       <c r="B355" s="76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C355" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D355" s="76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E355" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -7408,16 +7451,16 @@
         <v>226</v>
       </c>
       <c r="B356" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C356" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D356" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E356" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -7486,13 +7529,13 @@
         <v>186</v>
       </c>
       <c r="B362" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C362" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D362" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E362" s="76"/>
     </row>
@@ -7543,7 +7586,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B366" s="76" t="s">
         <v>88</v>
@@ -7606,13 +7649,13 @@
         <v>225</v>
       </c>
       <c r="B370" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E370" s="30"/>
     </row>
@@ -7621,13 +7664,13 @@
         <v>226</v>
       </c>
       <c r="B371" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C371" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="D371" s="30" t="s">
         <v>612</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>613</v>
       </c>
       <c r="E371" s="30"/>
     </row>
@@ -7648,7 +7691,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>221</v>
@@ -7677,17 +7720,17 @@
     </row>
     <row r="376" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A376" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B376" s="129"/>
       <c r="C376" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="D376" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="E376" s="132" t="s">
         <v>279</v>
-      </c>
-      <c r="D376" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="E376" s="132" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
@@ -7695,16 +7738,16 @@
         <v>186</v>
       </c>
       <c r="B377" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C377" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D377" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E377" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
@@ -7760,19 +7803,19 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B381" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C381" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D381" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E381" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
@@ -7831,16 +7874,16 @@
         <v>225</v>
       </c>
       <c r="B385" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C385" s="76" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D385" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E385" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
@@ -7848,16 +7891,16 @@
         <v>226</v>
       </c>
       <c r="B386" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C386" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D386" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E386" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -7882,16 +7925,16 @@
         <v>199</v>
       </c>
       <c r="B388" s="76" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C388" s="76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D388" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="E388" s="76" t="s">
         <v>661</v>
-      </c>
-      <c r="E388" s="76" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -7910,17 +7953,17 @@
     </row>
     <row r="391" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A391" s="127" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B391" s="129"/>
       <c r="C391" s="127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D391" s="132" t="s">
+        <v>282</v>
+      </c>
+      <c r="E391" s="132" t="s">
         <v>283</v>
-      </c>
-      <c r="E391" s="132" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
@@ -7928,16 +7971,16 @@
         <v>186</v>
       </c>
       <c r="B392" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C392" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D392" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E392" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
@@ -7993,19 +8036,19 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B396" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C396" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D396" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E396" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
@@ -8064,16 +8107,16 @@
         <v>225</v>
       </c>
       <c r="B400" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C400" s="76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D400" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E400" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
@@ -8081,16 +8124,16 @@
         <v>226</v>
       </c>
       <c r="B401" s="76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C401" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="D401" s="76" t="s">
         <v>623</v>
       </c>
-      <c r="D401" s="76" t="s">
-        <v>624</v>
-      </c>
       <c r="E401" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -8112,19 +8155,19 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B403" s="76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C403" s="76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
@@ -8143,17 +8186,17 @@
     </row>
     <row r="406" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A406" s="127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B406" s="129"/>
       <c r="C406" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="D406" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="D406" s="132" t="s">
+      <c r="E406" s="132" t="s">
         <v>287</v>
-      </c>
-      <c r="E406" s="132" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
@@ -8161,16 +8204,16 @@
         <v>186</v>
       </c>
       <c r="B407" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C407" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D407" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E407" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
@@ -8226,19 +8269,19 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B411" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C411" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D411" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E411" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
@@ -8297,16 +8340,16 @@
         <v>225</v>
       </c>
       <c r="B415" s="76" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C415" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D415" s="76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E415" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
@@ -8314,16 +8357,16 @@
         <v>226</v>
       </c>
       <c r="B416" s="76" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C416" s="76" t="s">
+        <v>619</v>
+      </c>
+      <c r="D416" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="E416" s="76" t="s">
         <v>620</v>
-      </c>
-      <c r="D416" s="76" t="s">
-        <v>619</v>
-      </c>
-      <c r="E416" s="76" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
@@ -8348,16 +8391,16 @@
         <v>199</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C418" s="76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
@@ -8376,17 +8419,17 @@
     </row>
     <row r="421" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A421" s="127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B421" s="129"/>
       <c r="C421" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="D421" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="D421" s="132" t="s">
-        <v>291</v>
-      </c>
       <c r="E421" s="132" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
@@ -8394,16 +8437,16 @@
         <v>186</v>
       </c>
       <c r="B422" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C422" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D422" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E422" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
@@ -8459,19 +8502,19 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B426" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C426" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D426" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E426" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
@@ -8530,16 +8573,16 @@
         <v>225</v>
       </c>
       <c r="B430" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C430" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D430" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E430" s="76" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
@@ -8547,16 +8590,16 @@
         <v>226</v>
       </c>
       <c r="B431" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C431" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D431" s="76" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E431" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
@@ -8581,16 +8624,16 @@
         <v>199</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C433" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D433" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E433" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
@@ -8609,17 +8652,17 @@
     </row>
     <row r="436" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A436" s="127" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B436" s="129"/>
       <c r="C436" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="D436" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="D436" s="132" t="s">
-        <v>298</v>
-      </c>
       <c r="E436" s="132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
@@ -8627,16 +8670,16 @@
         <v>186</v>
       </c>
       <c r="B437" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C437" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D437" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E437" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
@@ -8692,19 +8735,19 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B441" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C441" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D441" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E441" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
@@ -8763,16 +8806,16 @@
         <v>225</v>
       </c>
       <c r="B445" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C445" s="76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D445" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E445" s="76" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
@@ -8780,16 +8823,16 @@
         <v>226</v>
       </c>
       <c r="B446" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C446" s="76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D446" s="76" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E446" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
@@ -8814,16 +8857,16 @@
         <v>199</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E448" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
@@ -8842,17 +8885,17 @@
     </row>
     <row r="451" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A451" s="127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B451" s="129"/>
       <c r="C451" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="D451" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="D451" s="132" t="s">
-        <v>302</v>
-      </c>
       <c r="E451" s="132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
@@ -8860,16 +8903,16 @@
         <v>186</v>
       </c>
       <c r="B452" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C452" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D452" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E452" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.35">
@@ -8925,19 +8968,19 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B456" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C456" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D456" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E456" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.35">
@@ -8996,16 +9039,16 @@
         <v>225</v>
       </c>
       <c r="B460" s="76" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C460" s="76" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E460" s="76" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
@@ -9013,16 +9056,16 @@
         <v>226</v>
       </c>
       <c r="B461" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="C461" s="76" t="s">
         <v>635</v>
       </c>
-      <c r="C461" s="76" t="s">
+      <c r="D461" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="D461" s="30" t="s">
+      <c r="E461" s="76" t="s">
         <v>637</v>
-      </c>
-      <c r="E461" s="76" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
@@ -9044,19 +9087,19 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -9075,17 +9118,17 @@
     </row>
     <row r="466" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A466" s="127" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B466" s="129"/>
       <c r="C466" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="D466" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="D466" s="132" t="s">
+      <c r="E466" s="132" t="s">
         <v>308</v>
-      </c>
-      <c r="E466" s="132" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
@@ -9093,16 +9136,16 @@
         <v>186</v>
       </c>
       <c r="B467" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C467" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D467" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E467" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
@@ -9158,19 +9201,19 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B471" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C471" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D471" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E471" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.35">
@@ -9229,16 +9272,16 @@
         <v>225</v>
       </c>
       <c r="B475" s="76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C475" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D475" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E475" s="76" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
@@ -9246,16 +9289,16 @@
         <v>226</v>
       </c>
       <c r="B476" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="C476" s="76" t="s">
         <v>640</v>
       </c>
-      <c r="C476" s="76" t="s">
+      <c r="D476" s="76" t="s">
         <v>641</v>
       </c>
-      <c r="D476" s="76" t="s">
-        <v>642</v>
-      </c>
       <c r="E476" s="76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
@@ -9277,19 +9320,19 @@
     </row>
     <row r="478" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B478" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C478" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
@@ -9308,17 +9351,17 @@
     </row>
     <row r="481" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B481" s="129"/>
       <c r="C481" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="D481" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="D481" s="132" t="s">
+      <c r="E481" s="132" t="s">
         <v>313</v>
-      </c>
-      <c r="E481" s="132" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9326,16 +9369,16 @@
         <v>186</v>
       </c>
       <c r="B482" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C482" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D482" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E482" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9391,19 +9434,19 @@
     </row>
     <row r="486" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B486" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C486" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D486" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E486" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9462,16 +9505,16 @@
         <v>225</v>
       </c>
       <c r="B490" s="76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C490" s="76" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D490" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E490" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9479,16 +9522,16 @@
         <v>226</v>
       </c>
       <c r="B491" s="76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C491" s="76" t="s">
-        <v>615</v>
+        <v>762</v>
       </c>
       <c r="D491" s="76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E491" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9510,19 +9553,19 @@
     </row>
     <row r="493" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9541,17 +9584,17 @@
     </row>
     <row r="496" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A496" s="127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B496" s="129"/>
       <c r="C496" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="D496" s="132" t="s">
         <v>333</v>
       </c>
-      <c r="D496" s="132" t="s">
+      <c r="E496" s="132" t="s">
         <v>334</v>
-      </c>
-      <c r="E496" s="132" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9559,16 +9602,16 @@
         <v>186</v>
       </c>
       <c r="B497" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C497" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D497" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E497" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9624,19 +9667,19 @@
     </row>
     <row r="501" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B501" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C501" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D501" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E501" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9695,16 +9738,16 @@
         <v>225</v>
       </c>
       <c r="B505" s="76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C505" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D505" s="76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E505" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9712,16 +9755,16 @@
         <v>226</v>
       </c>
       <c r="B506" s="76" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C506" s="76" t="s">
+        <v>648</v>
+      </c>
+      <c r="D506" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="E506" s="76" t="s">
         <v>649</v>
-      </c>
-      <c r="D506" s="76" t="s">
-        <v>643</v>
-      </c>
-      <c r="E506" s="76" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9743,19 +9786,19 @@
     </row>
     <row r="508" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C508" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9774,17 +9817,17 @@
     </row>
     <row r="511" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A511" s="127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B511" s="129"/>
       <c r="C511" s="127" t="s">
+        <v>336</v>
+      </c>
+      <c r="D511" s="132" t="s">
         <v>337</v>
       </c>
-      <c r="D511" s="132" t="s">
+      <c r="E511" s="132" t="s">
         <v>338</v>
-      </c>
-      <c r="E511" s="132" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9792,16 +9835,16 @@
         <v>186</v>
       </c>
       <c r="B512" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C512" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D512" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E512" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9857,19 +9900,19 @@
     </row>
     <row r="516" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B516" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C516" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D516" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E516" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9928,16 +9971,16 @@
         <v>225</v>
       </c>
       <c r="B520" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C520" s="76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D520" s="76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E520" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9945,16 +9988,16 @@
         <v>226</v>
       </c>
       <c r="B521" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C521" s="76" t="s">
+        <v>619</v>
+      </c>
+      <c r="D521" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="E521" s="76" t="s">
         <v>620</v>
-      </c>
-      <c r="D521" s="76" t="s">
-        <v>623</v>
-      </c>
-      <c r="E521" s="76" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9976,19 +10019,19 @@
     </row>
     <row r="523" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C523" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="D523" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="D523" s="22" t="s">
+      <c r="E523" s="22" t="s">
         <v>652</v>
-      </c>
-      <c r="E523" s="22" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10007,17 +10050,17 @@
     </row>
     <row r="526" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A526" s="127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B526" s="129"/>
       <c r="C526" s="127" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D526" s="132" t="s">
+        <v>355</v>
+      </c>
+      <c r="E526" s="132" t="s">
         <v>356</v>
-      </c>
-      <c r="E526" s="132" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="527" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10025,10 +10068,10 @@
         <v>186</v>
       </c>
       <c r="B527" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C527" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D527" s="76" t="s">
         <v>70</v>
@@ -10090,19 +10133,19 @@
     </row>
     <row r="531" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B531" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C531" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D531" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E531" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10161,16 +10204,16 @@
         <v>225</v>
       </c>
       <c r="B535" s="76" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C535" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D535" s="76" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E535" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10178,16 +10221,16 @@
         <v>226</v>
       </c>
       <c r="B536" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C536" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D536" s="76" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E536" s="76" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
@@ -10209,19 +10252,19 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B538" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C538" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="B538" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C538" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="D538" s="22" t="s">
         <v>218</v>
       </c>
       <c r="E538" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
@@ -10240,17 +10283,17 @@
     </row>
     <row r="541" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A541" s="127" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B541" s="129"/>
       <c r="C541" s="127" t="s">
+        <v>358</v>
+      </c>
+      <c r="D541" s="132" t="s">
         <v>359</v>
       </c>
-      <c r="D541" s="132" t="s">
+      <c r="E541" s="132" t="s">
         <v>360</v>
-      </c>
-      <c r="E541" s="132" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.35">
@@ -10323,19 +10366,19 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B546" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C546" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D546" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E546" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
@@ -10394,16 +10437,16 @@
         <v>225</v>
       </c>
       <c r="B550" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C550" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D550" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E550" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
@@ -10411,16 +10454,16 @@
         <v>226</v>
       </c>
       <c r="B551" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C551" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D551" s="76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E551" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
@@ -10442,19 +10485,19 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B553" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="C553" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B553" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="C553" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="D553" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E553" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
@@ -10473,14 +10516,14 @@
     </row>
     <row r="556" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A556" s="127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B556" s="129"/>
       <c r="C556" s="127" t="s">
+        <v>362</v>
+      </c>
+      <c r="D556" s="132" t="s">
         <v>363</v>
-      </c>
-      <c r="D556" s="132" t="s">
-        <v>364</v>
       </c>
       <c r="E556" s="132"/>
     </row>
@@ -10546,16 +10589,16 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B561" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C561" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D561" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E561" s="76"/>
     </row>
@@ -10609,13 +10652,13 @@
         <v>225</v>
       </c>
       <c r="B565" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C565" s="76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D565" s="76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E565" s="76"/>
     </row>
@@ -10624,13 +10667,13 @@
         <v>226</v>
       </c>
       <c r="B566" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C566" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D566" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E566" s="76"/>
     </row>
@@ -10651,16 +10694,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B568" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B568" s="14" t="s">
-        <v>264</v>
-      </c>
       <c r="C568" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D568" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E568" s="22"/>
     </row>
@@ -10680,14 +10723,14 @@
     </row>
     <row r="571" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A571" s="127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B571" s="133"/>
       <c r="C571" s="127" t="s">
+        <v>367</v>
+      </c>
+      <c r="D571" s="127" t="s">
         <v>368</v>
-      </c>
-      <c r="D571" s="127" t="s">
-        <v>369</v>
       </c>
       <c r="E571" s="114"/>
     </row>
@@ -10753,16 +10796,16 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B576" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C576" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D576" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E576" s="81"/>
     </row>
@@ -10816,13 +10859,13 @@
         <v>225</v>
       </c>
       <c r="B580" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C580" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D580" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E580" s="81"/>
     </row>
@@ -10831,13 +10874,13 @@
         <v>226</v>
       </c>
       <c r="B581" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C581" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D581" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E581" s="81"/>
     </row>
@@ -10873,16 +10916,16 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B584" s="76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C584" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D584" s="76" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E584" s="81"/>
     </row>
@@ -10906,16 +10949,16 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C587" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D587" s="76" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E587" s="81"/>
     </row>
@@ -10942,7 +10985,7 @@
     </row>
     <row r="591" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A591" s="127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B591" s="133"/>
       <c r="C591" s="133"/>
@@ -11011,7 +11054,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B596" s="76" t="s">
         <v>88</v>
@@ -11074,13 +11117,13 @@
         <v>225</v>
       </c>
       <c r="B600" s="76" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C600" s="76" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D600" s="76" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E600" s="81"/>
     </row>
@@ -11089,13 +11132,13 @@
         <v>226</v>
       </c>
       <c r="B601" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C601" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D601" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E601" s="81"/>
     </row>
@@ -11119,13 +11162,13 @@
         <v>199</v>
       </c>
       <c r="B603" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C603" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D603" s="76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E603" s="81"/>
     </row>
@@ -11152,14 +11195,14 @@
     </row>
     <row r="607" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A607" s="127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B607" s="135"/>
       <c r="C607" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="D607" s="127" t="s">
         <v>385</v>
-      </c>
-      <c r="D607" s="127" t="s">
-        <v>386</v>
       </c>
       <c r="E607" s="114"/>
     </row>
@@ -11225,16 +11268,16 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B612" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C612" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D612" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E612" s="81"/>
     </row>
@@ -11288,13 +11331,13 @@
         <v>225</v>
       </c>
       <c r="B616" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C616" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="D616" s="76" t="s">
         <v>549</v>
-      </c>
-      <c r="D616" s="76" t="s">
-        <v>550</v>
       </c>
       <c r="E616" s="81"/>
     </row>
@@ -11303,13 +11346,13 @@
         <v>226</v>
       </c>
       <c r="B617" s="76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C617" s="76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D617" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E617" s="81"/>
     </row>
@@ -11330,52 +11373,52 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B619" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C619" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D619" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E619" s="81"/>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D620" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E620" s="81"/>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C621" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D621" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E621" s="81"/>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -11383,52 +11426,52 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B623" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C623" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D623" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E623" s="81"/>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D624" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E624" s="81"/>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D625" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E625" s="81"/>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -11440,58 +11483,58 @@
         <v>199</v>
       </c>
       <c r="B627" s="76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C627" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D627" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E627" s="35"/>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B628" s="76"/>
       <c r="C628" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D628" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E628" s="35"/>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B629" s="76"/>
       <c r="C629" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D629" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E629" s="35"/>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B630" s="76"/>
       <c r="C630" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D630" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E630" s="35"/>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B631" s="76"/>
       <c r="C631" s="8"/>
@@ -11514,7 +11557,7 @@
     </row>
     <row r="634" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A634" s="127" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B634" s="129"/>
       <c r="C634" s="115"/>
@@ -11526,7 +11569,7 @@
         <v>186</v>
       </c>
       <c r="B635" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C635" s="76"/>
       <c r="D635" s="73"/>
@@ -11567,7 +11610,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B639" s="76" t="s">
         <v>88</v>
@@ -11614,7 +11657,7 @@
         <v>225</v>
       </c>
       <c r="B643" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C643" s="76"/>
       <c r="D643" s="73"/>
@@ -11625,7 +11668,7 @@
         <v>226</v>
       </c>
       <c r="B644" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C644" s="76"/>
       <c r="D644" s="73"/>
@@ -11644,10 +11687,10 @@
     </row>
     <row r="646" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B646" s="93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C646" s="76"/>
       <c r="D646" s="73"/>
@@ -11669,14 +11712,14 @@
     </row>
     <row r="649" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A649" s="127" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B649" s="129"/>
       <c r="C649" s="130" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D649" s="130" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E649" s="117"/>
     </row>
@@ -11742,7 +11785,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B654" s="76" t="s">
         <v>88</v>
@@ -11805,13 +11848,13 @@
         <v>225</v>
       </c>
       <c r="B658" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C658" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D658" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E658" s="35"/>
     </row>
@@ -11820,13 +11863,13 @@
         <v>226</v>
       </c>
       <c r="B659" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C659" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D659" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E659" s="35"/>
     </row>
@@ -11862,42 +11905,42 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B662" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C662" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="C662" s="76" t="s">
-        <v>542</v>
-      </c>
       <c r="D662" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E662" s="35"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B663" s="76" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C663" s="76" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D663" s="76" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E663" s="35"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B664" s="76"/>
       <c r="C664" s="76"/>
       <c r="D664" s="107" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E664" s="35"/>
     </row>
@@ -11910,17 +11953,17 @@
     </row>
     <row r="666" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A666" s="127" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B666" s="129"/>
       <c r="C666" s="127" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D666" s="127" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E666" s="127" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
@@ -11934,10 +11977,10 @@
         <v>70</v>
       </c>
       <c r="D667" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E667" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.35">
@@ -11982,7 +12025,7 @@
         <v>121</v>
       </c>
       <c r="C670" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D670" s="67" t="s">
         <v>121</v>
@@ -11993,13 +12036,13 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B671" s="76" t="s">
         <v>88</v>
       </c>
       <c r="C671" s="76" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D671" s="76" t="s">
         <v>88</v>
@@ -12064,16 +12107,16 @@
         <v>225</v>
       </c>
       <c r="B675" s="76" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C675" s="76" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D675" s="76" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E675" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
@@ -12081,16 +12124,16 @@
         <v>226</v>
       </c>
       <c r="B676" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C676" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D676" s="76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E676" s="76" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
@@ -12112,24 +12155,24 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B678" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C678" s="76" t="s">
+        <v>757</v>
+      </c>
+      <c r="D678" s="76" t="s">
         <v>720</v>
       </c>
-      <c r="B678" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="C678" s="76" t="s">
-        <v>758</v>
-      </c>
-      <c r="D678" s="76" t="s">
-        <v>721</v>
-      </c>
       <c r="E678" s="76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B679" s="76"/>
       <c r="C679" s="76" t="s">
@@ -12160,17 +12203,17 @@
     </row>
     <row r="682" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A682" s="127" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B682" s="135"/>
       <c r="C682" s="127" t="s">
+        <v>426</v>
+      </c>
+      <c r="D682" s="127" t="s">
         <v>427</v>
       </c>
-      <c r="D682" s="127" t="s">
+      <c r="E682" s="127" t="s">
         <v>428</v>
-      </c>
-      <c r="E682" s="127" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
@@ -12243,19 +12286,19 @@
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B687" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C687" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D687" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E687" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.35">
@@ -12314,16 +12357,16 @@
         <v>225</v>
       </c>
       <c r="B691" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C691" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D691" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E691" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
@@ -12331,16 +12374,16 @@
         <v>226</v>
       </c>
       <c r="B692" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C692" s="76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D692" s="76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E692" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
@@ -12362,58 +12405,58 @@
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B694" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C694" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D694" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E694" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C695" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D695" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E695" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C696" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D696" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E696" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -12421,52 +12464,52 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B698" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C698" s="76"/>
       <c r="D698" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E698" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C699" s="8"/>
       <c r="D699" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E699" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C700" s="8"/>
       <c r="D700" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E700" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="E700" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -12475,46 +12518,46 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B702" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C702" s="76"/>
       <c r="D702" s="76"/>
       <c r="E702" s="76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B705" s="76"/>
       <c r="C705" s="8"/>
@@ -12523,10 +12566,10 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B706" s="76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -12534,10 +12577,10 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -12545,10 +12588,10 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -12556,7 +12599,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B709" s="76"/>
       <c r="C709" s="8"/>
@@ -12565,10 +12608,10 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B710" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -12576,10 +12619,10 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -12587,10 +12630,10 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -12598,7 +12641,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B713" s="76"/>
       <c r="C713" s="8"/>
@@ -12610,16 +12653,16 @@
         <v>199</v>
       </c>
       <c r="B714" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="C714" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="D714" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="E714" s="76" t="s">
         <v>484</v>
-      </c>
-      <c r="C714" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="D714" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="E714" s="76" t="s">
-        <v>485</v>
       </c>
       <c r="F714" s="39"/>
     </row>
@@ -12637,17 +12680,17 @@
     </row>
     <row r="717" spans="1:6" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A717" s="127" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B717" s="135"/>
       <c r="C717" s="127" t="s">
+        <v>437</v>
+      </c>
+      <c r="D717" s="127" t="s">
         <v>438</v>
       </c>
-      <c r="D717" s="127" t="s">
+      <c r="E717" s="127" t="s">
         <v>439</v>
-      </c>
-      <c r="E717" s="127" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
@@ -12720,19 +12763,19 @@
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B722" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C722" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D722" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E722" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
@@ -12791,16 +12834,16 @@
         <v>225</v>
       </c>
       <c r="B726" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C726" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D726" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E726" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -12808,16 +12851,16 @@
         <v>226</v>
       </c>
       <c r="B727" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C727" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D727" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E727" s="76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -12839,58 +12882,58 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B729" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C729" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D729" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E729" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C730" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D730" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E730" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C731" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D731" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E731" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -12898,58 +12941,58 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B733" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C733" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D733" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E733" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C734" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D734" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E734" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B735" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C735" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D735" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E735" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -12958,52 +13001,52 @@
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B737" s="76"/>
       <c r="C737" s="76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D737" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E737" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B738" s="8"/>
       <c r="C738" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D738" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E738" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B739" s="8"/>
       <c r="C739" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D739" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E739" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B740" s="8"/>
       <c r="C740" s="13"/>
@@ -13012,40 +13055,40 @@
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B741" s="8"/>
       <c r="C741" s="13"/>
       <c r="D741" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E741" s="13"/>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B742" s="8"/>
       <c r="C742" s="13"/>
       <c r="D742" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E742" s="13"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B743" s="8"/>
       <c r="C743" s="13"/>
       <c r="D743" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E743" s="13"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B744" s="8"/>
       <c r="C744" s="13"/>
@@ -13057,16 +13100,16 @@
         <v>199</v>
       </c>
       <c r="B745" s="76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C745" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="D745" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D745" s="76" t="s">
-        <v>486</v>
-      </c>
       <c r="E745" s="76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -13085,17 +13128,17 @@
     </row>
     <row r="748" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A748" s="127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B748" s="135"/>
       <c r="C748" s="127" t="s">
+        <v>441</v>
+      </c>
+      <c r="D748" s="127" t="s">
         <v>442</v>
       </c>
-      <c r="D748" s="127" t="s">
+      <c r="E748" s="127" t="s">
         <v>443</v>
-      </c>
-      <c r="E748" s="127" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
@@ -13168,19 +13211,19 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B753" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C753" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D753" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E753" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.35">
@@ -13239,16 +13282,16 @@
         <v>225</v>
       </c>
       <c r="B757" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C757" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D757" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E757" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
@@ -13256,16 +13299,16 @@
         <v>226</v>
       </c>
       <c r="B758" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C758" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D758" s="76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E758" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.35">
@@ -13279,7 +13322,7 @@
         <v>191</v>
       </c>
       <c r="D759" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E759" s="76" t="s">
         <v>198</v>
@@ -13287,58 +13330,58 @@
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B760" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C760" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D760" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E760" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C761" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D761" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E761" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C762" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D762" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E762" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -13346,52 +13389,52 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B764" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C764" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D764" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E764" s="76"/>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C765" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D765" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E765" s="8"/>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C766" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D766" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E766" s="8"/>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -13400,52 +13443,52 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B768" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C768" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D768" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E768" s="76"/>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C769" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D769" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E769" s="8"/>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C770" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D770" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E770" s="8"/>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B771" s="76"/>
       <c r="C771" s="76"/>
@@ -13454,52 +13497,52 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B772" s="76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C772" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D772" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E772" s="8"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B773" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C773" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D773" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="C773" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D773" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="E773" s="8"/>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B774" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C774" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D774" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E774" s="8"/>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -13508,40 +13551,40 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
       <c r="D776" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E776" s="8"/>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E777" s="8"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E778" s="8"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -13550,40 +13593,40 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
       <c r="D780" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E780" s="76"/>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E781" s="13"/>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E782" s="13"/>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -13595,16 +13638,16 @@
         <v>199</v>
       </c>
       <c r="B784" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="C784" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="C784" s="76" t="s">
-        <v>487</v>
-      </c>
       <c r="D784" s="93" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E784" s="76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13623,16 +13666,16 @@
     </row>
     <row r="787" spans="1:5" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A787" s="127" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B787" s="136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C787" s="136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D787" s="136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E787" s="115"/>
     </row>
@@ -13683,7 +13726,7 @@
     </row>
     <row r="791" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B791" s="67" t="s">
         <v>121</v>
@@ -13698,7 +13741,7 @@
     </row>
     <row r="792" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B792" s="76" t="s">
         <v>88</v>
@@ -13707,7 +13750,7 @@
         <v>237</v>
       </c>
       <c r="D792" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E792" s="76"/>
     </row>
@@ -13761,13 +13804,13 @@
         <v>225</v>
       </c>
       <c r="B796" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C796" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="C796" s="76" t="s">
-        <v>598</v>
-      </c>
       <c r="D796" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E796" s="76"/>
     </row>
@@ -13776,13 +13819,13 @@
         <v>226</v>
       </c>
       <c r="B797" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C797" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D797" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E797" s="76"/>
     </row>
@@ -13803,7 +13846,7 @@
     </row>
     <row r="799" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B799" s="76" t="s">
         <v>195</v>
@@ -13818,47 +13861,47 @@
     </row>
     <row r="800" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B800" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C800" s="76"/>
       <c r="D800" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E800" s="76"/>
     </row>
     <row r="801" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B801" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C801" s="76"/>
       <c r="D801" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E801" s="76"/>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B802" s="153" t="s">
         <v>263</v>
       </c>
-      <c r="B802" s="151" t="s">
-        <v>264</v>
-      </c>
-      <c r="C802" s="152"/>
-      <c r="D802" s="153"/>
+      <c r="C802" s="154"/>
+      <c r="D802" s="155"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B803" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C803" s="76"/>
       <c r="D803" s="76"/>
@@ -13880,11 +13923,11 @@
     </row>
     <row r="806" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A806" s="127" t="s">
-        <v>495</v>
-      </c>
-      <c r="B806" s="143"/>
-      <c r="C806" s="144"/>
-      <c r="D806" s="145"/>
+        <v>494</v>
+      </c>
+      <c r="B806" s="148"/>
+      <c r="C806" s="149"/>
+      <c r="D806" s="150"/>
       <c r="E806" s="115"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
@@ -13934,7 +13977,7 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B810" s="67" t="s">
         <v>121</v>
@@ -13949,7 +13992,7 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B811" s="76" t="s">
         <v>88</v>
@@ -13958,7 +14001,7 @@
         <v>237</v>
       </c>
       <c r="D811" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E811" s="76"/>
     </row>
@@ -14012,13 +14055,13 @@
         <v>225</v>
       </c>
       <c r="B815" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C815" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="C815" s="76" t="s">
-        <v>598</v>
-      </c>
       <c r="D815" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E815" s="76"/>
     </row>
@@ -14027,13 +14070,13 @@
         <v>226</v>
       </c>
       <c r="B816" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C816" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D816" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E816" s="76"/>
     </row>
@@ -14054,7 +14097,7 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B818" s="76" t="s">
         <v>195</v>
@@ -14069,43 +14112,43 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B819" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C819" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="C819" s="76" t="s">
-        <v>598</v>
-      </c>
       <c r="D819" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E819" s="76"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B820" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="C820" s="76" t="s">
         <v>603</v>
       </c>
-      <c r="C820" s="76" t="s">
+      <c r="D820" s="76" t="s">
         <v>604</v>
-      </c>
-      <c r="D820" s="76" t="s">
-        <v>605</v>
       </c>
       <c r="E820" s="76"/>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B821" s="154" t="s">
-        <v>258</v>
-      </c>
-      <c r="C821" s="155"/>
-      <c r="D821" s="156"/>
+        <v>262</v>
+      </c>
+      <c r="B821" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="C821" s="157"/>
+      <c r="D821" s="158"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14124,11 +14167,11 @@
     </row>
     <row r="824" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
       <c r="A824" s="127" t="s">
-        <v>498</v>
-      </c>
-      <c r="B824" s="143"/>
-      <c r="C824" s="144"/>
-      <c r="D824" s="145"/>
+        <v>497</v>
+      </c>
+      <c r="B824" s="148"/>
+      <c r="C824" s="149"/>
+      <c r="D824" s="150"/>
       <c r="E824" s="115"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
@@ -14178,7 +14221,7 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B828" s="67" t="s">
         <v>121</v>
@@ -14193,7 +14236,7 @@
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B829" s="76" t="s">
         <v>88</v>
@@ -14202,7 +14245,7 @@
         <v>237</v>
       </c>
       <c r="D829" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E829" s="76"/>
     </row>
@@ -14256,13 +14299,13 @@
         <v>225</v>
       </c>
       <c r="B833" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C833" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="C833" s="76" t="s">
-        <v>598</v>
-      </c>
       <c r="D833" s="76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E833" s="76"/>
     </row>
@@ -14271,13 +14314,13 @@
         <v>226</v>
       </c>
       <c r="B834" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C834" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D834" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E834" s="76"/>
     </row>
@@ -14298,7 +14341,7 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A836" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B836" s="76" t="s">
         <v>195</v>
@@ -14313,37 +14356,37 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A837" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B837" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C837" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D837" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E837" s="76"/>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A838" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B838" s="76" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C838" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D838" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E838" s="76"/>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A839" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B839" s="80"/>
       <c r="C839" s="80"/>
@@ -14352,7 +14395,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A840" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B840" s="38"/>
       <c r="C840" s="38"/>
@@ -14375,17 +14418,17 @@
     </row>
     <row r="843" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A843" s="127" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B843" s="135"/>
       <c r="C843" s="127" t="s">
+        <v>668</v>
+      </c>
+      <c r="D843" s="127" t="s">
         <v>669</v>
       </c>
-      <c r="D843" s="127" t="s">
+      <c r="E843" s="127" t="s">
         <v>670</v>
-      </c>
-      <c r="E843" s="127" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.35">
@@ -14458,19 +14501,19 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A848" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B848" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C848" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D848" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E848" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.35">
@@ -14529,16 +14572,16 @@
         <v>225</v>
       </c>
       <c r="B852" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C852" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D852" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E852" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.35">
@@ -14546,16 +14589,16 @@
         <v>226</v>
       </c>
       <c r="B853" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C853" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D853" s="76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E853" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.35">
@@ -14577,58 +14620,58 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A855" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B855" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C855" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D855" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E855" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A856" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C856" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D856" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E856" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A857" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C857" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D857" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E857" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A858" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
@@ -14636,52 +14679,52 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A859" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B859" s="76"/>
       <c r="C859" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D859" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E859" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A860" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B860" s="8"/>
       <c r="C860" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D860" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E860" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A861" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B861" s="8"/>
       <c r="C861" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E861" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A862" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
@@ -14690,46 +14733,46 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A863" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B863" s="76"/>
       <c r="C863" s="76" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D863" s="76"/>
       <c r="E863" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A864" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B864" s="8"/>
       <c r="C864" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D864" s="8"/>
       <c r="E864" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A865" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B865" s="8"/>
       <c r="C865" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D865" s="8"/>
       <c r="E865" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A866" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B866" s="8"/>
       <c r="C866" s="76"/>
@@ -14738,46 +14781,46 @@
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A867" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B867" s="8"/>
       <c r="C867" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D867" s="76"/>
       <c r="E867" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A868" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B868" s="8"/>
       <c r="C868" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D868" s="8"/>
       <c r="E868" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A869" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B869" s="8"/>
       <c r="C869" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D869" s="8"/>
       <c r="E869" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A870" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B870" s="8"/>
       <c r="C870" s="13"/>
@@ -14786,19 +14829,19 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A871" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B871" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C871" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D871" s="118" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E871" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.35">
@@ -14815,17 +14858,17 @@
     </row>
     <row r="874" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A874" s="127" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B874" s="135"/>
       <c r="C874" s="127" t="s">
+        <v>672</v>
+      </c>
+      <c r="D874" s="127" t="s">
         <v>673</v>
       </c>
-      <c r="D874" s="127" t="s">
+      <c r="E874" s="127" t="s">
         <v>674</v>
-      </c>
-      <c r="E874" s="127" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.35">
@@ -14898,19 +14941,19 @@
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A879" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B879" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C879" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D879" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E879" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.35">
@@ -14969,16 +15012,16 @@
         <v>225</v>
       </c>
       <c r="B883" s="76" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C883" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D883" s="76" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E883" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.35">
@@ -14986,16 +15029,16 @@
         <v>226</v>
       </c>
       <c r="B884" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C884" s="76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D884" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E884" s="76" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.35">
@@ -15012,57 +15055,57 @@
         <v>191</v>
       </c>
       <c r="E885" s="76" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A886" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B886" s="76" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C886" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D886" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E886" s="76"/>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A887" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C887" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D887" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E887" s="8"/>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A888" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C888" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D888" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E888" s="8"/>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A889" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
@@ -15070,46 +15113,46 @@
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A890" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B890" s="76"/>
       <c r="C890" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D890" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E890" s="76"/>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A891" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B891" s="8"/>
       <c r="C891" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E891" s="8"/>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A892" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B892" s="8"/>
       <c r="C892" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D892" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E892" s="8"/>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A893" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
@@ -15118,46 +15161,46 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A894" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B894" s="76"/>
       <c r="C894" s="76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D894" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E894" s="76"/>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A895" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B895" s="8"/>
       <c r="C895" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E895" s="8"/>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A896" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B896" s="8"/>
       <c r="C896" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D896" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E896" s="8"/>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A897" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B897" s="8"/>
       <c r="C897" s="13"/>
@@ -15166,40 +15209,40 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A898" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B898" s="8"/>
       <c r="C898" s="13"/>
       <c r="D898" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E898" s="13"/>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A899" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B899" s="8"/>
       <c r="C899" s="13"/>
       <c r="D899" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E899" s="13"/>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A900" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B900" s="8"/>
       <c r="C900" s="13"/>
       <c r="D900" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E900" s="13"/>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A901" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B901" s="8"/>
       <c r="C901" s="13"/>
@@ -15208,19 +15251,19 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A902" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B902" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C902" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D902" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E902" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.35">
@@ -15231,17 +15274,17 @@
     </row>
     <row r="905" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A905" s="127" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B905" s="135"/>
       <c r="C905" s="127" t="s">
+        <v>676</v>
+      </c>
+      <c r="D905" s="127" t="s">
         <v>677</v>
       </c>
-      <c r="D905" s="127" t="s">
-        <v>678</v>
-      </c>
       <c r="E905" s="127" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.35">
@@ -15314,19 +15357,19 @@
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A910" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B910" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C910" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D910" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E910" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.35">
@@ -15385,16 +15428,16 @@
         <v>225</v>
       </c>
       <c r="B914" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C914" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D914" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E914" s="76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.35">
@@ -15402,16 +15445,16 @@
         <v>226</v>
       </c>
       <c r="B915" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C915" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D915" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E915" s="76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.35">
@@ -15433,58 +15476,58 @@
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A917" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B917" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C917" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D917" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E917" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A918" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C918" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D918" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E918" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A919" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C919" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D919" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E919" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A920" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
@@ -15492,58 +15535,58 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A921" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B921" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C921" s="76" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D921" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E921" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A922" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D922" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E922" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A923" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C923" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D923" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E923" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="E923" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A924" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
@@ -15552,58 +15595,58 @@
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A925" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B925" s="76" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C925" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D925" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E925" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A926" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E926" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A927" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C927" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E927" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A928" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B928" s="8"/>
       <c r="C928" s="13"/>
@@ -15612,34 +15655,34 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A929" s="71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B929" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C929" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D929" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E929" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="932" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A932" s="127" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B932" s="129"/>
       <c r="C932" s="127" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D932" s="127" t="s">
+        <v>744</v>
+      </c>
+      <c r="E932" s="127" t="s">
         <v>745</v>
-      </c>
-      <c r="E932" s="127" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.35">
@@ -15647,10 +15690,10 @@
         <v>186</v>
       </c>
       <c r="B933" s="110" t="s">
+        <v>725</v>
+      </c>
+      <c r="C933" s="110" t="s">
         <v>726</v>
-      </c>
-      <c r="C933" s="110" t="s">
-        <v>727</v>
       </c>
       <c r="D933" s="110" t="s">
         <v>70</v>
@@ -15704,15 +15747,15 @@
         <v>121</v>
       </c>
       <c r="D936" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E936" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A937" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B937" s="76" t="s">
         <v>88</v>
@@ -15721,10 +15764,10 @@
         <v>88</v>
       </c>
       <c r="D937" s="76" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E937" s="76" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.35">
@@ -15783,16 +15826,16 @@
         <v>225</v>
       </c>
       <c r="B941" s="76" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C941" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D941" s="76" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E941" s="76" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.35">
@@ -15800,16 +15843,16 @@
         <v>226</v>
       </c>
       <c r="B942" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C942" s="76" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D942" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E942" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.35">
@@ -15831,45 +15874,45 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B944" s="76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C944" s="76" t="s">
         <v>213</v>
       </c>
       <c r="D944" s="76" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E944" s="76" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A945" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B945" s="76"/>
       <c r="C945" s="76"/>
       <c r="D945" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="E945" s="124" t="s">
         <v>749</v>
-      </c>
-      <c r="E945" s="124" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A946" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E946" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.35">
@@ -16293,7 +16336,14 @@
       <c r="D1016" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B824:D824"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B802:D802"/>
+    <mergeCell ref="B806:D806"/>
+    <mergeCell ref="B821:D821"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:B15"/>
@@ -16302,13 +16352,7 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B824:D824"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B802:D802"/>
-    <mergeCell ref="B806:D806"/>
-    <mergeCell ref="B821:D821"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
@@ -16355,7 +16399,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="164" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="165"/>
       <c r="C3" s="165"/>
@@ -16364,22 +16408,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="48" t="s">
         <v>244</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>245</v>
       </c>
       <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>62</v>
@@ -16409,7 +16453,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>88</v>
@@ -16418,7 +16462,7 @@
         <v>237</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="35"/>
     </row>
@@ -16439,7 +16483,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>67</v>
@@ -16454,7 +16498,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>68</v>
@@ -16469,16 +16513,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E11" s="35"/>
     </row>
@@ -16487,13 +16531,13 @@
         <v>175</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E12" s="35"/>
     </row>
@@ -16502,19 +16546,19 @@
         <v>199</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>218</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="160" t="s">
         <v>90</v>
@@ -16532,7 +16576,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="163" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="163"/>
       <c r="C16" s="163"/>
@@ -16541,16 +16585,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>220</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E17" s="95"/>
     </row>
@@ -16559,13 +16603,13 @@
         <v>175</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E18" s="95"/>
     </row>
@@ -16577,7 +16621,7 @@
         <v>213</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>208</v>
@@ -16593,31 +16637,31 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="D21" s="141" t="s">
         <v>244</v>
-      </c>
-      <c r="D21" s="141" t="s">
-        <v>245</v>
       </c>
       <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>587</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="D22" s="53" t="s">
         <v>588</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>589</v>
       </c>
       <c r="E22" s="35"/>
     </row>
@@ -16626,43 +16670,43 @@
         <v>175</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>532</v>
-      </c>
       <c r="D23" s="51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="D24" s="141" t="s">
         <v>244</v>
-      </c>
-      <c r="D24" s="141" t="s">
-        <v>245</v>
       </c>
       <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>220</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E25" s="35"/>
     </row>
@@ -16671,40 +16715,40 @@
         <v>175</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C26" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="D26" s="51" t="s">
         <v>591</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>592</v>
       </c>
       <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="D27" s="141" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="141" t="s">
-        <v>245</v>
       </c>
       <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="51" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>184</v>
@@ -16716,22 +16760,22 @@
         <v>175</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -16739,31 +16783,31 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="D31" s="141" t="s">
         <v>244</v>
-      </c>
-      <c r="D31" s="141" t="s">
-        <v>245</v>
       </c>
       <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>220</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E32" s="35"/>
     </row>
@@ -16772,22 +16816,22 @@
         <v>175</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="57" t="s">
+        <v>592</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>593</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>594</v>
       </c>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>264</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -16795,10 +16839,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B35" s="159" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C35" s="159"/>
       <c r="D35" s="159"/>

--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="791">
   <si>
     <t>Tester</t>
   </si>
@@ -2322,13 +2323,90 @@
   </si>
   <si>
     <t>Max Stay</t>
+  </si>
+  <si>
+    <t>Expected Text</t>
+  </si>
+  <si>
+    <t>TC-02</t>
+  </si>
+  <si>
+    <t>Booking Mask</t>
+  </si>
+  <si>
+    <t>TC-06 and TC-07</t>
+  </si>
+  <si>
+    <t>160724</t>
+  </si>
+  <si>
+    <t>No data available in table</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrival Date </t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>suresh@gmail.com</t>
+  </si>
+  <si>
+    <t>9860123238</t>
+  </si>
+  <si>
+    <t>PatilTest</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>Sales Booking List
+Dashboard
+SalesBooking</t>
+  </si>
+  <si>
+    <t>Booking New
+Dashboard
+SalesBooking
+SalesBookingCreate</t>
+  </si>
+  <si>
+    <t>TC-01 and TC-05</t>
+  </si>
+  <si>
+    <t>ExpectedResult1</t>
+  </si>
+  <si>
+    <t>ExpectedResult2</t>
+  </si>
+  <si>
+    <t>ExpectedResult3</t>
+  </si>
+  <si>
+    <t>Customer Document</t>
+  </si>
+  <si>
+    <t>Hotel Document</t>
+  </si>
+  <si>
+    <t>Payment Information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2424,6 +2502,19 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2576,11 +2667,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2968,6 +3062,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,6 +3096,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3040,13 +3158,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3637,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3653,10 +3775,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="144"/>
+      <c r="B5" s="151"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -3675,10 +3797,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="144"/>
+      <c r="B10" s="151"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -3705,10 +3827,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="145"/>
+      <c r="B15" s="152"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3791,18 +3913,18 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="153" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="146"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="126" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="126" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -3930,14 +4052,14 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="167" t="s">
+      <c r="B37" s="152"/>
+      <c r="C37" s="155" t="s">
         <v>763</v>
       </c>
-      <c r="D37" s="167"/>
+      <c r="D37" s="155"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -3978,7 +4100,7 @@
         <v>765</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -4026,13 +4148,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A47" s="145" t="s">
+      <c r="A47" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4188,10 +4310,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="144"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="6" t="s">
         <v>240</v>
       </c>
@@ -4211,10 +4333,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="144"/>
+      <c r="B62" s="151"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4228,11 +4350,11 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A66" s="145" t="s">
+      <c r="A66" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="152"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -4603,10 +4725,10 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="151" t="s">
+      <c r="D99" s="159" t="s">
         <v>662</v>
       </c>
-      <c r="E99" s="152"/>
+      <c r="E99" s="160"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
@@ -13889,11 +14011,11 @@
       <c r="A802" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B802" s="153" t="s">
+      <c r="B802" s="161" t="s">
         <v>263</v>
       </c>
-      <c r="C802" s="154"/>
-      <c r="D802" s="155"/>
+      <c r="C802" s="162"/>
+      <c r="D802" s="163"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -13925,9 +14047,9 @@
       <c r="A806" s="127" t="s">
         <v>494</v>
       </c>
-      <c r="B806" s="148"/>
-      <c r="C806" s="149"/>
-      <c r="D806" s="150"/>
+      <c r="B806" s="156"/>
+      <c r="C806" s="157"/>
+      <c r="D806" s="158"/>
       <c r="E806" s="115"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
@@ -14144,11 +14266,11 @@
       <c r="A821" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B821" s="156" t="s">
+      <c r="B821" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="C821" s="157"/>
-      <c r="D821" s="158"/>
+      <c r="C821" s="165"/>
+      <c r="D821" s="166"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14169,9 +14291,9 @@
       <c r="A824" s="127" t="s">
         <v>497</v>
       </c>
-      <c r="B824" s="148"/>
-      <c r="C824" s="149"/>
-      <c r="D824" s="150"/>
+      <c r="B824" s="156"/>
+      <c r="C824" s="157"/>
+      <c r="D824" s="158"/>
       <c r="E824" s="115"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
@@ -16370,8 +16492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16398,12 +16520,12 @@
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="166"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174"/>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16560,11 +16682,11 @@
       <c r="A14" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="162"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16575,12 +16697,12 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="171" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -16841,11 +16963,11 @@
       <c r="A35" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="167" t="s">
         <v>594</v>
       </c>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -17044,4 +17166,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E56"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="176" t="s">
+        <v>784</v>
+      </c>
+      <c r="B3" s="176"/>
+      <c r="D3" s="160" t="s">
+        <v>662</v>
+      </c>
+      <c r="E3" s="160"/>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B4" s="149" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B5" s="145" t="s">
+        <v>783</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="143"/>
+      <c r="D6" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="176" t="s">
+        <v>768</v>
+      </c>
+      <c r="B8" s="176"/>
+      <c r="D8" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="176" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="176"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="176" t="s">
+        <v>770</v>
+      </c>
+      <c r="B16" s="176"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B17" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="176"/>
+      <c r="C20" s="146" t="s">
+        <v>773</v>
+      </c>
+      <c r="D20" s="146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="148" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>771</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>771</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="147" t="s">
+        <v>774</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="124" t="s">
+        <v>772</v>
+      </c>
+      <c r="C34" s="124"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="176" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" s="176"/>
+      <c r="C37" s="139" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="C46" s="76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>771</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="175" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="175"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="B55" s="118" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="B56" s="149" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="829">
   <si>
     <t>Tester</t>
   </si>
@@ -2302,9 +2303,6 @@
   </si>
   <si>
     <t xml:space="preserve">error message                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
-  </si>
-  <si>
-    <t>HK003</t>
   </si>
   <si>
     <t>HK004</t>
@@ -2400,13 +2398,130 @@
   </si>
   <si>
     <t>Payment Information</t>
+  </si>
+  <si>
+    <t>HK003</t>
+  </si>
+  <si>
+    <t>456444</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>3456433242564</t>
+  </si>
+  <si>
+    <t>hotel@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rahul2511@gmail.com</t>
+  </si>
+  <si>
+    <t>reserv@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer Definition </t>
+  </si>
+  <si>
+    <t>Offer Calculation</t>
+  </si>
+  <si>
+    <t>Allotment Details</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase_Decrease_Amount </t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>Date_Until</t>
+  </si>
+  <si>
+    <t>Date_From</t>
+  </si>
+  <si>
+    <t>Initial Allotment</t>
+  </si>
+  <si>
+    <t>Current Allotment</t>
+  </si>
+  <si>
+    <t>Remaining Allotment</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>TC-06</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sold Allotment</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>patilRS@gmail.com</t>
+  </si>
+  <si>
+    <t>4567635426</t>
+  </si>
+  <si>
+    <t>Stop sales</t>
+  </si>
+  <si>
+    <t>Date_from in change_Allotment</t>
+  </si>
+  <si>
+    <t>Date_Until in change_Allotment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold </t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Release Days</t>
+  </si>
+  <si>
+    <t>Sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2486,19 +2601,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
@@ -2515,6 +2617,34 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2670,11 +2800,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2983,20 +3113,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3018,32 +3134,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3053,22 +3146,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,37 +3170,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3146,16 +3283,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3163,6 +3297,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3464,22 +3604,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="124" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -3759,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView topLeftCell="A280" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3769,16 +3909,16 @@
     <col min="2" max="2" width="45.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="49.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="51.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.7265625" customWidth="1"/>
+    <col min="5" max="5" width="59.26953125" customWidth="1"/>
     <col min="6" max="6" width="47.08984375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
+    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="151"/>
+      <c r="B5" s="155"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -3796,11 +3936,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="150" t="s">
+    <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="151"/>
+      <c r="B10" s="155"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -3826,11 +3966,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A15" s="152" t="s">
+    <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="152"/>
+      <c r="B15" s="156"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -3912,19 +4052,19 @@
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A27" s="153" t="s">
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="153"/>
-      <c r="C27" s="126" t="s">
+      <c r="B27" s="157"/>
+      <c r="C27" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -4051,15 +4191,15 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A37" s="152" t="s">
+    <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="155" t="s">
-        <v>763</v>
-      </c>
-      <c r="D37" s="155"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156" t="s">
+        <v>762</v>
+      </c>
+      <c r="D37" s="156"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -4069,7 +4209,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D38" s="76" t="s">
         <v>354</v>
@@ -4097,7 +4237,7 @@
         <v>518</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>68</v>
@@ -4111,7 +4251,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>77</v>
@@ -4147,14 +4287,14 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B46" s="18"/>
     </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A47" s="152" t="s">
+    <row r="47" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4184,7 +4324,7 @@
         <v>505</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>111</v>
@@ -4309,11 +4449,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A58" s="150" t="s">
+    <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="151"/>
+      <c r="B58" s="155"/>
       <c r="C58" s="6" t="s">
         <v>240</v>
       </c>
@@ -4323,20 +4463,20 @@
         <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="142" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A62" s="150" t="s">
+      <c r="D59" s="125" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="151"/>
+      <c r="B62" s="155"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4349,12 +4489,12 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A66" s="152" t="s">
+    <row r="66" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="152"/>
-      <c r="C66" s="152"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -4725,10 +4865,10 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="159" t="s">
+      <c r="D99" s="162" t="s">
         <v>662</v>
       </c>
-      <c r="E99" s="160"/>
+      <c r="E99" s="163"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
@@ -4738,12 +4878,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A101" s="127" t="s">
+    <row r="101" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="B101" s="125"/>
-      <c r="C101" s="126" t="s">
+      <c r="B101" s="119"/>
+      <c r="C101" s="120" t="s">
         <v>503</v>
       </c>
       <c r="D101" s="12" t="s">
@@ -4920,11 +5060,11 @@
       <c r="D113" s="33"/>
       <c r="E113" s="68"/>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A115" s="127" t="s">
+    <row r="115" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="125"/>
+      <c r="B115" s="119"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
@@ -5022,11 +5162,11 @@
       <c r="A128" s="28"/>
       <c r="B128" s="29"/>
     </row>
-    <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A129" s="127" t="s">
+    <row r="129" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="B129" s="125"/>
+      <c r="B129" s="119"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
@@ -5108,11 +5248,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A142" s="127" t="s">
+    <row r="142" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="B142" s="125"/>
+      <c r="B142" s="119"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
@@ -5218,11 +5358,11 @@
       <c r="A156" s="28"/>
       <c r="B156" s="29"/>
     </row>
-    <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A157" s="127" t="s">
+    <row r="157" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="B157" s="125"/>
+      <c r="B157" s="119"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
@@ -5328,11 +5468,11 @@
       <c r="A171" s="6"/>
       <c r="B171" s="63"/>
     </row>
-    <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A172" s="127" t="s">
+    <row r="172" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="128"/>
+      <c r="B172" s="121"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
@@ -5438,11 +5578,11 @@
       <c r="A186" s="28"/>
       <c r="B186" s="34"/>
     </row>
-    <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A187" s="127" t="s">
+    <row r="187" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A187" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="B187" s="125"/>
+      <c r="B187" s="119"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
@@ -5544,11 +5684,11 @@
       <c r="A201" s="28"/>
       <c r="B201" s="29"/>
     </row>
-    <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A202" s="127" t="s">
+    <row r="202" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="B202" s="125"/>
+      <c r="B202" s="119"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
@@ -5654,11 +5794,11 @@
       <c r="A216" s="28"/>
       <c r="B216" s="29"/>
     </row>
-    <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A217" s="127" t="s">
+    <row r="217" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A217" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="B217" s="125"/>
+      <c r="B217" s="119"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
@@ -5764,11 +5904,11 @@
       <c r="A231" s="32"/>
       <c r="B231" s="34"/>
     </row>
-    <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.35">
-      <c r="A232" s="127" t="s">
+    <row r="232" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="134" t="s">
         <v>371</v>
       </c>
-      <c r="B232" s="125"/>
+      <c r="B232" s="119"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
@@ -5880,12 +6020,12 @@
       <c r="B246" s="34"/>
       <c r="E246" s="13"/>
     </row>
-    <row r="247" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A247" s="127" t="s">
+    <row r="247" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A247" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="B247" s="125"/>
-      <c r="E247" s="121"/>
+      <c r="B247" s="119"/>
+      <c r="E247" s="115"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
@@ -5894,7 +6034,7 @@
       <c r="B248" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="E248" s="121"/>
+      <c r="E248" s="115"/>
       <c r="F248" s="100"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -5904,7 +6044,7 @@
       <c r="B249" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E249" s="121"/>
+      <c r="E249" s="115"/>
       <c r="F249" s="100"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -5914,7 +6054,7 @@
       <c r="B250" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E250" s="121"/>
+      <c r="E250" s="115"/>
       <c r="F250" s="100"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -5924,7 +6064,7 @@
       <c r="B251" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E251" s="122"/>
+      <c r="E251" s="116"/>
       <c r="F251" s="101"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -5934,7 +6074,7 @@
       <c r="B252" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E252" s="123"/>
+      <c r="E252" s="117"/>
       <c r="F252" s="102"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -5944,7 +6084,7 @@
       <c r="B253" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E253" s="123"/>
+      <c r="E253" s="117"/>
       <c r="F253" s="102"/>
     </row>
     <row r="254" spans="1:6" ht="17" x14ac:dyDescent="0.4">
@@ -5955,7 +6095,7 @@
         <v>67</v>
       </c>
       <c r="D254" s="111"/>
-      <c r="E254" s="123"/>
+      <c r="E254" s="117"/>
       <c r="F254" s="102"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -5965,7 +6105,7 @@
       <c r="B255" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="E255" s="123"/>
+      <c r="E255" s="117"/>
       <c r="F255" s="102"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -5975,7 +6115,7 @@
       <c r="B256" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="E256" s="123"/>
+      <c r="E256" s="117"/>
       <c r="F256" s="102"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -5985,7 +6125,7 @@
       <c r="B257" s="76" t="s">
         <v>521</v>
       </c>
-      <c r="E257" s="123"/>
+      <c r="E257" s="117"/>
       <c r="F257" s="102"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -5996,7 +6136,7 @@
         <v>71</v>
       </c>
       <c r="C258" s="40"/>
-      <c r="E258" s="121"/>
+      <c r="E258" s="115"/>
       <c r="F258" s="100"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -6016,21 +6156,21 @@
       <c r="E260" s="35"/>
       <c r="F260" s="100"/>
     </row>
-    <row r="261" spans="1:6" ht="17" x14ac:dyDescent="0.35">
-      <c r="A261" s="127" t="s">
+    <row r="261" spans="1:6" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A261" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="B261" s="129"/>
-      <c r="C261" s="127" t="s">
+      <c r="B261" s="136"/>
+      <c r="C261" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="D261" s="127" t="s">
+      <c r="D261" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="E261" s="127" t="s">
+      <c r="E261" s="134" t="s">
         <v>707</v>
       </c>
-      <c r="F261" s="130" t="s">
+      <c r="F261" s="137" t="s">
         <v>716</v>
       </c>
     </row>
@@ -6360,18 +6500,18 @@
       <c r="D279" s="75"/>
       <c r="E279" s="35"/>
     </row>
-    <row r="280" spans="1:6" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A280" s="127" t="s">
+    <row r="280" spans="1:6" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A280" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="B280" s="129"/>
-      <c r="C280" s="127" t="s">
+      <c r="B280" s="136"/>
+      <c r="C280" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="D280" s="127" t="s">
+      <c r="D280" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="E280" s="131" t="s">
+      <c r="E280" s="139" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6392,14 +6532,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B282" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C282" s="65" t="s">
+      <c r="C282" s="135" t="s">
         <v>67</v>
       </c>
       <c r="D282" s="65" t="s">
@@ -6661,18 +6801,18 @@
         <v>416</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A299" s="127" t="s">
+    <row r="299" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A299" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="B299" s="125"/>
-      <c r="C299" s="127" t="s">
+      <c r="B299" s="136"/>
+      <c r="C299" s="134" t="s">
         <v>273</v>
       </c>
-      <c r="D299" s="131" t="s">
+      <c r="D299" s="139" t="s">
         <v>408</v>
       </c>
-      <c r="E299" s="127" t="s">
+      <c r="E299" s="134" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6934,18 +7074,18 @@
       <c r="D315" s="73"/>
       <c r="E315" s="76"/>
     </row>
-    <row r="316" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A316" s="127" t="s">
+    <row r="316" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A316" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="B316" s="129"/>
-      <c r="C316" s="127" t="s">
+      <c r="B316" s="136"/>
+      <c r="C316" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="D316" s="132" t="s">
+      <c r="D316" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="E316" s="127" t="s">
+      <c r="E316" s="134" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7167,18 +7307,18 @@
       <c r="D330" s="73"/>
       <c r="E330" s="13"/>
     </row>
-    <row r="331" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A331" s="127" t="s">
+    <row r="331" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A331" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="B331" s="129"/>
-      <c r="C331" s="127" t="s">
+      <c r="B331" s="136"/>
+      <c r="C331" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="D331" s="132" t="s">
+      <c r="D331" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="E331" s="132" t="s">
+      <c r="E331" s="140" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7400,18 +7540,18 @@
       <c r="D345" s="73"/>
       <c r="E345" s="35"/>
     </row>
-    <row r="346" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A346" s="127" t="s">
+    <row r="346" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A346" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="B346" s="129"/>
-      <c r="C346" s="127" t="s">
+      <c r="B346" s="136"/>
+      <c r="C346" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="D346" s="132" t="s">
+      <c r="D346" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="E346" s="132" t="s">
+      <c r="E346" s="140" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7633,18 +7773,18 @@
       <c r="D360" s="73"/>
       <c r="E360" s="35"/>
     </row>
-    <row r="361" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A361" s="127" t="s">
+    <row r="361" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A361" s="134" t="s">
         <v>219</v>
       </c>
-      <c r="B361" s="129"/>
-      <c r="C361" s="127" t="s">
+      <c r="B361" s="136"/>
+      <c r="C361" s="134" t="s">
         <v>224</v>
       </c>
-      <c r="D361" s="132" t="s">
+      <c r="D361" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="E361" s="113"/>
+      <c r="E361" s="141"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
@@ -7840,18 +7980,18 @@
       <c r="D375" s="73"/>
       <c r="E375" s="35"/>
     </row>
-    <row r="376" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A376" s="127" t="s">
+    <row r="376" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A376" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="B376" s="129"/>
-      <c r="C376" s="127" t="s">
+      <c r="B376" s="136"/>
+      <c r="C376" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="D376" s="132" t="s">
+      <c r="D376" s="140" t="s">
         <v>277</v>
       </c>
-      <c r="E376" s="132" t="s">
+      <c r="E376" s="140" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8073,18 +8213,18 @@
       <c r="D390" s="73"/>
       <c r="E390" s="35"/>
     </row>
-    <row r="391" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A391" s="127" t="s">
+    <row r="391" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A391" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="B391" s="129"/>
-      <c r="C391" s="127" t="s">
+      <c r="B391" s="136"/>
+      <c r="C391" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="D391" s="132" t="s">
+      <c r="D391" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="E391" s="132" t="s">
+      <c r="E391" s="140" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8306,18 +8446,18 @@
       <c r="D405" s="73"/>
       <c r="E405" s="35"/>
     </row>
-    <row r="406" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A406" s="127" t="s">
+    <row r="406" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A406" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="B406" s="129"/>
-      <c r="C406" s="127" t="s">
+      <c r="B406" s="136"/>
+      <c r="C406" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="D406" s="132" t="s">
+      <c r="D406" s="140" t="s">
         <v>286</v>
       </c>
-      <c r="E406" s="132" t="s">
+      <c r="E406" s="140" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8539,18 +8679,18 @@
       <c r="D420" s="73"/>
       <c r="E420" s="35"/>
     </row>
-    <row r="421" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A421" s="127" t="s">
+    <row r="421" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A421" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="B421" s="129"/>
-      <c r="C421" s="127" t="s">
+      <c r="B421" s="136"/>
+      <c r="C421" s="134" t="s">
         <v>289</v>
       </c>
-      <c r="D421" s="132" t="s">
+      <c r="D421" s="140" t="s">
         <v>290</v>
       </c>
-      <c r="E421" s="132" t="s">
+      <c r="E421" s="140" t="s">
         <v>292</v>
       </c>
     </row>
@@ -8772,18 +8912,18 @@
       <c r="D435" s="73"/>
       <c r="E435" s="35"/>
     </row>
-    <row r="436" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A436" s="127" t="s">
+    <row r="436" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A436" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="B436" s="129"/>
-      <c r="C436" s="127" t="s">
+      <c r="B436" s="136"/>
+      <c r="C436" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="D436" s="132" t="s">
+      <c r="D436" s="140" t="s">
         <v>297</v>
       </c>
-      <c r="E436" s="132" t="s">
+      <c r="E436" s="140" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9005,18 +9145,18 @@
       <c r="D450" s="73"/>
       <c r="E450" s="35"/>
     </row>
-    <row r="451" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A451" s="127" t="s">
+    <row r="451" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A451" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="B451" s="129"/>
-      <c r="C451" s="127" t="s">
+      <c r="B451" s="136"/>
+      <c r="C451" s="134" t="s">
         <v>300</v>
       </c>
-      <c r="D451" s="132" t="s">
+      <c r="D451" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="E451" s="132" t="s">
+      <c r="E451" s="140" t="s">
         <v>304</v>
       </c>
     </row>
@@ -9238,18 +9378,18 @@
       <c r="D465" s="73"/>
       <c r="E465" s="35"/>
     </row>
-    <row r="466" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A466" s="127" t="s">
+    <row r="466" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A466" s="134" t="s">
         <v>305</v>
       </c>
-      <c r="B466" s="129"/>
-      <c r="C466" s="127" t="s">
+      <c r="B466" s="136"/>
+      <c r="C466" s="134" t="s">
         <v>306</v>
       </c>
-      <c r="D466" s="132" t="s">
+      <c r="D466" s="140" t="s">
         <v>307</v>
       </c>
-      <c r="E466" s="132" t="s">
+      <c r="E466" s="140" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9471,18 +9611,18 @@
       <c r="D480" s="73"/>
       <c r="E480" s="35"/>
     </row>
-    <row r="481" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A481" s="127" t="s">
+    <row r="481" spans="1:5" s="138" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A481" s="134" t="s">
         <v>309</v>
       </c>
-      <c r="B481" s="129"/>
-      <c r="C481" s="127" t="s">
+      <c r="B481" s="136"/>
+      <c r="C481" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="D481" s="132" t="s">
+      <c r="D481" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="E481" s="132" t="s">
+      <c r="E481" s="140" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9647,7 +9787,7 @@
         <v>645</v>
       </c>
       <c r="C491" s="76" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D491" s="76" t="s">
         <v>621</v>
@@ -9704,18 +9844,18 @@
       <c r="D495" s="73"/>
       <c r="E495" s="35"/>
     </row>
-    <row r="496" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="127" t="s">
+    <row r="496" spans="1:5" s="138" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A496" s="134" t="s">
         <v>314</v>
       </c>
-      <c r="B496" s="129"/>
-      <c r="C496" s="127" t="s">
+      <c r="B496" s="136"/>
+      <c r="C496" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="D496" s="132" t="s">
+      <c r="D496" s="140" t="s">
         <v>333</v>
       </c>
-      <c r="E496" s="132" t="s">
+      <c r="E496" s="140" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9937,18 +10077,18 @@
       <c r="D510" s="73"/>
       <c r="E510" s="35"/>
     </row>
-    <row r="511" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A511" s="127" t="s">
+    <row r="511" spans="1:5" s="138" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A511" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="B511" s="129"/>
-      <c r="C511" s="127" t="s">
+      <c r="B511" s="136"/>
+      <c r="C511" s="134" t="s">
         <v>336</v>
       </c>
-      <c r="D511" s="132" t="s">
+      <c r="D511" s="140" t="s">
         <v>337</v>
       </c>
-      <c r="E511" s="132" t="s">
+      <c r="E511" s="140" t="s">
         <v>338</v>
       </c>
     </row>
@@ -10170,18 +10310,18 @@
       <c r="D525" s="73"/>
       <c r="E525" s="35"/>
     </row>
-    <row r="526" spans="1:5" s="112" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A526" s="127" t="s">
+    <row r="526" spans="1:5" s="138" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A526" s="134" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="129"/>
-      <c r="C526" s="127" t="s">
+      <c r="B526" s="136"/>
+      <c r="C526" s="134" t="s">
         <v>340</v>
       </c>
-      <c r="D526" s="132" t="s">
+      <c r="D526" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="E526" s="132" t="s">
+      <c r="E526" s="140" t="s">
         <v>356</v>
       </c>
     </row>
@@ -10403,18 +10543,18 @@
       <c r="D540" s="80"/>
       <c r="E540" s="81"/>
     </row>
-    <row r="541" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A541" s="127" t="s">
+    <row r="541" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A541" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="B541" s="129"/>
-      <c r="C541" s="127" t="s">
+      <c r="B541" s="136"/>
+      <c r="C541" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="D541" s="132" t="s">
+      <c r="D541" s="140" t="s">
         <v>359</v>
       </c>
-      <c r="E541" s="132" t="s">
+      <c r="E541" s="140" t="s">
         <v>360</v>
       </c>
     </row>
@@ -10636,18 +10776,18 @@
       <c r="D555" s="80"/>
       <c r="E555" s="81"/>
     </row>
-    <row r="556" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A556" s="127" t="s">
+    <row r="556" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A556" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="B556" s="129"/>
-      <c r="C556" s="127" t="s">
+      <c r="B556" s="136"/>
+      <c r="C556" s="134" t="s">
         <v>362</v>
       </c>
-      <c r="D556" s="132" t="s">
+      <c r="D556" s="140" t="s">
         <v>363</v>
       </c>
-      <c r="E556" s="132"/>
+      <c r="E556" s="140"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="4" t="s">
@@ -10843,18 +10983,18 @@
       <c r="D570" s="80"/>
       <c r="E570" s="81"/>
     </row>
-    <row r="571" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A571" s="127" t="s">
+    <row r="571" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A571" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="B571" s="133"/>
-      <c r="C571" s="127" t="s">
+      <c r="B571" s="142"/>
+      <c r="C571" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="D571" s="127" t="s">
+      <c r="D571" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="E571" s="114"/>
+      <c r="E571" s="143"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
@@ -11105,14 +11245,14 @@
       <c r="D590" s="80"/>
       <c r="E590" s="81"/>
     </row>
-    <row r="591" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A591" s="127" t="s">
+    <row r="591" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A591" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="B591" s="133"/>
-      <c r="C591" s="133"/>
-      <c r="D591" s="134"/>
-      <c r="E591" s="114"/>
+      <c r="B591" s="142"/>
+      <c r="C591" s="142"/>
+      <c r="D591" s="144"/>
+      <c r="E591" s="143"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="4" t="s">
@@ -11315,18 +11455,18 @@
       <c r="D606" s="38"/>
       <c r="E606" s="81"/>
     </row>
-    <row r="607" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A607" s="127" t="s">
+    <row r="607" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A607" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="B607" s="135"/>
-      <c r="C607" s="127" t="s">
+      <c r="B607" s="145"/>
+      <c r="C607" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="D607" s="127" t="s">
+      <c r="D607" s="134" t="s">
         <v>385</v>
       </c>
-      <c r="E607" s="114"/>
+      <c r="E607" s="143"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="4" t="s">
@@ -11677,14 +11817,14 @@
       <c r="D633" s="73"/>
       <c r="E633" s="35"/>
     </row>
-    <row r="634" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A634" s="127" t="s">
+    <row r="634" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A634" s="134" t="s">
         <v>407</v>
       </c>
-      <c r="B634" s="129"/>
-      <c r="C634" s="115"/>
-      <c r="D634" s="116"/>
-      <c r="E634" s="117"/>
+      <c r="B634" s="136"/>
+      <c r="C634" s="135"/>
+      <c r="D634" s="146"/>
+      <c r="E634" s="147"/>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" s="4" t="s">
@@ -11832,18 +11972,18 @@
       <c r="D648" s="73"/>
       <c r="E648" s="35"/>
     </row>
-    <row r="649" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A649" s="127" t="s">
+    <row r="649" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A649" s="134" t="s">
         <v>419</v>
       </c>
-      <c r="B649" s="129"/>
-      <c r="C649" s="130" t="s">
+      <c r="B649" s="136"/>
+      <c r="C649" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="D649" s="130" t="s">
+      <c r="D649" s="137" t="s">
         <v>501</v>
       </c>
-      <c r="E649" s="117"/>
+      <c r="E649" s="147"/>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" s="4" t="s">
@@ -12073,18 +12213,18 @@
       <c r="D665" s="73"/>
       <c r="E665" s="35"/>
     </row>
-    <row r="666" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A666" s="127" t="s">
+    <row r="666" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A666" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="B666" s="129"/>
-      <c r="C666" s="127" t="s">
+      <c r="B666" s="136"/>
+      <c r="C666" s="134" t="s">
         <v>424</v>
       </c>
-      <c r="D666" s="127" t="s">
+      <c r="D666" s="134" t="s">
         <v>718</v>
       </c>
-      <c r="E666" s="127" t="s">
+      <c r="E666" s="134" t="s">
         <v>729</v>
       </c>
     </row>
@@ -12323,18 +12463,18 @@
       <c r="D681" s="59"/>
       <c r="E681" s="35"/>
     </row>
-    <row r="682" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A682" s="127" t="s">
+    <row r="682" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A682" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="B682" s="135"/>
-      <c r="C682" s="127" t="s">
+      <c r="B682" s="145"/>
+      <c r="C682" s="134" t="s">
         <v>426</v>
       </c>
-      <c r="D682" s="127" t="s">
+      <c r="D682" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="E682" s="127" t="s">
+      <c r="E682" s="134" t="s">
         <v>428</v>
       </c>
     </row>
@@ -12800,18 +12940,18 @@
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
     </row>
-    <row r="717" spans="1:6" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A717" s="127" t="s">
+    <row r="717" spans="1:6" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A717" s="134" t="s">
         <v>436</v>
       </c>
-      <c r="B717" s="135"/>
-      <c r="C717" s="127" t="s">
+      <c r="B717" s="145"/>
+      <c r="C717" s="134" t="s">
         <v>437</v>
       </c>
-      <c r="D717" s="127" t="s">
+      <c r="D717" s="134" t="s">
         <v>438</v>
       </c>
-      <c r="E717" s="127" t="s">
+      <c r="E717" s="134" t="s">
         <v>439</v>
       </c>
     </row>
@@ -13248,18 +13388,18 @@
       <c r="D747" s="76"/>
       <c r="E747" s="76"/>
     </row>
-    <row r="748" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A748" s="127" t="s">
+    <row r="748" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A748" s="134" t="s">
         <v>440</v>
       </c>
-      <c r="B748" s="135"/>
-      <c r="C748" s="127" t="s">
+      <c r="B748" s="145"/>
+      <c r="C748" s="134" t="s">
         <v>441</v>
       </c>
-      <c r="D748" s="127" t="s">
+      <c r="D748" s="134" t="s">
         <v>442</v>
       </c>
-      <c r="E748" s="127" t="s">
+      <c r="E748" s="134" t="s">
         <v>443</v>
       </c>
     </row>
@@ -13786,20 +13926,20 @@
       <c r="D786" s="86"/>
       <c r="E786" s="76"/>
     </row>
-    <row r="787" spans="1:5" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A787" s="127" t="s">
+    <row r="787" spans="1:5" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A787" s="134" t="s">
         <v>493</v>
       </c>
-      <c r="B787" s="136" t="s">
+      <c r="B787" s="148" t="s">
         <v>502</v>
       </c>
-      <c r="C787" s="136" t="s">
+      <c r="C787" s="148" t="s">
         <v>502</v>
       </c>
-      <c r="D787" s="136" t="s">
+      <c r="D787" s="148" t="s">
         <v>502</v>
       </c>
-      <c r="E787" s="115"/>
+      <c r="E787" s="135"/>
     </row>
     <row r="788" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="4" t="s">
@@ -14011,11 +14151,11 @@
       <c r="A802" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B802" s="161" t="s">
+      <c r="B802" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="C802" s="162"/>
-      <c r="D802" s="163"/>
+      <c r="C802" s="165"/>
+      <c r="D802" s="166"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -14043,14 +14183,14 @@
       <c r="D805" s="76"/>
       <c r="E805" s="76"/>
     </row>
-    <row r="806" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A806" s="127" t="s">
+    <row r="806" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A806" s="134" t="s">
         <v>494</v>
       </c>
-      <c r="B806" s="156"/>
-      <c r="C806" s="157"/>
-      <c r="D806" s="158"/>
-      <c r="E806" s="115"/>
+      <c r="B806" s="159"/>
+      <c r="C806" s="160"/>
+      <c r="D806" s="161"/>
+      <c r="E806" s="135"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807" s="4" t="s">
@@ -14266,11 +14406,11 @@
       <c r="A821" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B821" s="164" t="s">
+      <c r="B821" s="167" t="s">
         <v>257</v>
       </c>
-      <c r="C821" s="165"/>
-      <c r="D821" s="166"/>
+      <c r="C821" s="168"/>
+      <c r="D821" s="169"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14287,14 +14427,14 @@
       <c r="D823" s="98"/>
       <c r="E823" s="76"/>
     </row>
-    <row r="824" spans="1:5" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.4">
-      <c r="A824" s="127" t="s">
+    <row r="824" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A824" s="134" t="s">
         <v>497</v>
       </c>
-      <c r="B824" s="156"/>
-      <c r="C824" s="157"/>
-      <c r="D824" s="158"/>
-      <c r="E824" s="115"/>
+      <c r="B824" s="159"/>
+      <c r="C824" s="160"/>
+      <c r="D824" s="161"/>
+      <c r="E824" s="135"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="4" t="s">
@@ -14538,18 +14678,18 @@
       <c r="D842" s="106"/>
       <c r="E842" s="76"/>
     </row>
-    <row r="843" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A843" s="127" t="s">
+    <row r="843" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A843" s="134" t="s">
         <v>667</v>
       </c>
-      <c r="B843" s="135"/>
-      <c r="C843" s="127" t="s">
+      <c r="B843" s="145"/>
+      <c r="C843" s="134" t="s">
         <v>668</v>
       </c>
-      <c r="D843" s="127" t="s">
+      <c r="D843" s="134" t="s">
         <v>669</v>
       </c>
-      <c r="E843" s="127" t="s">
+      <c r="E843" s="134" t="s">
         <v>670</v>
       </c>
     </row>
@@ -14959,7 +15099,7 @@
       <c r="C871" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="D871" s="118" t="s">
+      <c r="D871" s="112" t="s">
         <v>701</v>
       </c>
       <c r="E871" s="76" t="s">
@@ -14978,18 +15118,18 @@
       <c r="C873" s="4"/>
       <c r="D873" s="30"/>
     </row>
-    <row r="874" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A874" s="127" t="s">
+    <row r="874" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A874" s="134" t="s">
         <v>671</v>
       </c>
-      <c r="B874" s="135"/>
-      <c r="C874" s="127" t="s">
+      <c r="B874" s="145"/>
+      <c r="C874" s="134" t="s">
         <v>672</v>
       </c>
-      <c r="D874" s="127" t="s">
+      <c r="D874" s="134" t="s">
         <v>673</v>
       </c>
-      <c r="E874" s="127" t="s">
+      <c r="E874" s="134" t="s">
         <v>674</v>
       </c>
     </row>
@@ -15394,18 +15534,18 @@
       <c r="C904" s="6"/>
       <c r="D904" s="10"/>
     </row>
-    <row r="905" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A905" s="127" t="s">
+    <row r="905" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A905" s="134" t="s">
         <v>675</v>
       </c>
-      <c r="B905" s="135"/>
-      <c r="C905" s="127" t="s">
+      <c r="B905" s="145"/>
+      <c r="C905" s="134" t="s">
         <v>676</v>
       </c>
-      <c r="D905" s="127" t="s">
+      <c r="D905" s="134" t="s">
         <v>677</v>
       </c>
-      <c r="E905" s="127" t="s">
+      <c r="E905" s="134" t="s">
         <v>702</v>
       </c>
     </row>
@@ -15792,18 +15932,18 @@
         <v>574</v>
       </c>
     </row>
-    <row r="932" spans="1:5" ht="17" x14ac:dyDescent="0.35">
-      <c r="A932" s="127" t="s">
+    <row r="932" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A932" s="134" t="s">
         <v>722</v>
       </c>
-      <c r="B932" s="129"/>
-      <c r="C932" s="127" t="s">
+      <c r="B932" s="136"/>
+      <c r="C932" s="134" t="s">
         <v>723</v>
       </c>
-      <c r="D932" s="127" t="s">
+      <c r="D932" s="134" t="s">
         <v>744</v>
       </c>
-      <c r="E932" s="127" t="s">
+      <c r="E932" s="134" t="s">
         <v>745</v>
       </c>
     </row>
@@ -16020,7 +16160,7 @@
       <c r="D945" s="90" t="s">
         <v>748</v>
       </c>
-      <c r="E945" s="124" t="s">
+      <c r="E945" s="118" t="s">
         <v>749</v>
       </c>
     </row>
@@ -16237,9 +16377,9 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" s="32"/>
-      <c r="B980" s="119"/>
-      <c r="C980" s="119"/>
-      <c r="D980" s="119"/>
+      <c r="B980" s="113"/>
+      <c r="C980" s="113"/>
+      <c r="D980" s="113"/>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" s="32"/>
@@ -16317,7 +16457,7 @@
       <c r="A993" s="32"/>
       <c r="B993" s="81"/>
       <c r="C993" s="81"/>
-      <c r="D993" s="119"/>
+      <c r="D993" s="113"/>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" s="32"/>
@@ -16357,8 +16497,8 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" s="32"/>
-      <c r="B1000" s="119"/>
-      <c r="C1000" s="119"/>
+      <c r="B1000" s="113"/>
+      <c r="C1000" s="113"/>
       <c r="D1000" s="33"/>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
@@ -16423,7 +16563,7 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1011" s="32"/>
-      <c r="B1011" s="120"/>
+      <c r="B1011" s="114"/>
       <c r="C1011" s="32"/>
       <c r="D1011" s="33"/>
     </row>
@@ -16492,8 +16632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16519,14 +16659,14 @@
       <c r="D2" s="45"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="172" t="s">
+    <row r="3" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="174" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
@@ -16682,11 +16822,11 @@
       <c r="A14" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16696,14 +16836,14 @@
       <c r="D15" s="55"/>
       <c r="E15" s="35"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="171" t="s">
+    <row r="16" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="147"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
@@ -16757,20 +16897,20 @@
       <c r="D20" s="45"/>
       <c r="E20" s="35"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="140" t="s">
+    <row r="21" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="134" t="s">
         <v>256</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="147"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="49" t="s">
@@ -16802,20 +16942,20 @@
       </c>
       <c r="E23" s="35"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="140" t="s">
+    <row r="24" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="147"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="49" t="s">
@@ -16847,20 +16987,20 @@
       </c>
       <c r="E26" s="35"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="140" t="s">
+    <row r="27" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="147"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="49" t="s">
@@ -16903,20 +17043,20 @@
       <c r="D30" s="51"/>
       <c r="E30" s="35"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="140" t="s">
+    <row r="31" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="147"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="49" t="s">
@@ -16963,19 +17103,19 @@
       <c r="A35" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="167" t="s">
+      <c r="B35" s="170" t="s">
         <v>594</v>
       </c>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="43"/>
       <c r="B36" s="55"/>
       <c r="C36" s="43"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="147"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="43"/>
@@ -17172,8 +17312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17186,50 +17326,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="176" t="s">
-        <v>784</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="D3" s="160" t="s">
+      <c r="A3" s="178" t="s">
+        <v>783</v>
+      </c>
+      <c r="B3" s="178"/>
+      <c r="D3" s="163" t="s">
         <v>662</v>
       </c>
-      <c r="E3" s="160"/>
+      <c r="E3" s="163"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B4" s="149" t="s">
-        <v>782</v>
+        <v>766</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>781</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B5" s="145" t="s">
-        <v>783</v>
+        <v>766</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>782</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="143"/>
+      <c r="B6" s="126"/>
       <c r="D6" s="15" t="s">
         <v>342</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -17241,29 +17381,29 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="176" t="s">
-        <v>768</v>
-      </c>
-      <c r="B8" s="176"/>
+      <c r="A8" s="178" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="178"/>
       <c r="D8" s="15" t="s">
         <v>343</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="B9" s="144" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="127" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>165</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -17271,46 +17411,46 @@
         <v>344</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="176"/>
+      <c r="B12" s="178"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="178" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="176" t="s">
-        <v>770</v>
-      </c>
-      <c r="B16" s="176"/>
+      <c r="B16" s="178"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="B17" s="144" t="s">
+        <v>766</v>
+      </c>
+      <c r="B17" s="127" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="176"/>
-      <c r="C20" s="146" t="s">
-        <v>773</v>
-      </c>
-      <c r="D20" s="146" t="s">
+      <c r="B20" s="178"/>
+      <c r="C20" s="129" t="s">
+        <v>772</v>
+      </c>
+      <c r="D20" s="129" t="s">
         <v>178</v>
       </c>
     </row>
@@ -17327,7 +17467,7 @@
       <c r="D21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="131" t="s">
         <v>749</v>
       </c>
     </row>
@@ -17448,10 +17588,10 @@
         <v>226</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D30" s="76" t="s">
         <v>568</v>
@@ -17482,12 +17622,12 @@
         <v>498</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="147" t="s">
-        <v>774</v>
+      <c r="A33" s="130" t="s">
+        <v>773</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>566</v>
@@ -17499,18 +17639,18 @@
       <c r="A34" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B34" s="124" t="s">
-        <v>772</v>
-      </c>
-      <c r="C34" s="124"/>
+      <c r="B34" s="118" t="s">
+        <v>771</v>
+      </c>
+      <c r="C34" s="118"/>
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="176" t="s">
+      <c r="A37" s="178" t="s">
         <v>501</v>
       </c>
-      <c r="B37" s="176"/>
-      <c r="C37" s="139" t="s">
+      <c r="B37" s="178"/>
+      <c r="C37" s="124" t="s">
         <v>423</v>
       </c>
     </row>
@@ -17618,7 +17758,7 @@
         <v>226</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C47" s="76" t="s">
         <v>571</v>
@@ -17647,7 +17787,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="130" t="s">
         <v>186</v>
       </c>
       <c r="B50" s="90" t="s">
@@ -17658,33 +17798,33 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="175" t="s">
+      <c r="A53" s="177" t="s">
         <v>424</v>
       </c>
-      <c r="B53" s="175"/>
+      <c r="B53" s="177"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="B55" s="118" t="s">
-        <v>789</v>
+        <v>785</v>
+      </c>
+      <c r="B55" s="112" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="B56" s="149" t="s">
-        <v>790</v>
+        <v>786</v>
+      </c>
+      <c r="B56" s="132" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -17704,4 +17844,1416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E184"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="156"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="151"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="134" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="156" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="156"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="150" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="150" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="150" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="150" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="154" t="s">
+        <v>799</v>
+      </c>
+      <c r="B55" s="155"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="110" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="154" t="s">
+        <v>800</v>
+      </c>
+      <c r="B60" s="155"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="179" t="s">
+        <v>801</v>
+      </c>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>510</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="130" t="s">
+        <v>804</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B80" s="76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="130" t="s">
+        <v>804</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="13"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B89" s="76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B90" s="76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="130" t="s">
+        <v>804</v>
+      </c>
+      <c r="B91" s="90" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="B97" s="13"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B98" s="76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B99" s="76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="130" t="s">
+        <v>804</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B102" s="90" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B103" s="90" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B107" s="76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B108" s="76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="130" t="s">
+        <v>804</v>
+      </c>
+      <c r="B109" s="90" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B111" s="90" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="152" t="s">
+        <v>816</v>
+      </c>
+      <c r="B112" s="90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="152" t="s">
+        <v>811</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" s="76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="B135" s="13"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B136" s="76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B137" s="76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B139" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B140" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="152" t="s">
+        <v>821</v>
+      </c>
+      <c r="B141" s="90" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="152" t="s">
+        <v>824</v>
+      </c>
+      <c r="B142" s="90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B145" s="13"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B146" s="76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B147" s="76" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="130" t="s">
+        <v>822</v>
+      </c>
+      <c r="B148" s="90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="130" t="s">
+        <v>823</v>
+      </c>
+      <c r="B149" s="90" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="130" t="s">
+        <v>827</v>
+      </c>
+      <c r="B150" s="90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B152" s="90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B153" s="90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="B154" s="90" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B155" s="90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="152" t="s">
+        <v>827</v>
+      </c>
+      <c r="B156" s="90" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159" s="13"/>
+      <c r="C159" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B160" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C160" s="76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B161" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="C161" s="76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B163" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B164" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B165" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C166" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B168" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B170" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C170" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="C171" s="76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="C172" s="76" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B174" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C174" s="90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B175" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" s="90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B176" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="30" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B183" s="13"/>
+      <c r="C183" s="27" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="180" t="s">
+        <v>262</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" s="110" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A60:B60"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B132" r:id="rId4"/>
+    <hyperlink ref="C183" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3805" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="878">
   <si>
     <t>Tester</t>
   </si>
@@ -2515,6 +2515,153 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>04.05.24</t>
+  </si>
+  <si>
+    <t>020524</t>
+  </si>
+  <si>
+    <t>01.05.24</t>
+  </si>
+  <si>
+    <t>10.05.24</t>
+  </si>
+  <si>
+    <t>3556.00</t>
+  </si>
+  <si>
+    <t>patel123@gmail.com</t>
+  </si>
+  <si>
+    <t>31.05.24</t>
+  </si>
+  <si>
+    <t>31.10.24</t>
+  </si>
+  <si>
+    <t>020924</t>
+  </si>
+  <si>
+    <t>Lamdade</t>
+  </si>
+  <si>
+    <t>Miraj</t>
+  </si>
+  <si>
+    <t>416410</t>
+  </si>
+  <si>
+    <t>5678981237</t>
+  </si>
+  <si>
+    <t>4444.00</t>
+  </si>
+  <si>
+    <t>050524</t>
+  </si>
+  <si>
+    <t>Expected Price for Room1</t>
+  </si>
+  <si>
+    <t>Expected Price for Room2</t>
+  </si>
+  <si>
+    <t>Expected Sold Allotment</t>
+  </si>
+  <si>
+    <t>Expected Remaining Allotment</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC-43 </t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>1112.00</t>
+  </si>
+  <si>
+    <t>TC-45</t>
+  </si>
+  <si>
+    <t>Modified Travel From date</t>
+  </si>
+  <si>
+    <t>kakate</t>
+  </si>
+  <si>
+    <t>tosca</t>
+  </si>
+  <si>
+    <t>7112.00</t>
+  </si>
+  <si>
+    <t>2224.00</t>
+  </si>
+  <si>
+    <t>TC-46</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Remaining Allotment for Modified dates Room1 &amp; Room2</t>
+  </si>
+  <si>
+    <t>Sold Allotment for Modified dates Room1 &amp; Room2</t>
+  </si>
+  <si>
+    <t>RSPatil</t>
+  </si>
+  <si>
+    <t>TC-49</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>030524</t>
+  </si>
+  <si>
+    <t>Travel From Date in BM</t>
+  </si>
+  <si>
+    <t>Travel To Date in BM</t>
+  </si>
+  <si>
+    <t>Initail Allotment</t>
+  </si>
+  <si>
+    <t>Last Name / Start Date in Allotment</t>
+  </si>
+  <si>
+    <t>FirstName / End Date in Allotment</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3223,6 +3370,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3298,10 +3457,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3899,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3915,10 +4080,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="155"/>
+      <c r="B5" s="161"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -3937,10 +4102,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="160" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="155"/>
+      <c r="B10" s="161"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -3967,10 +4132,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="162"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -4053,18 +4218,18 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="157"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="133" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -4192,14 +4357,14 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156" t="s">
+      <c r="B37" s="162"/>
+      <c r="C37" s="162" t="s">
         <v>762</v>
       </c>
-      <c r="D37" s="156"/>
+      <c r="D37" s="162"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -4288,13 +4453,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4450,10 +4615,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="154" t="s">
+      <c r="A58" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="155"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="6" t="s">
         <v>240</v>
       </c>
@@ -4473,10 +4638,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="154" t="s">
+      <c r="A62" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="155"/>
+      <c r="B62" s="161"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4490,11 +4655,11 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="162"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -4865,10 +5030,10 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="162" t="s">
+      <c r="D99" s="168" t="s">
         <v>662</v>
       </c>
-      <c r="E99" s="163"/>
+      <c r="E99" s="169"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
@@ -14151,11 +14316,11 @@
       <c r="A802" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B802" s="164" t="s">
+      <c r="B802" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="C802" s="165"/>
-      <c r="D802" s="166"/>
+      <c r="C802" s="171"/>
+      <c r="D802" s="172"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -14187,9 +14352,9 @@
       <c r="A806" s="134" t="s">
         <v>494</v>
       </c>
-      <c r="B806" s="159"/>
-      <c r="C806" s="160"/>
-      <c r="D806" s="161"/>
+      <c r="B806" s="165"/>
+      <c r="C806" s="166"/>
+      <c r="D806" s="167"/>
       <c r="E806" s="135"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
@@ -14406,11 +14571,11 @@
       <c r="A821" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B821" s="167" t="s">
+      <c r="B821" s="173" t="s">
         <v>257</v>
       </c>
-      <c r="C821" s="168"/>
-      <c r="D821" s="169"/>
+      <c r="C821" s="174"/>
+      <c r="D821" s="175"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14431,9 +14596,9 @@
       <c r="A824" s="134" t="s">
         <v>497</v>
       </c>
-      <c r="B824" s="159"/>
-      <c r="C824" s="160"/>
-      <c r="D824" s="161"/>
+      <c r="B824" s="165"/>
+      <c r="C824" s="166"/>
+      <c r="D824" s="167"/>
       <c r="E824" s="135"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
@@ -16633,7 +16798,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16660,12 +16825,12 @@
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="180" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="182"/>
       <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16822,11 +16987,11 @@
       <c r="A14" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16837,12 +17002,12 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="147"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -17103,11 +17268,11 @@
       <c r="A35" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="176" t="s">
         <v>594</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
@@ -17326,14 +17491,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="184" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="D3" s="163" t="s">
+      <c r="B3" s="184"/>
+      <c r="D3" s="169" t="s">
         <v>662</v>
       </c>
-      <c r="E3" s="163"/>
+      <c r="E3" s="169"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -17381,10 +17546,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="184" t="s">
         <v>767</v>
       </c>
-      <c r="B8" s="178"/>
+      <c r="B8" s="184"/>
       <c r="D8" s="15" t="s">
         <v>343</v>
       </c>
@@ -17415,10 +17580,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="178"/>
+      <c r="B12" s="184"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
@@ -17429,10 +17594,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="184" t="s">
         <v>769</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="184"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
@@ -17443,10 +17608,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="184" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="178"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="129" t="s">
         <v>772</v>
       </c>
@@ -17646,10 +17811,10 @@
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="184" t="s">
         <v>501</v>
       </c>
-      <c r="B37" s="178"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="124" t="s">
         <v>423</v>
       </c>
@@ -17798,10 +17963,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="177" t="s">
+      <c r="A53" s="183" t="s">
         <v>424</v>
       </c>
-      <c r="B53" s="177"/>
+      <c r="B53" s="183"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
@@ -17848,15 +18013,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E184"/>
+  <dimension ref="A5:E482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F468" sqref="F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
     <col min="2" max="2" width="32.453125" customWidth="1"/>
     <col min="3" max="3" width="28.90625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" customWidth="1"/>
@@ -17866,10 +18031,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="162"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -18060,14 +18225,14 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="76" t="s">
         <v>738</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
@@ -18076,10 +18241,10 @@
       <c r="D27" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="156"/>
+      <c r="B30" s="162"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -18138,13 +18303,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="156" t="s">
+      <c r="A41" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="162"/>
+      <c r="E41" s="162"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
@@ -18300,10 +18465,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="154" t="s">
+      <c r="A55" s="160" t="s">
         <v>799</v>
       </c>
-      <c r="B55" s="155"/>
+      <c r="B55" s="161"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
@@ -18326,10 +18491,10 @@
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="154" t="s">
+      <c r="A60" s="160" t="s">
         <v>800</v>
       </c>
-      <c r="B60" s="155"/>
+      <c r="B60" s="161"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
@@ -18340,11 +18505,11 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="179" t="s">
+      <c r="A65" s="186" t="s">
         <v>801</v>
       </c>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
+      <c r="B65" s="186"/>
+      <c r="C65" s="186"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
@@ -18455,10 +18620,10 @@
       <c r="C76" s="13"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="158"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
@@ -18509,10 +18674,10 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="158"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
@@ -18563,10 +18728,10 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="157" t="s">
         <v>813</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="158"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
@@ -18617,10 +18782,10 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="158"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
@@ -18790,7 +18955,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="153" t="s">
         <v>319</v>
       </c>
@@ -18798,7 +18963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="153" t="s">
         <v>343</v>
       </c>
@@ -18806,7 +18971,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="153" t="s">
         <v>165</v>
       </c>
@@ -18814,7 +18979,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="153" t="s">
         <v>344</v>
       </c>
@@ -18822,73 +18987,97 @@
         <v>819</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="21" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="157" t="s">
         <v>772</v>
       </c>
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="158"/>
+      <c r="C135" s="157" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
         <v>808</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="C136" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
         <v>807</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+      <c r="C137" s="76" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
         <v>810</v>
       </c>
       <c r="B139" s="90" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B140" s="90" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140" s="90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="152" t="s">
         <v>821</v>
       </c>
       <c r="B141" s="90" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141" s="90" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="152" t="s">
         <v>824</v>
       </c>
       <c r="B142" s="90" t="s">
         <v>89</v>
       </c>
+      <c r="C142" s="90" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="B145" s="13"/>
+      <c r="B145" s="158"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
@@ -18979,11 +19168,11 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="21" t="s">
+      <c r="B159" s="158"/>
+      <c r="C159" s="157" t="s">
         <v>273</v>
       </c>
     </row>
@@ -18998,7 +19187,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
         <v>807</v>
       </c>
@@ -19009,7 +19198,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>186</v>
       </c>
@@ -19020,7 +19209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>123</v>
       </c>
@@ -19031,7 +19220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>61</v>
       </c>
@@ -19042,7 +19231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>60</v>
       </c>
@@ -19053,7 +19242,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>268</v>
       </c>
@@ -19064,7 +19253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>63</v>
       </c>
@@ -19075,7 +19264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>64</v>
       </c>
@@ -19086,7 +19275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>124</v>
       </c>
@@ -19097,7 +19286,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>225</v>
       </c>
@@ -19107,8 +19296,9 @@
       <c r="C171" s="76" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D171" s="39"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>226</v>
       </c>
@@ -19118,8 +19308,9 @@
       <c r="C172" s="76" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D172" s="39"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>152</v>
       </c>
@@ -19130,7 +19321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
         <v>810</v>
       </c>
@@ -19141,7 +19332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
         <v>828</v>
       </c>
@@ -19152,7 +19343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
         <v>811</v>
       </c>
@@ -19227,7 +19418,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="180" t="s">
+      <c r="A184" s="154" t="s">
         <v>262</v>
       </c>
       <c r="B184" s="23" t="s">
@@ -19237,14 +19428,2859 @@
         <v>261</v>
       </c>
     </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C185" s="39"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" s="158"/>
+      <c r="C187" s="157" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B188" s="76" t="s">
+        <v>831</v>
+      </c>
+      <c r="C188" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B189" s="76" t="s">
+        <v>832</v>
+      </c>
+      <c r="C189" s="76" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C191" s="76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B193" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C193" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B194" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C194" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B195" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C195" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B196" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B197" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B198" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B199" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C199" s="76" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="C200" s="76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B201" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C201" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="76" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="158"/>
+      <c r="C205" s="159" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B206" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C206" s="76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B207" s="76" t="s">
+        <v>835</v>
+      </c>
+      <c r="C207" s="76" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B209" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B212" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C212" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B213" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C213" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B214" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B215" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B216" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C216" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B217" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C217" s="76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B218" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C218" s="76" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B226" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B227" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B228" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C228" s="90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B229" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C229" s="90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="152" t="s">
+        <v>821</v>
+      </c>
+      <c r="B230" s="90" t="s">
+        <v>826</v>
+      </c>
+      <c r="C230" s="90" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="152" t="s">
+        <v>827</v>
+      </c>
+      <c r="B231" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" s="90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="152" t="s">
+        <v>199</v>
+      </c>
+      <c r="B232" s="90" t="s">
+        <v>833</v>
+      </c>
+      <c r="C232" s="90" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="187" t="s">
+        <v>423</v>
+      </c>
+      <c r="B235" s="188"/>
+      <c r="C235" s="187" t="s">
+        <v>424</v>
+      </c>
+      <c r="D235" s="188"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B236" s="76" t="s">
+        <v>831</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B237" s="76" t="s">
+        <v>832</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B239" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C239" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D239" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C240" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D240" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B241" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C241" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D241" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B242" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C242" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="D242" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C243" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D243" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B244" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D244" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B245" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C245" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B246" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C246" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B247" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="C247" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D247" s="76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B248" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="C248" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="D248" s="76" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B249" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C249" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="153" t="s">
+        <v>875</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="D250" s="76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="153" t="s">
+        <v>876</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D251" s="76" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D252" s="13"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B253" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D253" s="23"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B254" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C254" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="D254" s="23"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B255" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C255" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="D255" s="30"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B256" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C256" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="D256" s="27"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D257" s="23"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="154" t="s">
+        <v>874</v>
+      </c>
+      <c r="B258" s="13"/>
+      <c r="C258" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="D258" s="13"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="154" t="s">
+        <v>810</v>
+      </c>
+      <c r="B259" s="13"/>
+      <c r="C259" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="D259" s="13"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="154" t="s">
+        <v>816</v>
+      </c>
+      <c r="B260" s="13"/>
+      <c r="C260" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="D260" s="13"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="185" t="s">
+        <v>744</v>
+      </c>
+      <c r="B262" s="185"/>
+      <c r="C262" s="185"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B263" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C263" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B264" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C264" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B265" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B266" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C266" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C267" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B268" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C268" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B269" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B270" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C270" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B271" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C271" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B272" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C272" s="76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B273" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C273" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B274" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C274" s="13"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C275" s="13"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C276" s="13"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B277" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C277" s="23"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C278" s="23"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B279" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C279" s="30"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B280" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C280" s="27"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="154" t="s">
+        <v>844</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C281" s="13"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="154" t="s">
+        <v>845</v>
+      </c>
+      <c r="B282" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="C282" s="13"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="154" t="s">
+        <v>846</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C283" s="13"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="154" t="s">
+        <v>847</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" s="13"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="185" t="s">
+        <v>851</v>
+      </c>
+      <c r="B287" s="185"/>
+      <c r="C287" s="185"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B288" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C288" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B289" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C289" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B290" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C290" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B291" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C291" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B292" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C292" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B293" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C293" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B294" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C294" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B295" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C295" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B296" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C296" s="76" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B297" s="76" t="s">
+        <v>705</v>
+      </c>
+      <c r="C297" s="76" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C298" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="C299" s="13"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C300" s="13"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C301" s="13"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B302" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C302" s="23"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B303" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C303" s="23"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B304" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C304" s="30"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B305" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C305" s="27"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B306" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C306" s="13"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="185" t="s">
+        <v>501</v>
+      </c>
+      <c r="B309" s="185"/>
+      <c r="C309" s="185"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B310" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C310" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B311" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C311" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B312" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C312" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B313" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C313" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B314" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C314" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B315" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C315" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B316" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C316" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B317" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C317" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B318" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C318" s="76" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B319" s="76" t="s">
+        <v>705</v>
+      </c>
+      <c r="C319" s="76" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B320" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C320" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B321" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C321" s="13"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B322" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="C322" s="13"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B323" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C323" s="13"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B324" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C324" s="23"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B325" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C325" s="23"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B326" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C326" s="30"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B327" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C327" s="27"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B328" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C328" s="13"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" s="185" t="s">
+        <v>855</v>
+      </c>
+      <c r="B331" s="185"/>
+      <c r="C331" s="185"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B332" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C332" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B333" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C333" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B334" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B335" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C335" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B336" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C336" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B337" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C337" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B338" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C338" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B339" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B340" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C340" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B341" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C341" s="76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B342" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C342" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="C343" s="13"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B344" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="C344" s="13"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B345" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C345" s="13"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B346" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C346" s="23"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B347" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C347" s="23"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B348" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C348" s="30"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B349" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C349" s="27"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B350" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="C350" s="76" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B351" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="C351" s="76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" s="154" t="s">
+        <v>844</v>
+      </c>
+      <c r="B352" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="C352" s="13"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" s="154" t="s">
+        <v>845</v>
+      </c>
+      <c r="B353" s="13"/>
+      <c r="C353" s="23" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" s="185" t="s">
+        <v>861</v>
+      </c>
+      <c r="B356" s="185"/>
+      <c r="C356" s="185"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B357" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C357" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B358" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C358" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B359" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C359" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B360" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C360" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B361" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C361" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B362" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C362" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B363" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C363" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B364" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C364" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B365" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C365" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B366" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C366" s="76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B367" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C367" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B368" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="C368" s="13"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="C369" s="13"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B370" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C370" s="13"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B371" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C371" s="23"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B372" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C372" s="23"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B373" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C373" s="30"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B374" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C374" s="27"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B375" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="C375" s="76" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B376" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="C376" s="76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" s="154" t="s">
+        <v>844</v>
+      </c>
+      <c r="B377" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="C377" s="13"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" s="154" t="s">
+        <v>845</v>
+      </c>
+      <c r="B378" s="13"/>
+      <c r="C378" s="23" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B379" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C379" s="13"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" s="155" t="s">
+        <v>807</v>
+      </c>
+      <c r="B380" s="156" t="s">
+        <v>642</v>
+      </c>
+      <c r="C380" s="13"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" s="154" t="s">
+        <v>864</v>
+      </c>
+      <c r="B381" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C381" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" s="154" t="s">
+        <v>863</v>
+      </c>
+      <c r="B382" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" s="185" t="s">
+        <v>718</v>
+      </c>
+      <c r="B385" s="185"/>
+      <c r="C385" s="185"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A386" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B386" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C386" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A387" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B387" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C387" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A388" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B388" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C388" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A389" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B389" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C389" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A390" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B390" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C390" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A391" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B391" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C391" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A392" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B392" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C392" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A393" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B393" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C393" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A394" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B394" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="C394" s="76" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A395" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B395" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="C395" s="76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A396" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B396" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C396" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A397" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B397" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="C397" s="13"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A398" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C398" s="13"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A399" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B399" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C399" s="13"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A400" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B400" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C400" s="23"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A401" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B401" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C401" s="23"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A402" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B402" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C402" s="30"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A403" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B403" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C403" s="27"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A404" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B404" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="C404" s="76" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A405" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B405" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="C405" s="76" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A406" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B406" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C406" s="13"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A409" s="185" t="s">
+        <v>407</v>
+      </c>
+      <c r="B409" s="185"/>
+      <c r="C409" s="185"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A410" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B410" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C410" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A411" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B411" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C411" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A412" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B412" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C412" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A413" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B413" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C413" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A414" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B414" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C414" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A415" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B415" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C415" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A416" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B416" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C416" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A417" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B417" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C417" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A418" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B418" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="C418" s="76" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A419" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B419" s="76" t="s">
+        <v>705</v>
+      </c>
+      <c r="C419" s="76" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A420" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B420" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C420" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A421" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="C421" s="13"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A422" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B422" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="C422" s="13"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A423" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B423" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C423" s="13"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A424" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B424" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C424" s="23"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A425" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B425" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C425" s="23"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A426" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B426" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C426" s="30"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A427" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B427" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C427" s="27"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A428" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B428" s="76" t="s">
+        <v>843</v>
+      </c>
+      <c r="C428" s="76" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A429" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B429" s="76" t="s">
+        <v>639</v>
+      </c>
+      <c r="C429" s="76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A430" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B430" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C430" s="13"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A433" s="185" t="s">
+        <v>866</v>
+      </c>
+      <c r="B433" s="185"/>
+      <c r="C433" s="185"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B434" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C434" s="76" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A435" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B435" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C435" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A436" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B436" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C436" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A437" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B437" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C437" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A438" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B438" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C438" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A439" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B439" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C439" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A440" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B440" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C440" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A441" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B441" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C441" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A442" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B442" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C442" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A443" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B443" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C443" s="76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A444" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B444" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C444" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A445" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B445" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C445" s="13"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A446" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C446" s="13"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A447" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C447" s="13"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A448" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B448" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C448" s="23"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A449" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B449" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C449" s="23"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A450" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B450" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C450" s="30"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A451" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B451" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C451" s="27"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A452" s="154" t="s">
+        <v>867</v>
+      </c>
+      <c r="B452" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C452" s="13"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A453" s="154" t="s">
+        <v>868</v>
+      </c>
+      <c r="B453" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="C453" s="13"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A454" s="154" t="s">
+        <v>846</v>
+      </c>
+      <c r="B454" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C454" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A455" s="154" t="s">
+        <v>847</v>
+      </c>
+      <c r="B455" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C455" s="23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A458" s="185" t="s">
+        <v>383</v>
+      </c>
+      <c r="B458" s="185"/>
+      <c r="C458" s="185"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A459" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B459" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C459" s="76" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A460" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B460" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C460" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A461" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B461" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C461" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A462" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B462" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C462" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A463" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B463" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C463" s="76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A464" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B464" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C464" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A465" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B465" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C465" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A466" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B466" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C466" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A467" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B467" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C467" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A468" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B468" s="76" t="s">
+        <v>830</v>
+      </c>
+      <c r="C468" s="76" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A469" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B469" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C469" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A470" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="C470" s="13"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A471" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C471" s="13"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A472" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B472" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C472" s="13"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A473" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B473" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C473" s="23"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A474" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B474" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C474" s="23"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A475" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B475" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C475" s="30"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A476" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B476" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="C476" s="27"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A477" s="154" t="s">
+        <v>867</v>
+      </c>
+      <c r="B477" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C477" s="13"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A478" s="154" t="s">
+        <v>868</v>
+      </c>
+      <c r="B478" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="C478" s="13"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A479" s="154" t="s">
+        <v>869</v>
+      </c>
+      <c r="B479" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="C479" s="13"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A480" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B480" s="76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C480" s="76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A481" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B481" s="76" t="s">
+        <v>871</v>
+      </c>
+      <c r="C481" s="76" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A482" s="154" t="s">
+        <v>199</v>
+      </c>
+      <c r="B482" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="C482" s="23" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A65:C65"/>
+  <mergeCells count="17">
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A356:C356"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A235:B235"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
@@ -19252,8 +22288,21 @@
     <hyperlink ref="B14" r:id="rId3"/>
     <hyperlink ref="B132" r:id="rId4"/>
     <hyperlink ref="C183" r:id="rId5"/>
+    <hyperlink ref="B226" r:id="rId6"/>
+    <hyperlink ref="C226" r:id="rId7"/>
+    <hyperlink ref="B256" r:id="rId8"/>
+    <hyperlink ref="B280" r:id="rId9"/>
+    <hyperlink ref="B305" r:id="rId10"/>
+    <hyperlink ref="B327" r:id="rId11"/>
+    <hyperlink ref="B349" r:id="rId12"/>
+    <hyperlink ref="B374" r:id="rId13"/>
+    <hyperlink ref="B403" r:id="rId14"/>
+    <hyperlink ref="B427" r:id="rId15"/>
+    <hyperlink ref="B451" r:id="rId16"/>
+    <hyperlink ref="B476" r:id="rId17"/>
+    <hyperlink ref="C256" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="903">
   <si>
     <t>Tester</t>
   </si>
@@ -2400,9 +2400,6 @@
     <t>Payment Information</t>
   </si>
   <si>
-    <t>HK003</t>
-  </si>
-  <si>
     <t>456444</t>
   </si>
   <si>
@@ -2472,9 +2469,6 @@
     <t>TC-06</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -2556,9 +2550,6 @@
     <t>5678981237</t>
   </si>
   <si>
-    <t>4444.00</t>
-  </si>
-  <si>
     <t>050524</t>
   </si>
   <si>
@@ -2592,9 +2583,6 @@
     <t>Surat</t>
   </si>
   <si>
-    <t>1112.00</t>
-  </si>
-  <si>
     <t>TC-45</t>
   </si>
   <si>
@@ -2662,6 +2650,93 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>040524</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>160524</t>
+  </si>
+  <si>
+    <t>180524</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>3334.00</t>
+  </si>
+  <si>
+    <t>3112.00</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>HK005</t>
+  </si>
+  <si>
+    <t>01.07.24</t>
+  </si>
+  <si>
+    <t>Shashank</t>
+  </si>
+  <si>
+    <t>shashank1243@gmail.com</t>
+  </si>
+  <si>
+    <t>cobra</t>
+  </si>
+  <si>
+    <t>JamNagar</t>
+  </si>
+  <si>
+    <t>499344</t>
+  </si>
+  <si>
+    <t>cobra.lg@yahoo.com</t>
+  </si>
+  <si>
+    <t>08.07.24</t>
+  </si>
+  <si>
+    <t>646546456</t>
+  </si>
+  <si>
+    <t>8787657364</t>
+  </si>
+  <si>
+    <t>020724</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>TC-36</t>
+  </si>
+  <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Expected Price / Message</t>
   </si>
 </sst>
 </file>
@@ -2951,7 +3026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3382,6 +3457,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4065,7 +4141,7 @@
   <dimension ref="A5:F1016"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4080,10 +4156,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="162"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -4102,10 +4178,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="161"/>
+      <c r="B10" s="162"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -4132,10 +4208,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="162"/>
+      <c r="B15" s="163"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -4218,18 +4294,18 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="133" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
@@ -4357,14 +4433,14 @@
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="162" t="s">
+      <c r="A37" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="162" t="s">
+      <c r="B37" s="163"/>
+      <c r="C37" s="163" t="s">
         <v>762</v>
       </c>
-      <c r="D37" s="162"/>
+      <c r="D37" s="163"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -4453,13 +4529,13 @@
       <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="162" t="s">
+      <c r="A47" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="162"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
@@ -4615,10 +4691,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="160" t="s">
+      <c r="A58" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="161"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="6" t="s">
         <v>240</v>
       </c>
@@ -4628,7 +4704,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>790</v>
+        <v>121</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>158</v>
@@ -4638,10 +4714,10 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="161"/>
+      <c r="B62" s="162"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
@@ -4655,11 +4731,11 @@
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="162" t="s">
+      <c r="A66" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="162"/>
-      <c r="C66" s="162"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
       <c r="D66" s="33"/>
       <c r="E66" s="35"/>
     </row>
@@ -5030,10 +5106,10 @@
         <v>163</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="168" t="s">
+      <c r="D99" s="169" t="s">
         <v>662</v>
       </c>
-      <c r="E99" s="169"/>
+      <c r="E99" s="170"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D100" s="12" t="s">
@@ -14316,11 +14392,11 @@
       <c r="A802" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B802" s="170" t="s">
+      <c r="B802" s="171" t="s">
         <v>263</v>
       </c>
-      <c r="C802" s="171"/>
-      <c r="D802" s="172"/>
+      <c r="C802" s="172"/>
+      <c r="D802" s="173"/>
       <c r="E802" s="76"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
@@ -14352,9 +14428,9 @@
       <c r="A806" s="134" t="s">
         <v>494</v>
       </c>
-      <c r="B806" s="165"/>
-      <c r="C806" s="166"/>
-      <c r="D806" s="167"/>
+      <c r="B806" s="166"/>
+      <c r="C806" s="167"/>
+      <c r="D806" s="168"/>
       <c r="E806" s="135"/>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
@@ -14571,11 +14647,11 @@
       <c r="A821" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B821" s="173" t="s">
+      <c r="B821" s="174" t="s">
         <v>257</v>
       </c>
-      <c r="C821" s="174"/>
-      <c r="D821" s="175"/>
+      <c r="C821" s="175"/>
+      <c r="D821" s="176"/>
       <c r="E821" s="76"/>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.35">
@@ -14596,9 +14672,9 @@
       <c r="A824" s="134" t="s">
         <v>497</v>
       </c>
-      <c r="B824" s="165"/>
-      <c r="C824" s="166"/>
-      <c r="D824" s="167"/>
+      <c r="B824" s="166"/>
+      <c r="C824" s="167"/>
+      <c r="D824" s="168"/>
       <c r="E824" s="135"/>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.35">
@@ -16798,7 +16874,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16825,12 +16901,12 @@
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="181" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
       <c r="E3" s="147"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16987,11 +17063,11 @@
       <c r="A14" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -17002,12 +17078,12 @@
       <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="147"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -17268,11 +17344,11 @@
       <c r="A35" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="176" t="s">
+      <c r="B35" s="177" t="s">
         <v>594</v>
       </c>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="35"/>
     </row>
     <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
@@ -17491,14 +17567,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="185" t="s">
         <v>783</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="D3" s="169" t="s">
+      <c r="B3" s="185"/>
+      <c r="D3" s="170" t="s">
         <v>662</v>
       </c>
-      <c r="E3" s="169"/>
+      <c r="E3" s="170"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -17546,10 +17622,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="185" t="s">
         <v>767</v>
       </c>
-      <c r="B8" s="184"/>
+      <c r="B8" s="185"/>
       <c r="D8" s="15" t="s">
         <v>343</v>
       </c>
@@ -17580,10 +17656,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="184"/>
+      <c r="B12" s="185"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
@@ -17594,10 +17670,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="184" t="s">
+      <c r="A16" s="185" t="s">
         <v>769</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="185"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
@@ -17608,10 +17684,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="184" t="s">
+      <c r="A20" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="184"/>
+      <c r="B20" s="185"/>
       <c r="C20" s="129" t="s">
         <v>772</v>
       </c>
@@ -17811,10 +17887,10 @@
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="184" t="s">
+      <c r="A37" s="185" t="s">
         <v>501</v>
       </c>
-      <c r="B37" s="184"/>
+      <c r="B37" s="185"/>
       <c r="C37" s="124" t="s">
         <v>423</v>
       </c>
@@ -17963,10 +18039,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="184" t="s">
         <v>424</v>
       </c>
-      <c r="B53" s="183"/>
+      <c r="B53" s="184"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
@@ -18013,16 +18089,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E482"/>
+  <dimension ref="A5:E535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F468" sqref="F468"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G398" sqref="G398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" customWidth="1"/>
     <col min="3" max="3" width="28.90625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" style="1" customWidth="1"/>
@@ -18031,10 +18107,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="163"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -18049,7 +18125,7 @@
         <v>319</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -18057,7 +18133,7 @@
         <v>320</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -18065,7 +18141,7 @@
         <v>321</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -18073,7 +18149,7 @@
         <v>322</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -18089,7 +18165,7 @@
         <v>324</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -18097,7 +18173,7 @@
         <v>325</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -18105,7 +18181,7 @@
         <v>326</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -18114,7 +18190,7 @@
     </row>
     <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A18" s="134" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B18" s="134" t="s">
         <v>230</v>
@@ -18241,10 +18317,10 @@
       <c r="D27" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="162"/>
+      <c r="B30" s="163"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -18303,13 +18379,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
@@ -18356,7 +18432,7 @@
         <v>507</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>112</v>
@@ -18465,10 +18541,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="160" t="s">
-        <v>799</v>
-      </c>
-      <c r="B55" s="161"/>
+      <c r="A55" s="161" t="s">
+        <v>798</v>
+      </c>
+      <c r="B55" s="162"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
@@ -18477,6 +18553,9 @@
       <c r="B56" s="110" t="s">
         <v>760</v>
       </c>
+      <c r="C56" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
@@ -18491,10 +18570,10 @@
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="160" t="s">
-        <v>800</v>
-      </c>
-      <c r="B60" s="161"/>
+      <c r="A60" s="161" t="s">
+        <v>799</v>
+      </c>
+      <c r="B60" s="162"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
@@ -18505,15 +18584,15 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="186" t="s">
-        <v>801</v>
-      </c>
-      <c r="B65" s="186"/>
-      <c r="C65" s="186"/>
+      <c r="A65" s="187" t="s">
+        <v>800</v>
+      </c>
+      <c r="B65" s="187"/>
+      <c r="C65" s="187"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>100</v>
@@ -18612,10 +18691,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="130" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C76" s="13"/>
     </row>
@@ -18627,7 +18706,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B80" s="76" t="s">
         <v>220</v>
@@ -18635,7 +18714,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>505</v>
@@ -18643,15 +18722,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="130" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>95</v>
@@ -18659,18 +18738,18 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>792</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>792</v>
+        <v>680</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -18681,7 +18760,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B89" s="76" t="s">
         <v>506</v>
@@ -18689,7 +18768,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B90" s="76" t="s">
         <v>521</v>
@@ -18697,45 +18776,45 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="130" t="s">
+        <v>803</v>
+      </c>
+      <c r="B91" s="90" t="s">
         <v>804</v>
-      </c>
-      <c r="B91" s="90" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>812</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="157" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B97" s="158"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B98" s="76" t="s">
         <v>508</v>
@@ -18743,7 +18822,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B99" s="76" t="s">
         <v>509</v>
@@ -18751,15 +18830,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="130" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B100" s="90" t="s">
-        <v>814</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>80</v>
@@ -18767,18 +18846,18 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>814</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B103" s="90" t="s">
-        <v>814</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -18789,7 +18868,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B107" s="76" t="s">
         <v>506</v>
@@ -18797,7 +18876,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B108" s="76" t="s">
         <v>521</v>
@@ -18805,42 +18884,42 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="130" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B109" s="90" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B111" s="90" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="152" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B112" s="90" t="s">
-        <v>80</v>
+        <v>813</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="152" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -18936,7 +19015,7 @@
         <v>164</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -18952,7 +19031,7 @@
         <v>342</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -18976,7 +19055,7 @@
         <v>165</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -18984,7 +19063,7 @@
         <v>344</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -18998,7 +19077,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B136" s="76" t="s">
         <v>512</v>
@@ -19009,18 +19088,18 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C137" s="76" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>77</v>
@@ -19031,46 +19110,46 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B139" s="90" t="s">
-        <v>77</v>
+        <v>876</v>
       </c>
       <c r="C139" s="90" t="s">
-        <v>77</v>
+        <v>879</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B140" s="90" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C140" s="90" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="152" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="152" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B142" s="90" t="s">
-        <v>89</v>
+        <v>445</v>
       </c>
       <c r="C142" s="90" t="s">
-        <v>89</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -19081,7 +19160,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B146" s="76" t="s">
         <v>354</v>
@@ -19089,7 +19168,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B147" s="76" t="s">
         <v>514</v>
@@ -19097,7 +19176,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="130" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B148" s="90" t="s">
         <v>354</v>
@@ -19105,7 +19184,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="130" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B149" s="90" t="s">
         <v>627</v>
@@ -19113,7 +19192,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="130" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B150" s="90" t="s">
         <v>472</v>
@@ -19121,7 +19200,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>90</v>
@@ -19129,7 +19208,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B152" s="90" t="s">
         <v>90</v>
@@ -19137,7 +19216,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B153" s="90" t="s">
         <v>89</v>
@@ -19145,15 +19224,15 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B154" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B155" s="90" t="s">
         <v>90</v>
@@ -19161,7 +19240,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="152" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B156" s="90" t="s">
         <v>472</v>
@@ -19178,7 +19257,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B160" s="76" t="s">
         <v>517</v>
@@ -19189,7 +19268,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B161" s="76" t="s">
         <v>518</v>
@@ -19323,7 +19402,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B174" s="90" t="s">
         <v>160</v>
@@ -19334,7 +19413,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B175" s="90" t="s">
         <v>160</v>
@@ -19345,7 +19424,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B176" s="90" t="s">
         <v>89</v>
@@ -19360,7 +19439,7 @@
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -19378,7 +19457,7 @@
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -19405,7 +19484,7 @@
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -19414,7 +19493,7 @@
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="27" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -19442,10 +19521,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C188" s="76" t="s">
         <v>512</v>
@@ -19453,13 +19532,13 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C189" s="76" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -19555,10 +19634,10 @@
         <v>225</v>
       </c>
       <c r="B199" s="76" t="s">
-        <v>830</v>
+        <v>638</v>
       </c>
       <c r="C199" s="76" t="s">
-        <v>536</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -19566,10 +19645,10 @@
         <v>226</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C200" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -19587,11 +19666,11 @@
       <c r="A202" s="154" t="s">
         <v>262</v>
       </c>
-      <c r="B202" s="23" t="s">
-        <v>180</v>
+      <c r="B202" s="110" t="s">
+        <v>261</v>
       </c>
       <c r="C202" s="76" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -19605,7 +19684,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B206" s="76" t="s">
         <v>512</v>
@@ -19616,13 +19695,13 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B207" s="76" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C207" s="76" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -19729,10 +19808,10 @@
         <v>226</v>
       </c>
       <c r="B218" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C218" s="76" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -19765,7 +19844,7 @@
         <v>457</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -19776,7 +19855,7 @@
         <v>166</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -19787,7 +19866,7 @@
         <v>167</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -19806,10 +19885,10 @@
         <v>165</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -19817,18 +19896,18 @@
         <v>344</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B227" s="90" t="s">
-        <v>77</v>
+        <v>879</v>
       </c>
       <c r="C227" s="90" t="s">
         <v>159</v>
@@ -19836,10 +19915,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B228" s="90" t="s">
-        <v>68</v>
+        <v>876</v>
       </c>
       <c r="C228" s="90" t="s">
         <v>68</v>
@@ -19847,10 +19926,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B229" s="90" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="C229" s="90" t="s">
         <v>90</v>
@@ -19858,18 +19937,18 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="152" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B230" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C230" s="90" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="152" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B231" s="90" t="s">
         <v>89</v>
@@ -19883,38 +19962,38 @@
         <v>199</v>
       </c>
       <c r="B232" s="90" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C232" s="90" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="187" t="s">
+      <c r="A235" s="188" t="s">
         <v>423</v>
       </c>
-      <c r="B235" s="188"/>
-      <c r="C235" s="187" t="s">
+      <c r="B235" s="189"/>
+      <c r="C235" s="188" t="s">
         <v>424</v>
       </c>
-      <c r="D235" s="188"/>
+      <c r="D235" s="189"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B236" s="76" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B237" s="76" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
@@ -20040,7 +20119,7 @@
         <v>225</v>
       </c>
       <c r="B247" s="76" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C247" s="76" t="s">
         <v>560</v>
@@ -20079,7 +20158,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="153" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>396</v>
@@ -20093,7 +20172,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="153" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>457</v>
@@ -20146,10 +20225,10 @@
         <v>165</v>
       </c>
       <c r="B255" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D255" s="30"/>
     </row>
@@ -20158,10 +20237,10 @@
         <v>344</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D256" s="27"/>
     </row>
@@ -20179,40 +20258,40 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="154" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="154" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="23" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D259" s="13"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="154" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D260" s="13"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="185" t="s">
+      <c r="A262" s="186" t="s">
         <v>744</v>
       </c>
-      <c r="B262" s="185"/>
-      <c r="C262" s="185"/>
+      <c r="B262" s="186"/>
+      <c r="C262" s="186"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
@@ -20318,10 +20397,10 @@
         <v>226</v>
       </c>
       <c r="B272" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C272" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -20385,7 +20464,7 @@
         <v>165</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C279" s="30"/>
     </row>
@@ -20394,31 +20473,31 @@
         <v>344</v>
       </c>
       <c r="B280" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C280" s="27"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="154" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C281" s="13"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="154" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="C282" s="13"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="154" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B283" s="23" t="s">
         <v>80</v>
@@ -20427,7 +20506,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="154" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B284" s="23" t="s">
         <v>67</v>
@@ -20435,11 +20514,11 @@
       <c r="C284" s="13"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="185" t="s">
-        <v>851</v>
-      </c>
-      <c r="B287" s="185"/>
-      <c r="C287" s="185"/>
+      <c r="A287" s="186" t="s">
+        <v>848</v>
+      </c>
+      <c r="B287" s="186"/>
+      <c r="C287" s="186"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
@@ -20545,10 +20624,10 @@
         <v>226</v>
       </c>
       <c r="B297" s="76" t="s">
-        <v>705</v>
+        <v>535</v>
       </c>
       <c r="C297" s="76" t="s">
-        <v>705</v>
+        <v>535</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -20567,7 +20646,7 @@
         <v>164</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C299" s="13"/>
     </row>
@@ -20576,7 +20655,7 @@
         <v>69</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C300" s="13"/>
     </row>
@@ -20585,7 +20664,7 @@
         <v>342</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C301" s="13"/>
     </row>
@@ -20612,7 +20691,7 @@
         <v>165</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C304" s="30"/>
     </row>
@@ -20621,7 +20700,7 @@
         <v>344</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C305" s="27"/>
     </row>
@@ -20635,11 +20714,11 @@
       <c r="C306" s="13"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309" s="185" t="s">
+      <c r="A309" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="B309" s="185"/>
-      <c r="C309" s="185"/>
+      <c r="B309" s="186"/>
+      <c r="C309" s="186"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
@@ -20776,7 +20855,7 @@
         <v>69</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C322" s="13"/>
     </row>
@@ -20785,7 +20864,7 @@
         <v>342</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C323" s="13"/>
     </row>
@@ -20812,7 +20891,7 @@
         <v>165</v>
       </c>
       <c r="B326" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C326" s="30"/>
     </row>
@@ -20821,7 +20900,7 @@
         <v>344</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C327" s="27"/>
     </row>
@@ -20835,11 +20914,11 @@
       <c r="C328" s="13"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" s="185" t="s">
-        <v>855</v>
-      </c>
-      <c r="B331" s="185"/>
-      <c r="C331" s="185"/>
+      <c r="A331" s="186" t="s">
+        <v>851</v>
+      </c>
+      <c r="B331" s="186"/>
+      <c r="C331" s="186"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
@@ -20945,10 +21024,10 @@
         <v>226</v>
       </c>
       <c r="B341" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -20967,7 +21046,7 @@
         <v>164</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C343" s="13"/>
     </row>
@@ -20976,7 +21055,7 @@
         <v>69</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C344" s="13"/>
     </row>
@@ -21012,7 +21091,7 @@
         <v>165</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C348" s="30"/>
     </row>
@@ -21021,19 +21100,19 @@
         <v>344</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C349" s="27"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B350" s="76" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="C350" s="76" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -21041,36 +21120,36 @@
         <v>491</v>
       </c>
       <c r="B351" s="76" t="s">
-        <v>639</v>
+        <v>877</v>
       </c>
       <c r="C351" s="76" t="s">
-        <v>639</v>
+        <v>877</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="154" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="C352" s="13"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="154" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="23" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" s="185" t="s">
-        <v>861</v>
-      </c>
-      <c r="B356" s="185"/>
-      <c r="C356" s="185"/>
+      <c r="A356" s="186" t="s">
+        <v>857</v>
+      </c>
+      <c r="B356" s="186"/>
+      <c r="C356" s="186"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
@@ -21176,10 +21255,10 @@
         <v>226</v>
       </c>
       <c r="B366" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C366" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -21198,7 +21277,7 @@
         <v>164</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C368" s="13"/>
     </row>
@@ -21207,7 +21286,7 @@
         <v>69</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C369" s="13"/>
     </row>
@@ -21243,7 +21322,7 @@
         <v>165</v>
       </c>
       <c r="B373" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C373" s="30"/>
     </row>
@@ -21252,53 +21331,53 @@
         <v>344</v>
       </c>
       <c r="B374" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C374" s="27"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B375" s="76" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="C375" s="76" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="B376" s="76" t="s">
-        <v>639</v>
-      </c>
-      <c r="C376" s="76" t="s">
-        <v>639</v>
+        <v>852</v>
+      </c>
+      <c r="B376" s="156" t="s">
+        <v>840</v>
+      </c>
+      <c r="C376" s="156" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="154" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="C377" s="13"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="154" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="23" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B379" s="76" t="s">
         <v>512</v>
@@ -21307,41 +21386,41 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="155" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B380" s="156" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C380" s="13"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="154" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B381" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="154" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B382" s="23" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>461</v>
+        <v>885</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" s="185" t="s">
+      <c r="A385" s="186" t="s">
         <v>718</v>
       </c>
-      <c r="B385" s="185"/>
-      <c r="C385" s="185"/>
+      <c r="B385" s="186"/>
+      <c r="C385" s="186"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
@@ -21436,10 +21515,10 @@
         <v>225</v>
       </c>
       <c r="B394" s="76" t="s">
-        <v>643</v>
+        <v>880</v>
       </c>
       <c r="C394" s="76" t="s">
-        <v>643</v>
+        <v>880</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -21447,10 +21526,10 @@
         <v>226</v>
       </c>
       <c r="B395" s="76" t="s">
-        <v>641</v>
+        <v>881</v>
       </c>
       <c r="C395" s="76" t="s">
-        <v>641</v>
+        <v>881</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -21469,7 +21548,7 @@
         <v>164</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C397" s="13"/>
     </row>
@@ -21478,7 +21557,7 @@
         <v>69</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C398" s="13"/>
     </row>
@@ -21487,7 +21566,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C399" s="13"/>
     </row>
@@ -21514,7 +21593,7 @@
         <v>165</v>
       </c>
       <c r="B402" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C402" s="30"/>
     </row>
@@ -21523,24 +21602,24 @@
         <v>344</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C403" s="27"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B404" s="76" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C404" s="76" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B405" s="76" t="s">
         <v>638</v>
@@ -21559,11 +21638,11 @@
       <c r="C406" s="13"/>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A409" s="185" t="s">
+      <c r="A409" s="186" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="185"/>
-      <c r="C409" s="185"/>
+      <c r="B409" s="186"/>
+      <c r="C409" s="186"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
@@ -21691,7 +21770,7 @@
         <v>164</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C421" s="13"/>
     </row>
@@ -21700,7 +21779,7 @@
         <v>69</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C422" s="13"/>
     </row>
@@ -21709,7 +21788,7 @@
         <v>342</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C423" s="13"/>
     </row>
@@ -21736,7 +21815,7 @@
         <v>165</v>
       </c>
       <c r="B426" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C426" s="30"/>
     </row>
@@ -21745,30 +21824,30 @@
         <v>344</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C427" s="27"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B428" s="76" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C428" s="76" t="s">
-        <v>843</v>
+        <v>536</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B429" s="76" t="s">
         <v>639</v>
       </c>
       <c r="C429" s="76" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -21781,11 +21860,11 @@
       <c r="C430" s="13"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A433" s="185" t="s">
-        <v>866</v>
-      </c>
-      <c r="B433" s="185"/>
-      <c r="C433" s="185"/>
+      <c r="A433" s="186" t="s">
+        <v>862</v>
+      </c>
+      <c r="B433" s="186"/>
+      <c r="C433" s="186"/>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
@@ -21891,10 +21970,10 @@
         <v>226</v>
       </c>
       <c r="B443" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C443" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -21958,7 +22037,7 @@
         <v>165</v>
       </c>
       <c r="B450" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C450" s="30"/>
     </row>
@@ -21967,13 +22046,13 @@
         <v>344</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C451" s="27"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="154" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B452" s="23" t="s">
         <v>512</v>
@@ -21982,41 +22061,41 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="154" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C453" s="13"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="154" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>158</v>
+        <v>882</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>80</v>
+        <v>875</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="154" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B455" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>472</v>
+        <v>874</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A458" s="185" t="s">
+      <c r="A458" s="186" t="s">
         <v>383</v>
       </c>
-      <c r="B458" s="185"/>
-      <c r="C458" s="185"/>
+      <c r="B458" s="186"/>
+      <c r="C458" s="186"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
@@ -22122,10 +22201,10 @@
         <v>226</v>
       </c>
       <c r="B468" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C468" s="76" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -22144,7 +22223,7 @@
         <v>164</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C470" s="13"/>
     </row>
@@ -22189,7 +22268,7 @@
         <v>165</v>
       </c>
       <c r="B475" s="30" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C475" s="30"/>
     </row>
@@ -22198,13 +22277,13 @@
         <v>344</v>
       </c>
       <c r="B476" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C476" s="27"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" s="154" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B477" s="23" t="s">
         <v>512</v>
@@ -22213,25 +22292,25 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" s="154" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C478" s="13"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" s="154" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B479" s="23" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C479" s="13"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B480" s="76" t="s">
         <v>512</v>
@@ -22242,13 +22321,13 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B481" s="76" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C481" s="76" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -22256,11 +22335,529 @@
         <v>199</v>
       </c>
       <c r="B482" s="24" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>860</v>
-      </c>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A485" s="157" t="s">
+        <v>371</v>
+      </c>
+      <c r="B485" s="158"/>
+      <c r="C485" s="157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A486" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B486" s="76" t="s">
+        <v>887</v>
+      </c>
+      <c r="C486" s="76" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A487" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="B487" s="76" t="s">
+        <v>894</v>
+      </c>
+      <c r="C487" s="76" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A489" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B489" s="76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C489" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A490" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B490" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C490" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A491" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B491" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C491" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A492" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B492" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C492" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A493" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B493" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C493" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A494" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B494" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C494" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A495" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B495" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C495" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A496" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B496" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C496" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A497" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B497" s="76" t="s">
+        <v>897</v>
+      </c>
+      <c r="C497" s="76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A498" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B498" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="C498" s="76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A499" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B499" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C499" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A500" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B500" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A501" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B501" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C501" s="13" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A502" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B502" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="C502" s="13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A503" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B503" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C503" s="23" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A504" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B504" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C504" s="23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A505" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B505" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="C505" s="30" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A506" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B506" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="C506" s="27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A507" s="154" t="s">
+        <v>262</v>
+      </c>
+      <c r="B507" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C507" s="76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A510" s="160" t="s">
+        <v>899</v>
+      </c>
+      <c r="B510" s="160"/>
+      <c r="C510" s="160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A511" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B511" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C511" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A512" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B512" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C512" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A513" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B513" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C513" s="76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A514" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B514" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C514" s="67" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A515" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B515" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C515" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A516" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B516" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C516" s="110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A517" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B517" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C517" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A518" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B518" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C518" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A519" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B519" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C519" s="76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A520" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B520" s="76" t="s">
+        <v>897</v>
+      </c>
+      <c r="C520" s="76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A521" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B521" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C521" s="76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A522" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B522" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C522" s="13" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A523" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B523" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="C523" s="13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A524" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="B524" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="C524" s="13" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A525" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B525" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C525" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A526" s="153" t="s">
+        <v>343</v>
+      </c>
+      <c r="B526" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C526" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A527" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B527" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C527" s="30" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A528" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B528" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="C528" s="27" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A529" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B529" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="C529" s="76" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A530" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B530" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="C530" s="76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A531" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B531" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C531" s="76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A532" s="154" t="s">
+        <v>902</v>
+      </c>
+      <c r="B532" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C532" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A533" s="154" t="s">
+        <v>808</v>
+      </c>
+      <c r="B533" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C533" s="13"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A534" s="154" t="s">
+        <v>814</v>
+      </c>
+      <c r="B534" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C534" s="13"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A535" s="154" t="s">
+        <v>810</v>
+      </c>
+      <c r="B535" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C535" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -22301,8 +22898,12 @@
     <hyperlink ref="B451" r:id="rId16"/>
     <hyperlink ref="B476" r:id="rId17"/>
     <hyperlink ref="C256" r:id="rId18"/>
+    <hyperlink ref="B506" r:id="rId19"/>
+    <hyperlink ref="C506" r:id="rId20"/>
+    <hyperlink ref="B528" r:id="rId21"/>
+    <hyperlink ref="C528" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="902">
   <si>
     <t>Tester</t>
   </si>
@@ -1279,9 +1279,6 @@
     <t>276416</t>
   </si>
   <si>
-    <t>533280</t>
-  </si>
-  <si>
     <t>TC-38</t>
   </si>
   <si>
@@ -2275,21 +2272,9 @@
     <t>S</t>
   </si>
   <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>170323</t>
-  </si>
-  <si>
-    <t>180323</t>
-  </si>
-  <si>
     <t>Cancellation with 50% Charges</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>251223</t>
   </si>
   <si>
@@ -2300,9 +2285,6 @@
   </si>
   <si>
     <t>060224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error message                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </t>
   </si>
   <si>
     <t>HK004</t>
@@ -2737,6 +2719,21 @@
   </si>
   <si>
     <t>Expected Price / Message</t>
+  </si>
+  <si>
+    <t>533280</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>The requested period is outside the contract period</t>
+  </si>
+  <si>
+    <t>NG001</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -3026,7 +3023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3545,6 +3542,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3972,7 +3972,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="12" t="s">
@@ -4029,7 +4029,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
@@ -4140,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F1016"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A343" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>737</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>738</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B37" s="163"/>
       <c r="C37" s="163" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D37" s="163"/>
     </row>
@@ -4450,7 +4450,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D38" s="76" t="s">
         <v>354</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>220</v>
@@ -4467,7 +4467,7 @@
         <v>175</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -4475,10 +4475,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>68</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>77</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>96</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>220</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -4562,7 +4562,7 @@
         <v>220</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>77</v>
@@ -4576,10 +4576,10 @@
         <v>104</v>
       </c>
       <c r="B50" s="76" t="s">
+        <v>505</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>67</v>
@@ -4593,10 +4593,10 @@
         <v>105</v>
       </c>
       <c r="B51" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C51" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>509</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>80</v>
@@ -4610,10 +4610,10 @@
         <v>106</v>
       </c>
       <c r="B52" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>511</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>158</v>
@@ -4627,10 +4627,10 @@
         <v>107</v>
       </c>
       <c r="B53" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>512</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>77</v>
@@ -4647,7 +4647,7 @@
         <v>354</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>90</v>
@@ -4661,10 +4661,10 @@
         <v>109</v>
       </c>
       <c r="B55" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>159</v>
@@ -4678,10 +4678,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>160</v>
@@ -4710,7 +4710,7 @@
         <v>158</v>
       </c>
       <c r="D59" s="125" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
@@ -4874,7 +4874,7 @@
         <v>126</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>346</v>
@@ -4895,7 +4895,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>347</v>
@@ -4906,7 +4906,7 @@
         <v>129</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>348</v>
@@ -4917,7 +4917,7 @@
         <v>130</v>
       </c>
       <c r="B81" s="72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C81" s="4"/>
     </row>
@@ -4926,7 +4926,7 @@
         <v>131</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>349</v>
@@ -4937,7 +4937,7 @@
         <v>132</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>154</v>
@@ -4957,7 +4957,7 @@
         <v>134</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>155</v>
@@ -4968,7 +4968,7 @@
         <v>135</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>350</v>
@@ -4988,7 +4988,7 @@
         <v>137</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>351</v>
@@ -4999,7 +4999,7 @@
         <v>138</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>156</v>
@@ -5030,7 +5030,7 @@
         <v>141</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>352</v>
@@ -5050,7 +5050,7 @@
         <v>232</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>353</v>
@@ -5061,7 +5061,7 @@
         <v>233</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>94</v>
@@ -5081,7 +5081,7 @@
         <v>144</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>220</v>
@@ -5092,7 +5092,7 @@
         <v>145</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>354</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="169" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E99" s="170"/>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B101" s="119"/>
       <c r="C101" s="120" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>69</v>
@@ -5182,7 +5182,7 @@
         <v>343</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -5263,10 +5263,10 @@
         <v>370</v>
       </c>
       <c r="B110" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C110" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D110" s="33"/>
       <c r="E110" s="35"/>
@@ -5279,18 +5279,18 @@
         <v>71</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B112" s="63" t="s">
         <v>171</v>
       </c>
       <c r="C112" s="72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D112" s="33"/>
       <c r="E112" s="68"/>
@@ -5376,7 +5376,7 @@
         <v>271</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -5564,7 +5564,7 @@
         <v>225</v>
       </c>
       <c r="B151" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -5572,7 +5572,7 @@
         <v>226</v>
       </c>
       <c r="B152" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -5674,7 +5674,7 @@
         <v>225</v>
       </c>
       <c r="B166" s="76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -5682,7 +5682,7 @@
         <v>226</v>
       </c>
       <c r="B167" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -5784,7 +5784,7 @@
         <v>225</v>
       </c>
       <c r="B181" s="76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -5808,7 +5808,7 @@
         <v>199</v>
       </c>
       <c r="B184" s="76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -5894,7 +5894,7 @@
         <v>225</v>
       </c>
       <c r="B196" s="76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -5902,7 +5902,7 @@
         <v>226</v>
       </c>
       <c r="B197" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -6008,7 +6008,7 @@
         <v>226</v>
       </c>
       <c r="B212" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -6110,7 +6110,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="76" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -6118,7 +6118,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="76" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -6133,8 +6133,8 @@
       <c r="A229" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B229" s="76" t="s">
-        <v>759</v>
+      <c r="B229" s="110" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -6229,7 +6229,7 @@
         <v>226</v>
       </c>
       <c r="B242" s="76" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E242" s="35"/>
     </row>
@@ -6354,7 +6354,7 @@
         <v>225</v>
       </c>
       <c r="B256" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E256" s="117"/>
       <c r="F256" s="102"/>
@@ -6364,7 +6364,7 @@
         <v>226</v>
       </c>
       <c r="B257" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E257" s="117"/>
       <c r="F257" s="102"/>
@@ -6385,7 +6385,7 @@
         <v>199</v>
       </c>
       <c r="B259" s="72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C259" s="40"/>
       <c r="E259" s="13"/>
@@ -6409,10 +6409,10 @@
         <v>196</v>
       </c>
       <c r="E261" s="134" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F261" s="137" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -6580,19 +6580,19 @@
         <v>225</v>
       </c>
       <c r="B270" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C270" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D270" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E270" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F270" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -6600,19 +6600,19 @@
         <v>226</v>
       </c>
       <c r="B271" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D271" s="76" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E271" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F271" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B274" s="64" t="s">
         <v>158</v>
@@ -6666,10 +6666,10 @@
         <v>158</v>
       </c>
       <c r="D274" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E274" s="76" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F274" s="76" t="s">
         <v>158</v>
@@ -6721,7 +6721,7 @@
         <v>162</v>
       </c>
       <c r="E277" s="76" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F277" s="76" t="s">
         <v>162</v>
@@ -6897,16 +6897,16 @@
         <v>225</v>
       </c>
       <c r="B289" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C289" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D289" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E289" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -6914,16 +6914,16 @@
         <v>226</v>
       </c>
       <c r="B290" s="76" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C290" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D290" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E290" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -6965,16 +6965,16 @@
         <v>374</v>
       </c>
       <c r="B293" s="76" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C293" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D293" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E293" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -6983,13 +6983,13 @@
       </c>
       <c r="B294" s="65"/>
       <c r="C294" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D294" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="E294" s="76" t="s">
         <v>527</v>
-      </c>
-      <c r="E294" s="76" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -7008,7 +7008,7 @@
         <v>414</v>
       </c>
       <c r="B296" s="76" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C296" s="65" t="s">
         <v>253</v>
@@ -7054,7 +7054,7 @@
         <v>408</v>
       </c>
       <c r="E299" s="134" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -7198,16 +7198,16 @@
         <v>225</v>
       </c>
       <c r="B308" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C308" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D308" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E308" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -7215,16 +7215,16 @@
         <v>226</v>
       </c>
       <c r="B309" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C309" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D309" s="76" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E309" s="76" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -7275,12 +7275,12 @@
         <v>162</v>
       </c>
       <c r="E312" s="76" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B313" s="51" t="s">
         <v>266</v>
@@ -7302,10 +7302,10 @@
         <v>158</v>
       </c>
       <c r="D314" s="88" t="s">
-        <v>418</v>
+        <v>897</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -7471,16 +7471,16 @@
         <v>225</v>
       </c>
       <c r="B325" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C325" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D325" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E325" s="76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -7488,16 +7488,16 @@
         <v>226</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D326" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -7710,10 +7710,10 @@
         <v>228</v>
       </c>
       <c r="D340" s="108" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E340" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -7724,13 +7724,13 @@
         <v>183</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D341" s="108" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E341" s="76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -7937,16 +7937,16 @@
         <v>225</v>
       </c>
       <c r="B355" s="76" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C355" s="76" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D355" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E355" s="30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -7954,16 +7954,16 @@
         <v>226</v>
       </c>
       <c r="B356" s="76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C356" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D356" s="76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E356" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -8152,13 +8152,13 @@
         <v>225</v>
       </c>
       <c r="B370" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C370" s="30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D370" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E370" s="30"/>
     </row>
@@ -8167,13 +8167,13 @@
         <v>226</v>
       </c>
       <c r="B371" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C371" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="D371" s="30" t="s">
         <v>611</v>
-      </c>
-      <c r="D371" s="30" t="s">
-        <v>612</v>
       </c>
       <c r="E371" s="30"/>
     </row>
@@ -8377,16 +8377,16 @@
         <v>225</v>
       </c>
       <c r="B385" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C385" s="76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D385" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E385" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
@@ -8394,16 +8394,16 @@
         <v>226</v>
       </c>
       <c r="B386" s="76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C386" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D386" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E386" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -8428,16 +8428,16 @@
         <v>199</v>
       </c>
       <c r="B388" s="76" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C388" s="76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D388" s="76" t="s">
+        <v>659</v>
+      </c>
+      <c r="E388" s="76" t="s">
         <v>660</v>
-      </c>
-      <c r="E388" s="76" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -8610,16 +8610,16 @@
         <v>225</v>
       </c>
       <c r="B400" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C400" s="76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D400" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E400" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
@@ -8627,16 +8627,16 @@
         <v>226</v>
       </c>
       <c r="B401" s="76" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C401" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="D401" s="76" t="s">
         <v>622</v>
       </c>
-      <c r="D401" s="76" t="s">
-        <v>623</v>
-      </c>
       <c r="E401" s="76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -8661,10 +8661,10 @@
         <v>380</v>
       </c>
       <c r="B403" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C403" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D403" s="4" t="s">
         <v>281</v>
@@ -8843,16 +8843,16 @@
         <v>225</v>
       </c>
       <c r="B415" s="76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C415" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D415" s="76" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E415" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
@@ -8860,16 +8860,16 @@
         <v>226</v>
       </c>
       <c r="B416" s="76" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C416" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="D416" s="76" t="s">
+        <v>617</v>
+      </c>
+      <c r="E416" s="76" t="s">
         <v>619</v>
-      </c>
-      <c r="D416" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="E416" s="76" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
@@ -8897,7 +8897,7 @@
         <v>281</v>
       </c>
       <c r="C418" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>281</v>
@@ -9076,16 +9076,16 @@
         <v>225</v>
       </c>
       <c r="B430" s="76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C430" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D430" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E430" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
@@ -9093,16 +9093,16 @@
         <v>226</v>
       </c>
       <c r="B431" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C431" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D431" s="76" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E431" s="76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
@@ -9309,16 +9309,16 @@
         <v>225</v>
       </c>
       <c r="B445" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C445" s="76" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D445" s="76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E445" s="76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
@@ -9326,16 +9326,16 @@
         <v>226</v>
       </c>
       <c r="B446" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C446" s="76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D446" s="76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E446" s="76" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
@@ -9542,16 +9542,16 @@
         <v>225</v>
       </c>
       <c r="B460" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C460" s="76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E460" s="76" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
@@ -9559,16 +9559,16 @@
         <v>226</v>
       </c>
       <c r="B461" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="C461" s="76" t="s">
         <v>634</v>
       </c>
-      <c r="C461" s="76" t="s">
+      <c r="D461" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="D461" s="30" t="s">
+      <c r="E461" s="76" t="s">
         <v>636</v>
-      </c>
-      <c r="E461" s="76" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
@@ -9775,16 +9775,16 @@
         <v>225</v>
       </c>
       <c r="B475" s="76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C475" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D475" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E475" s="76" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
@@ -9792,16 +9792,16 @@
         <v>226</v>
       </c>
       <c r="B476" s="76" t="s">
+        <v>638</v>
+      </c>
+      <c r="C476" s="76" t="s">
         <v>639</v>
       </c>
-      <c r="C476" s="76" t="s">
+      <c r="D476" s="76" t="s">
         <v>640</v>
       </c>
-      <c r="D476" s="76" t="s">
-        <v>641</v>
-      </c>
       <c r="E476" s="76" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
@@ -9829,7 +9829,7 @@
         <v>310</v>
       </c>
       <c r="C478" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>281</v>
@@ -10008,16 +10008,16 @@
         <v>225</v>
       </c>
       <c r="B490" s="76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C490" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D490" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E490" s="76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10025,16 +10025,16 @@
         <v>226</v>
       </c>
       <c r="B491" s="76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C491" s="76" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D491" s="76" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E491" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10241,16 +10241,16 @@
         <v>225</v>
       </c>
       <c r="B505" s="76" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C505" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D505" s="76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E505" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10258,16 +10258,16 @@
         <v>226</v>
       </c>
       <c r="B506" s="76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C506" s="76" t="s">
+        <v>647</v>
+      </c>
+      <c r="D506" s="76" t="s">
+        <v>641</v>
+      </c>
+      <c r="E506" s="76" t="s">
         <v>648</v>
-      </c>
-      <c r="D506" s="76" t="s">
-        <v>642</v>
-      </c>
-      <c r="E506" s="76" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10474,7 +10474,7 @@
         <v>225</v>
       </c>
       <c r="B520" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C520" s="76" t="s">
         <v>354</v>
@@ -10483,7 +10483,7 @@
         <v>354</v>
       </c>
       <c r="E520" s="76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10491,16 +10491,16 @@
         <v>226</v>
       </c>
       <c r="B521" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C521" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="D521" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="E521" s="76" t="s">
         <v>619</v>
-      </c>
-      <c r="D521" s="76" t="s">
-        <v>622</v>
-      </c>
-      <c r="E521" s="76" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10528,13 +10528,13 @@
         <v>281</v>
       </c>
       <c r="C523" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="D523" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="D523" s="22" t="s">
+      <c r="E523" s="22" t="s">
         <v>651</v>
-      </c>
-      <c r="E523" s="22" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10707,16 +10707,16 @@
         <v>225</v>
       </c>
       <c r="B535" s="76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C535" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D535" s="76" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E535" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10724,16 +10724,16 @@
         <v>226</v>
       </c>
       <c r="B536" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C536" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D536" s="76" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E536" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
@@ -10940,16 +10940,16 @@
         <v>225</v>
       </c>
       <c r="B550" s="76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C550" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D550" s="76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E550" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
@@ -10957,16 +10957,16 @@
         <v>226</v>
       </c>
       <c r="B551" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C551" s="76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D551" s="76" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E551" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
@@ -10991,16 +10991,16 @@
         <v>262</v>
       </c>
       <c r="B553" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C553" s="14" t="s">
         <v>263</v>
       </c>
       <c r="D553" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E553" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
@@ -11155,13 +11155,13 @@
         <v>225</v>
       </c>
       <c r="B565" s="76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C565" s="76" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D565" s="76" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E565" s="76"/>
     </row>
@@ -11170,13 +11170,13 @@
         <v>226</v>
       </c>
       <c r="B566" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C566" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D566" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E566" s="76"/>
     </row>
@@ -11362,13 +11362,13 @@
         <v>225</v>
       </c>
       <c r="B580" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C580" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D580" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E580" s="81"/>
     </row>
@@ -11377,13 +11377,13 @@
         <v>226</v>
       </c>
       <c r="B581" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C581" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D581" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E581" s="81"/>
     </row>
@@ -11422,13 +11422,13 @@
         <v>381</v>
       </c>
       <c r="B584" s="76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C584" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D584" s="76" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E584" s="81"/>
     </row>
@@ -11461,7 +11461,7 @@
         <v>263</v>
       </c>
       <c r="D587" s="76" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E587" s="81"/>
     </row>
@@ -11620,13 +11620,13 @@
         <v>225</v>
       </c>
       <c r="B600" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C600" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D600" s="76" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E600" s="81"/>
     </row>
@@ -11635,13 +11635,13 @@
         <v>226</v>
       </c>
       <c r="B601" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C601" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D601" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E601" s="81"/>
     </row>
@@ -11834,13 +11834,13 @@
         <v>225</v>
       </c>
       <c r="B616" s="76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C616" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="D616" s="76" t="s">
         <v>548</v>
-      </c>
-      <c r="D616" s="76" t="s">
-        <v>549</v>
       </c>
       <c r="E616" s="81"/>
     </row>
@@ -11849,13 +11849,13 @@
         <v>226</v>
       </c>
       <c r="B617" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C617" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D617" s="76" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E617" s="81"/>
     </row>
@@ -11989,10 +11989,10 @@
         <v>398</v>
       </c>
       <c r="C627" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D627" s="76" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E627" s="35"/>
     </row>
@@ -12160,7 +12160,7 @@
         <v>225</v>
       </c>
       <c r="B643" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C643" s="76"/>
       <c r="D643" s="73"/>
@@ -12171,7 +12171,7 @@
         <v>226</v>
       </c>
       <c r="B644" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C644" s="76"/>
       <c r="D644" s="73"/>
@@ -12215,14 +12215,14 @@
     </row>
     <row r="649" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A649" s="134" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B649" s="136"/>
       <c r="C649" s="137" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D649" s="137" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E649" s="147"/>
     </row>
@@ -12351,13 +12351,13 @@
         <v>225</v>
       </c>
       <c r="B658" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C658" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D658" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E658" s="35"/>
     </row>
@@ -12366,13 +12366,13 @@
         <v>226</v>
       </c>
       <c r="B659" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C659" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D659" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E659" s="35"/>
     </row>
@@ -12408,42 +12408,42 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B662" s="76" t="s">
+        <v>539</v>
+      </c>
+      <c r="C662" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="C662" s="76" t="s">
-        <v>541</v>
-      </c>
       <c r="D662" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E662" s="35"/>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B663" s="76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C663" s="76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D663" s="76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E663" s="35"/>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B664" s="76"/>
       <c r="C664" s="76"/>
       <c r="D664" s="107" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E664" s="35"/>
     </row>
@@ -12456,17 +12456,17 @@
     </row>
     <row r="666" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A666" s="134" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B666" s="136"/>
       <c r="C666" s="134" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D666" s="134" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E666" s="134" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
@@ -12545,7 +12545,7 @@
         <v>88</v>
       </c>
       <c r="C671" s="76" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D671" s="76" t="s">
         <v>88</v>
@@ -12610,16 +12610,16 @@
         <v>225</v>
       </c>
       <c r="B675" s="76" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C675" s="76" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D675" s="76" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E675" s="76" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
@@ -12627,16 +12627,16 @@
         <v>226</v>
       </c>
       <c r="B676" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C676" s="76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D676" s="76" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E676" s="76" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
@@ -12658,24 +12658,24 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B678" s="76" t="s">
         <v>253</v>
       </c>
       <c r="C678" s="76" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D678" s="76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E678" s="76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B679" s="76"/>
       <c r="C679" s="76" t="s">
@@ -12706,17 +12706,17 @@
     </row>
     <row r="682" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A682" s="134" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B682" s="145"/>
       <c r="C682" s="134" t="s">
+        <v>425</v>
+      </c>
+      <c r="D682" s="134" t="s">
         <v>426</v>
       </c>
-      <c r="D682" s="134" t="s">
+      <c r="E682" s="134" t="s">
         <v>427</v>
-      </c>
-      <c r="E682" s="134" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
@@ -12792,16 +12792,16 @@
         <v>268</v>
       </c>
       <c r="B687" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C687" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D687" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E687" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.35">
@@ -12860,16 +12860,16 @@
         <v>225</v>
       </c>
       <c r="B691" s="76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C691" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D691" s="76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E691" s="76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
@@ -12877,16 +12877,16 @@
         <v>226</v>
       </c>
       <c r="B692" s="76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C692" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D692" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E692" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
@@ -12948,7 +12948,7 @@
         <v>397</v>
       </c>
       <c r="C696" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D696" s="8" t="s">
         <v>397</v>
@@ -13004,10 +13004,10 @@
       </c>
       <c r="C700" s="8"/>
       <c r="D700" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E700" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="E700" s="8" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
@@ -13029,7 +13029,7 @@
       <c r="C702" s="76"/>
       <c r="D702" s="76"/>
       <c r="E702" s="76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
@@ -13037,12 +13037,12 @@
         <v>400</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
@@ -13055,7 +13055,7 @@
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.35">
@@ -13072,7 +13072,7 @@
         <v>399</v>
       </c>
       <c r="B706" s="76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -13083,7 +13083,7 @@
         <v>400</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -13091,10 +13091,10 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -13102,7 +13102,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B709" s="76"/>
       <c r="C709" s="8"/>
@@ -13111,10 +13111,10 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B710" s="76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -13122,10 +13122,10 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -13133,10 +13133,10 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B713" s="76"/>
       <c r="C713" s="8"/>
@@ -13156,7 +13156,7 @@
         <v>199</v>
       </c>
       <c r="B714" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C714" s="76" t="s">
         <v>377</v>
@@ -13165,7 +13165,7 @@
         <v>341</v>
       </c>
       <c r="E714" s="76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F714" s="39"/>
     </row>
@@ -13183,17 +13183,17 @@
     </row>
     <row r="717" spans="1:6" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A717" s="134" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B717" s="145"/>
       <c r="C717" s="134" t="s">
+        <v>436</v>
+      </c>
+      <c r="D717" s="134" t="s">
         <v>437</v>
       </c>
-      <c r="D717" s="134" t="s">
+      <c r="E717" s="134" t="s">
         <v>438</v>
-      </c>
-      <c r="E717" s="134" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.35">
@@ -13269,16 +13269,16 @@
         <v>268</v>
       </c>
       <c r="B722" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C722" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D722" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E722" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
@@ -13337,16 +13337,16 @@
         <v>225</v>
       </c>
       <c r="B726" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C726" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D726" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E726" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -13354,16 +13354,16 @@
         <v>226</v>
       </c>
       <c r="B727" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C727" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D727" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E727" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -13508,10 +13508,10 @@
       </c>
       <c r="B737" s="76"/>
       <c r="C737" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D737" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E737" s="76" t="s">
         <v>403</v>
@@ -13523,10 +13523,10 @@
       </c>
       <c r="B738" s="8"/>
       <c r="C738" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D738" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E738" s="8" t="s">
         <v>404</v>
@@ -13538,10 +13538,10 @@
       </c>
       <c r="B739" s="8"/>
       <c r="C739" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D739" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E739" s="8" t="s">
         <v>405</v>
@@ -13563,7 +13563,7 @@
       <c r="B741" s="8"/>
       <c r="C741" s="13"/>
       <c r="D741" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E741" s="13"/>
     </row>
@@ -13574,24 +13574,24 @@
       <c r="B742" s="8"/>
       <c r="C742" s="13"/>
       <c r="D742" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E742" s="13"/>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B743" s="8"/>
       <c r="C743" s="13"/>
       <c r="D743" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E743" s="13"/>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B744" s="8"/>
       <c r="C744" s="13"/>
@@ -13606,13 +13606,13 @@
         <v>341</v>
       </c>
       <c r="C745" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="D745" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="D745" s="76" t="s">
-        <v>485</v>
-      </c>
       <c r="E745" s="76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -13631,17 +13631,17 @@
     </row>
     <row r="748" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A748" s="134" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B748" s="145"/>
       <c r="C748" s="134" t="s">
+        <v>440</v>
+      </c>
+      <c r="D748" s="134" t="s">
         <v>441</v>
       </c>
-      <c r="D748" s="134" t="s">
+      <c r="E748" s="134" t="s">
         <v>442</v>
-      </c>
-      <c r="E748" s="134" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
@@ -13717,16 +13717,16 @@
         <v>268</v>
       </c>
       <c r="B753" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C753" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D753" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E753" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.35">
@@ -13785,16 +13785,16 @@
         <v>225</v>
       </c>
       <c r="B757" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C757" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D757" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E757" s="76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
@@ -13802,16 +13802,16 @@
         <v>226</v>
       </c>
       <c r="B758" s="76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C758" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D758" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E758" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.35">
@@ -13825,7 +13825,7 @@
         <v>191</v>
       </c>
       <c r="D759" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E759" s="76" t="s">
         <v>198</v>
@@ -13845,7 +13845,7 @@
         <v>387</v>
       </c>
       <c r="E760" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
@@ -13862,7 +13862,7 @@
         <v>270</v>
       </c>
       <c r="E761" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.35">
@@ -13873,13 +13873,13 @@
         <v>397</v>
       </c>
       <c r="C762" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D762" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E762" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.35">
@@ -13928,10 +13928,10 @@
         <v>397</v>
       </c>
       <c r="C766" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D766" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E766" s="8"/>
     </row>
@@ -13964,13 +13964,13 @@
         <v>400</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C769" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D769" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E769" s="8"/>
     </row>
@@ -13985,7 +13985,7 @@
         <v>397</v>
       </c>
       <c r="D770" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E770" s="8"/>
     </row>
@@ -14000,52 +14000,52 @@
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B772" s="76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C772" s="76" t="s">
         <v>387</v>
       </c>
       <c r="D772" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E772" s="8"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C773" s="8" t="s">
         <v>396</v>
       </c>
       <c r="D773" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E773" s="8"/>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B774" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C774" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D774" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E774" s="8"/>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -14054,40 +14054,40 @@
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
       <c r="D776" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E776" s="8"/>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
       <c r="D777" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E777" s="8"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
       <c r="D778" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E778" s="8"/>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -14107,29 +14107,29 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
       <c r="D781" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E781" s="13"/>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
       <c r="D782" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E782" s="13"/>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -14141,13 +14141,13 @@
         <v>199</v>
       </c>
       <c r="B784" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="C784" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="C784" s="76" t="s">
-        <v>486</v>
-      </c>
       <c r="D784" s="93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E784" s="76" t="s">
         <v>377</v>
@@ -14169,16 +14169,16 @@
     </row>
     <row r="787" spans="1:5" s="138" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A787" s="134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B787" s="148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C787" s="148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D787" s="148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E787" s="135"/>
     </row>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="791" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B791" s="67" t="s">
         <v>121</v>
@@ -14307,13 +14307,13 @@
         <v>225</v>
       </c>
       <c r="B796" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="C796" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C796" s="76" t="s">
-        <v>597</v>
-      </c>
       <c r="D796" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E796" s="76"/>
     </row>
@@ -14322,13 +14322,13 @@
         <v>226</v>
       </c>
       <c r="B797" s="76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C797" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D797" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E797" s="76"/>
     </row>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="799" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B799" s="76" t="s">
         <v>195</v>
@@ -14364,27 +14364,27 @@
     </row>
     <row r="800" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B800" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C800" s="76"/>
       <c r="D800" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E800" s="76"/>
     </row>
     <row r="801" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B801" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C801" s="76"/>
       <c r="D801" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E801" s="76"/>
     </row>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="806" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A806" s="134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B806" s="166"/>
       <c r="C806" s="167"/>
@@ -14480,7 +14480,7 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B810" s="67" t="s">
         <v>121</v>
@@ -14558,13 +14558,13 @@
         <v>225</v>
       </c>
       <c r="B815" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="C815" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C815" s="76" t="s">
-        <v>597</v>
-      </c>
       <c r="D815" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E815" s="76"/>
     </row>
@@ -14573,13 +14573,13 @@
         <v>226</v>
       </c>
       <c r="B816" s="76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C816" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D816" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E816" s="76"/>
     </row>
@@ -14600,7 +14600,7 @@
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B818" s="76" t="s">
         <v>195</v>
@@ -14615,31 +14615,31 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B819" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="C819" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C819" s="76" t="s">
-        <v>597</v>
-      </c>
       <c r="D819" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E819" s="76"/>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B820" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="C820" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="C820" s="76" t="s">
+      <c r="D820" s="76" t="s">
         <v>603</v>
-      </c>
-      <c r="D820" s="76" t="s">
-        <v>604</v>
       </c>
       <c r="E820" s="76"/>
     </row>
@@ -14670,7 +14670,7 @@
     </row>
     <row r="824" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A824" s="134" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B824" s="166"/>
       <c r="C824" s="167"/>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B828" s="67" t="s">
         <v>121</v>
@@ -14802,13 +14802,13 @@
         <v>225</v>
       </c>
       <c r="B833" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="C833" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="C833" s="76" t="s">
-        <v>597</v>
-      </c>
       <c r="D833" s="76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E833" s="76"/>
     </row>
@@ -14817,13 +14817,13 @@
         <v>226</v>
       </c>
       <c r="B834" s="76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C834" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D834" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E834" s="76"/>
     </row>
@@ -14844,7 +14844,7 @@
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A836" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B836" s="76" t="s">
         <v>195</v>
@@ -14859,37 +14859,37 @@
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A837" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B837" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C837" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D837" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E837" s="76"/>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A838" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B838" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C838" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D838" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E838" s="76"/>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A839" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B839" s="80"/>
       <c r="C839" s="80"/>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A840" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B840" s="38"/>
       <c r="C840" s="38"/>
@@ -14921,17 +14921,17 @@
     </row>
     <row r="843" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A843" s="134" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B843" s="145"/>
       <c r="C843" s="134" t="s">
+        <v>667</v>
+      </c>
+      <c r="D843" s="134" t="s">
         <v>668</v>
       </c>
-      <c r="D843" s="134" t="s">
+      <c r="E843" s="134" t="s">
         <v>669</v>
-      </c>
-      <c r="E843" s="134" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.35">
@@ -15007,16 +15007,16 @@
         <v>268</v>
       </c>
       <c r="B848" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C848" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D848" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E848" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.35">
@@ -15075,16 +15075,16 @@
         <v>225</v>
       </c>
       <c r="B852" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C852" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D852" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E852" s="76" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.35">
@@ -15092,16 +15092,16 @@
         <v>226</v>
       </c>
       <c r="B853" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C853" s="76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D853" s="76" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E853" s="76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.35">
@@ -15126,7 +15126,7 @@
         <v>388</v>
       </c>
       <c r="B855" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C855" s="76" t="s">
         <v>387</v>
@@ -15143,7 +15143,7 @@
         <v>389</v>
       </c>
       <c r="B856" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C856" s="8" t="s">
         <v>270</v>
@@ -15160,16 +15160,16 @@
         <v>390</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C857" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D857" s="8" t="s">
         <v>397</v>
       </c>
       <c r="E857" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.35">
@@ -15216,13 +15216,13 @@
       </c>
       <c r="B861" s="8"/>
       <c r="C861" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E861" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.35">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B863" s="76"/>
       <c r="C863" s="76" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D863" s="76"/>
       <c r="E863" s="76" t="s">
@@ -15253,11 +15253,11 @@
       </c>
       <c r="B864" s="8"/>
       <c r="C864" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D864" s="8"/>
       <c r="E864" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.35">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="B868" s="8"/>
       <c r="C868" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D868" s="8"/>
       <c r="E868" s="8" t="s">
@@ -15310,20 +15310,20 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A869" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B869" s="8"/>
       <c r="C869" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D869" s="8"/>
       <c r="E869" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A870" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B870" s="8"/>
       <c r="C870" s="13"/>
@@ -15335,16 +15335,16 @@
         <v>262</v>
       </c>
       <c r="B871" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C871" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D871" s="112" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E871" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.35">
@@ -15361,17 +15361,17 @@
     </row>
     <row r="874" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A874" s="134" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B874" s="145"/>
       <c r="C874" s="134" t="s">
+        <v>671</v>
+      </c>
+      <c r="D874" s="134" t="s">
         <v>672</v>
       </c>
-      <c r="D874" s="134" t="s">
+      <c r="E874" s="134" t="s">
         <v>673</v>
-      </c>
-      <c r="E874" s="134" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.35">
@@ -15447,16 +15447,16 @@
         <v>268</v>
       </c>
       <c r="B879" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C879" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D879" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E879" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.35">
@@ -15515,16 +15515,16 @@
         <v>225</v>
       </c>
       <c r="B883" s="76" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C883" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D883" s="76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E883" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.35">
@@ -15532,16 +15532,16 @@
         <v>226</v>
       </c>
       <c r="B884" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C884" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D884" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E884" s="76" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.35">
@@ -15558,7 +15558,7 @@
         <v>191</v>
       </c>
       <c r="E885" s="76" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.35">
@@ -15566,7 +15566,7 @@
         <v>388</v>
       </c>
       <c r="B886" s="76" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C886" s="76" t="s">
         <v>387</v>
@@ -15581,7 +15581,7 @@
         <v>389</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C887" s="8" t="s">
         <v>270</v>
@@ -15596,13 +15596,13 @@
         <v>390</v>
       </c>
       <c r="B888" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C888" s="8" t="s">
         <v>397</v>
       </c>
       <c r="D888" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E888" s="8"/>
     </row>
@@ -15646,10 +15646,10 @@
       </c>
       <c r="B892" s="8"/>
       <c r="C892" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D892" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E892" s="8"/>
     </row>
@@ -15668,10 +15668,10 @@
       </c>
       <c r="B894" s="76"/>
       <c r="C894" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D894" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E894" s="76"/>
     </row>
@@ -15681,10 +15681,10 @@
       </c>
       <c r="B895" s="8"/>
       <c r="C895" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E895" s="8"/>
     </row>
@@ -15694,10 +15694,10 @@
       </c>
       <c r="B896" s="8"/>
       <c r="C896" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D896" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E896" s="8"/>
     </row>
@@ -15717,7 +15717,7 @@
       <c r="B898" s="8"/>
       <c r="C898" s="13"/>
       <c r="D898" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E898" s="13"/>
     </row>
@@ -15728,24 +15728,24 @@
       <c r="B899" s="8"/>
       <c r="C899" s="13"/>
       <c r="D899" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E899" s="13"/>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A900" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B900" s="8"/>
       <c r="C900" s="13"/>
       <c r="D900" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E900" s="13"/>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A901" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B901" s="8"/>
       <c r="C901" s="13"/>
@@ -15757,16 +15757,16 @@
         <v>262</v>
       </c>
       <c r="B902" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C902" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D902" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E902" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.35">
@@ -15777,17 +15777,17 @@
     </row>
     <row r="905" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A905" s="134" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B905" s="145"/>
       <c r="C905" s="134" t="s">
+        <v>675</v>
+      </c>
+      <c r="D905" s="134" t="s">
         <v>676</v>
       </c>
-      <c r="D905" s="134" t="s">
-        <v>677</v>
-      </c>
       <c r="E905" s="134" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.35">
@@ -15863,16 +15863,16 @@
         <v>268</v>
       </c>
       <c r="B910" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C910" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D910" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E910" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.35">
@@ -15931,16 +15931,16 @@
         <v>225</v>
       </c>
       <c r="B914" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C914" s="76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D914" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E914" s="76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.35">
@@ -15948,16 +15948,16 @@
         <v>226</v>
       </c>
       <c r="B915" s="76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C915" s="76" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D915" s="76" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E915" s="76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.35">
@@ -16016,7 +16016,7 @@
         <v>390</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C919" s="8" t="s">
         <v>397</v>
@@ -16025,7 +16025,7 @@
         <v>397</v>
       </c>
       <c r="E919" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.35">
@@ -16044,7 +16044,7 @@
         <v>387</v>
       </c>
       <c r="C921" s="76" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D921" s="76" t="s">
         <v>387</v>
@@ -16058,16 +16058,16 @@
         <v>393</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C922" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D922" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E922" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.35">
@@ -16075,16 +16075,16 @@
         <v>394</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C923" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D923" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E923" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="E923" s="8" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.35">
@@ -16101,16 +16101,16 @@
         <v>399</v>
       </c>
       <c r="B925" s="76" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C925" s="76" t="s">
         <v>387</v>
       </c>
       <c r="D925" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E925" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.35">
@@ -16118,16 +16118,16 @@
         <v>400</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C926" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E926" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.35">
@@ -16135,16 +16135,16 @@
         <v>401</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C927" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E927" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.35">
@@ -16161,31 +16161,31 @@
         <v>262</v>
       </c>
       <c r="B929" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C929" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D929" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E929" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="932" spans="1:5" s="138" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A932" s="134" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B932" s="136"/>
       <c r="C932" s="134" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D932" s="134" t="s">
+        <v>743</v>
+      </c>
+      <c r="E932" s="134" t="s">
         <v>744</v>
-      </c>
-      <c r="E932" s="134" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.35">
@@ -16193,10 +16193,10 @@
         <v>186</v>
       </c>
       <c r="B933" s="110" t="s">
+        <v>724</v>
+      </c>
+      <c r="C933" s="110" t="s">
         <v>725</v>
-      </c>
-      <c r="C933" s="110" t="s">
-        <v>726</v>
       </c>
       <c r="D933" s="110" t="s">
         <v>70</v>
@@ -16250,10 +16250,10 @@
         <v>121</v>
       </c>
       <c r="D936" s="67" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="E936" s="67" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.35">
@@ -16267,10 +16267,10 @@
         <v>88</v>
       </c>
       <c r="D937" s="76" t="s">
-        <v>746</v>
+        <v>88</v>
       </c>
       <c r="E937" s="76" t="s">
-        <v>746</v>
+        <v>88</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.35">
@@ -16329,16 +16329,16 @@
         <v>225</v>
       </c>
       <c r="B941" s="76" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C941" s="76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D941" s="76" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
       <c r="E941" s="76" t="s">
-        <v>751</v>
+        <v>516</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.35">
@@ -16346,16 +16346,16 @@
         <v>226</v>
       </c>
       <c r="B942" s="76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C942" s="76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D942" s="76" t="s">
-        <v>752</v>
+        <v>518</v>
       </c>
       <c r="E942" s="76" t="s">
-        <v>752</v>
+        <v>518</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.35">
@@ -16377,7 +16377,7 @@
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A944" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B944" s="76" t="s">
         <v>341</v>
@@ -16386,36 +16386,36 @@
         <v>213</v>
       </c>
       <c r="D944" s="76" t="s">
-        <v>750</v>
+        <v>898</v>
       </c>
       <c r="E944" s="76" t="s">
-        <v>750</v>
+        <v>519</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A945" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B945" s="76"/>
       <c r="C945" s="76"/>
       <c r="D945" s="90" t="s">
+        <v>747</v>
+      </c>
+      <c r="E945" s="118" t="s">
         <v>748</v>
-      </c>
-      <c r="E945" s="118" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A946" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
-      <c r="D946" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="E946" s="22" t="s">
-        <v>754</v>
+      <c r="D946" s="76" t="s">
+        <v>898</v>
+      </c>
+      <c r="E946" s="76" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.35">
@@ -17019,13 +17019,13 @@
         <v>250</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E11" s="35"/>
     </row>
@@ -17034,13 +17034,13 @@
         <v>175</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E12" s="35"/>
     </row>
@@ -17094,10 +17094,10 @@
         <v>220</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E17" s="95"/>
     </row>
@@ -17106,13 +17106,13 @@
         <v>175</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E18" s="95"/>
     </row>
@@ -17124,7 +17124,7 @@
         <v>213</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>208</v>
@@ -17158,13 +17158,13 @@
         <v>250</v>
       </c>
       <c r="B22" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>586</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="D22" s="53" t="s">
         <v>587</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>588</v>
       </c>
       <c r="E22" s="35"/>
     </row>
@@ -17173,13 +17173,13 @@
         <v>175</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>531</v>
-      </c>
       <c r="D23" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E23" s="35"/>
     </row>
@@ -17206,10 +17206,10 @@
         <v>220</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E25" s="35"/>
     </row>
@@ -17218,13 +17218,13 @@
         <v>175</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C26" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="D26" s="51" t="s">
         <v>590</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>591</v>
       </c>
       <c r="E26" s="35"/>
     </row>
@@ -17251,7 +17251,7 @@
         <v>220</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>184</v>
@@ -17263,13 +17263,13 @@
         <v>175</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E29" s="35"/>
     </row>
@@ -17307,10 +17307,10 @@
         <v>220</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E32" s="35"/>
     </row>
@@ -17319,13 +17319,13 @@
         <v>175</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C33" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>592</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>593</v>
       </c>
       <c r="E33" s="35"/>
     </row>
@@ -17345,7 +17345,7 @@
         <v>262</v>
       </c>
       <c r="B35" s="177" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C35" s="177"/>
       <c r="D35" s="177"/>
@@ -17568,40 +17568,40 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="185" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B3" s="185"/>
       <c r="D3" s="170" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E3" s="170"/>
     </row>
     <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -17610,7 +17610,7 @@
         <v>342</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -17623,19 +17623,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="185" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B8" s="185"/>
       <c r="D8" s="15" t="s">
         <v>343</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B9" s="127" t="s">
         <v>16</v>
@@ -17644,7 +17644,7 @@
         <v>165</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -17652,7 +17652,7 @@
         <v>344</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -17663,21 +17663,21 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="185" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B16" s="185"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B17" s="127" t="s">
         <v>16</v>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="B20" s="185"/>
       <c r="C20" s="129" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>178</v>
@@ -17709,7 +17709,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="131" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -17815,13 +17815,13 @@
         <v>225</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -17829,13 +17829,13 @@
         <v>226</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -17857,21 +17857,21 @@
         <v>199</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="130" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="13"/>
@@ -17881,18 +17881,18 @@
         <v>262</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C34" s="118"/>
       <c r="D34" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="185" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B37" s="185"/>
       <c r="C37" s="124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -17988,10 +17988,10 @@
         <v>225</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -17999,10 +17999,10 @@
         <v>226</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C47" s="76" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -18021,10 +18021,10 @@
         <v>199</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -18032,40 +18032,40 @@
         <v>186</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C50" s="90" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="184" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" s="184"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B55" s="112" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B56" s="132" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -18089,10 +18089,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:E535"/>
+  <dimension ref="A2:E535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G398" sqref="G398"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18106,13 +18106,18 @@
     <col min="7" max="7" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C2" s="190">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A5" s="163" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="163"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>185</v>
       </c>
@@ -18120,39 +18125,39 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>323</v>
       </c>
@@ -18160,37 +18165,37 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="151"/>
     </row>
     <row r="18" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A18" s="134" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B18" s="134" t="s">
         <v>230</v>
@@ -18302,10 +18307,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B26" s="76" t="s">
         <v>737</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>738</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="12"/>
@@ -18329,10 +18334,13 @@
       <c r="B31" s="76" t="s">
         <v>75</v>
       </c>
+      <c r="C31" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B32" s="76" t="s">
         <v>220</v>
@@ -18343,12 +18351,12 @@
         <v>93</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>95</v>
@@ -18356,7 +18364,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B35" s="76" t="s">
         <v>96</v>
@@ -18364,7 +18372,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>220</v>
@@ -18372,10 +18380,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
@@ -18412,7 +18420,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>95</v>
@@ -18426,13 +18434,13 @@
         <v>104</v>
       </c>
       <c r="B44" s="76" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>507</v>
-      </c>
       <c r="D44" s="30" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>112</v>
@@ -18443,10 +18451,10 @@
         <v>105</v>
       </c>
       <c r="B45" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>509</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>80</v>
@@ -18460,10 +18468,10 @@
         <v>106</v>
       </c>
       <c r="B46" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>511</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>158</v>
@@ -18477,10 +18485,10 @@
         <v>107</v>
       </c>
       <c r="B47" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>512</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>513</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>77</v>
@@ -18497,7 +18505,7 @@
         <v>354</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>90</v>
@@ -18511,10 +18519,10 @@
         <v>109</v>
       </c>
       <c r="B49" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>159</v>
@@ -18528,10 +18536,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>160</v>
@@ -18542,7 +18550,7 @@
     </row>
     <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A55" s="161" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B55" s="162"/>
     </row>
@@ -18551,10 +18559,13 @@
         <v>74</v>
       </c>
       <c r="B56" s="110" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C56" t="s">
-        <v>886</v>
+        <v>880</v>
+      </c>
+      <c r="D56" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -18571,7 +18582,7 @@
     </row>
     <row r="60" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A60" s="161" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B60" s="162"/>
     </row>
@@ -18585,14 +18596,14 @@
     </row>
     <row r="65" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="187" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B65" s="187"/>
       <c r="C65" s="187"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>100</v>
@@ -18609,7 +18620,7 @@
         <v>220</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -18617,10 +18628,10 @@
         <v>104</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -18628,10 +18639,10 @@
         <v>105</v>
       </c>
       <c r="B69" s="76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -18639,10 +18650,10 @@
         <v>106</v>
       </c>
       <c r="B70" s="76" t="s">
+        <v>509</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -18650,10 +18661,10 @@
         <v>107</v>
       </c>
       <c r="B71" s="76" t="s">
+        <v>511</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>512</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -18664,7 +18675,7 @@
         <v>354</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -18672,10 +18683,10 @@
         <v>109</v>
       </c>
       <c r="B73" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -18683,18 +18694,18 @@
         <v>110</v>
       </c>
       <c r="B74" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="130" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C76" s="13"/>
     </row>
@@ -18706,7 +18717,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B80" s="76" t="s">
         <v>220</v>
@@ -18714,23 +18725,23 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="130" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B82" s="90" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>95</v>
@@ -18738,18 +18749,18 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -18760,47 +18771,47 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="130" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B91" s="90" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B94" s="23" t="s">
         <v>160</v>
@@ -18808,37 +18819,37 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="157" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B97" s="158"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="130" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B100" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>80</v>
@@ -18846,18 +18857,18 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B102" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B103" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -18868,55 +18879,55 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B108" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="130" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B109" s="90" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B111" s="90" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="152" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B112" s="90" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="152" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B113" s="23" t="s">
         <v>89</v>
@@ -18951,7 +18962,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -18991,7 +19002,7 @@
         <v>225</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -18999,7 +19010,7 @@
         <v>226</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -19015,7 +19026,7 @@
         <v>164</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -19023,7 +19034,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -19031,7 +19042,7 @@
         <v>342</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -19047,7 +19058,7 @@
         <v>343</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -19055,7 +19066,7 @@
         <v>165</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -19063,93 +19074,85 @@
         <v>344</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="157" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B135" s="158"/>
       <c r="C135" s="157" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C136" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C137" s="76" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>77</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="B138" s="23"/>
       <c r="C138" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
-        <v>809</v>
-      </c>
-      <c r="B139" s="90" t="s">
-        <v>876</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="B139" s="90"/>
       <c r="C139" s="90" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="B140" s="90" t="s">
-        <v>159</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="B140" s="90"/>
       <c r="C140" s="90" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="152" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="152" t="s">
-        <v>822</v>
-      </c>
-      <c r="B142" s="90" t="s">
-        <v>445</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="B142" s="90"/>
       <c r="C142" s="90" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -19160,7 +19163,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B146" s="76" t="s">
         <v>354</v>
@@ -19168,15 +19171,15 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="130" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B148" s="90" t="s">
         <v>354</v>
@@ -19184,23 +19187,23 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="130" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B149" s="90" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="130" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B150" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>90</v>
@@ -19208,7 +19211,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B152" s="90" t="s">
         <v>90</v>
@@ -19216,7 +19219,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B153" s="90" t="s">
         <v>89</v>
@@ -19224,15 +19227,15 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B154" s="90" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B155" s="90" t="s">
         <v>90</v>
@@ -19240,10 +19243,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="152" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B156" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -19257,24 +19260,24 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B160" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C160" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B161" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C161" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -19315,10 +19318,10 @@
         <v>60</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C166" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -19370,10 +19373,10 @@
         <v>225</v>
       </c>
       <c r="B171" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C171" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D171" s="39"/>
     </row>
@@ -19382,10 +19385,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C172" s="76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D172" s="39"/>
     </row>
@@ -19402,7 +19405,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B174" s="90" t="s">
         <v>160</v>
@@ -19413,7 +19416,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B175" s="90" t="s">
         <v>160</v>
@@ -19424,7 +19427,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B176" s="90" t="s">
         <v>89</v>
@@ -19439,7 +19442,7 @@
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -19448,7 +19451,7 @@
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -19457,7 +19460,7 @@
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -19475,7 +19478,7 @@
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -19484,7 +19487,7 @@
       </c>
       <c r="B182" s="13"/>
       <c r="C182" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -19493,7 +19496,7 @@
       </c>
       <c r="B183" s="13"/>
       <c r="C183" s="27" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -19521,24 +19524,24 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C188" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C189" s="76" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -19579,10 +19582,10 @@
         <v>60</v>
       </c>
       <c r="B194" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C194" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -19634,10 +19637,10 @@
         <v>225</v>
       </c>
       <c r="B199" s="76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C199" s="76" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -19645,10 +19648,10 @@
         <v>226</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C200" s="76" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -19670,7 +19673,7 @@
         <v>261</v>
       </c>
       <c r="C202" s="76" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -19684,24 +19687,24 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B206" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C206" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B207" s="76" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C207" s="76" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -19742,10 +19745,10 @@
         <v>60</v>
       </c>
       <c r="B212" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C212" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -19797,10 +19800,10 @@
         <v>225</v>
       </c>
       <c r="B217" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C217" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -19808,10 +19811,10 @@
         <v>226</v>
       </c>
       <c r="B218" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C218" s="76" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -19841,10 +19844,10 @@
         <v>69</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -19855,7 +19858,7 @@
         <v>166</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -19866,7 +19869,7 @@
         <v>167</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -19874,7 +19877,7 @@
         <v>343</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>68</v>
@@ -19885,10 +19888,10 @@
         <v>165</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -19896,18 +19899,18 @@
         <v>344</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B227" s="90" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C227" s="90" t="s">
         <v>159</v>
@@ -19915,10 +19918,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B228" s="90" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C228" s="90" t="s">
         <v>68</v>
@@ -19926,7 +19929,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B229" s="90" t="s">
         <v>67</v>
@@ -19937,18 +19940,18 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="152" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B230" s="90" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C230" s="90" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="152" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B231" s="90" t="s">
         <v>89</v>
@@ -19962,38 +19965,38 @@
         <v>199</v>
       </c>
       <c r="B232" s="90" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C232" s="90" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="188" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B235" s="189"/>
       <c r="C235" s="188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D235" s="189"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B236" s="76" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B237" s="76" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
@@ -20049,13 +20052,13 @@
         <v>60</v>
       </c>
       <c r="B242" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C242" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D242" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -20119,13 +20122,13 @@
         <v>225</v>
       </c>
       <c r="B247" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C247" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D247" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -20133,13 +20136,13 @@
         <v>226</v>
       </c>
       <c r="B248" s="76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C248" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D248" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -20158,7 +20161,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="153" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>396</v>
@@ -20167,21 +20170,21 @@
         <v>396</v>
       </c>
       <c r="D250" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="153" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D251" s="76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -20213,10 +20216,10 @@
         <v>343</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D254" s="23"/>
     </row>
@@ -20225,10 +20228,10 @@
         <v>165</v>
       </c>
       <c r="B255" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D255" s="30"/>
     </row>
@@ -20237,10 +20240,10 @@
         <v>344</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D256" s="27"/>
     </row>
@@ -20258,37 +20261,37 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="154" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="23" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="154" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="23" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D259" s="13"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="154" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="23" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D260" s="13"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="186" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B262" s="186"/>
       <c r="C262" s="186"/>
@@ -20331,10 +20334,10 @@
         <v>60</v>
       </c>
       <c r="B266" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C266" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -20386,10 +20389,10 @@
         <v>225</v>
       </c>
       <c r="B271" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -20397,10 +20400,10 @@
         <v>226</v>
       </c>
       <c r="B272" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C272" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -20428,7 +20431,7 @@
         <v>69</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C275" s="13"/>
     </row>
@@ -20455,7 +20458,7 @@
         <v>343</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C278" s="23"/>
     </row>
@@ -20464,7 +20467,7 @@
         <v>165</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C279" s="30"/>
     </row>
@@ -20473,31 +20476,31 @@
         <v>344</v>
       </c>
       <c r="B280" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C280" s="27"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="154" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C281" s="13"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="154" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C282" s="13"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="154" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B283" s="23" t="s">
         <v>80</v>
@@ -20506,7 +20509,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="154" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B284" s="23" t="s">
         <v>67</v>
@@ -20515,7 +20518,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="186" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B287" s="186"/>
       <c r="C287" s="186"/>
@@ -20558,10 +20561,10 @@
         <v>60</v>
       </c>
       <c r="B291" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C291" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -20613,10 +20616,10 @@
         <v>225</v>
       </c>
       <c r="B296" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C296" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -20624,10 +20627,10 @@
         <v>226</v>
       </c>
       <c r="B297" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C297" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -20646,7 +20649,7 @@
         <v>164</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C299" s="13"/>
     </row>
@@ -20655,7 +20658,7 @@
         <v>69</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C300" s="13"/>
     </row>
@@ -20664,7 +20667,7 @@
         <v>342</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C301" s="13"/>
     </row>
@@ -20682,7 +20685,7 @@
         <v>343</v>
       </c>
       <c r="B303" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C303" s="23"/>
     </row>
@@ -20691,7 +20694,7 @@
         <v>165</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C304" s="30"/>
     </row>
@@ -20700,7 +20703,7 @@
         <v>344</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C305" s="27"/>
     </row>
@@ -20715,7 +20718,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="186" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B309" s="186"/>
       <c r="C309" s="186"/>
@@ -20758,10 +20761,10 @@
         <v>60</v>
       </c>
       <c r="B313" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C313" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -20813,10 +20816,10 @@
         <v>225</v>
       </c>
       <c r="B318" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C318" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -20824,10 +20827,10 @@
         <v>226</v>
       </c>
       <c r="B319" s="76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C319" s="76" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -20855,7 +20858,7 @@
         <v>69</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C322" s="13"/>
     </row>
@@ -20864,7 +20867,7 @@
         <v>342</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C323" s="13"/>
     </row>
@@ -20882,7 +20885,7 @@
         <v>343</v>
       </c>
       <c r="B325" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C325" s="23"/>
     </row>
@@ -20891,7 +20894,7 @@
         <v>165</v>
       </c>
       <c r="B326" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C326" s="30"/>
     </row>
@@ -20900,7 +20903,7 @@
         <v>344</v>
       </c>
       <c r="B327" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C327" s="27"/>
     </row>
@@ -20915,7 +20918,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="186" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B331" s="186"/>
       <c r="C331" s="186"/>
@@ -20958,10 +20961,10 @@
         <v>60</v>
       </c>
       <c r="B335" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C335" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -21013,10 +21016,10 @@
         <v>225</v>
       </c>
       <c r="B340" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C340" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -21024,10 +21027,10 @@
         <v>226</v>
       </c>
       <c r="B341" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C341" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -21046,7 +21049,7 @@
         <v>164</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C343" s="13"/>
     </row>
@@ -21055,7 +21058,7 @@
         <v>69</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C344" s="13"/>
     </row>
@@ -21082,7 +21085,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C347" s="23"/>
     </row>
@@ -21091,7 +21094,7 @@
         <v>165</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C348" s="30"/>
     </row>
@@ -21100,53 +21103,53 @@
         <v>344</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C349" s="27"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B350" s="76" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C350" s="76" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B351" s="76" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C351" s="76" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="154" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B352" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C352" s="13"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="154" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="23" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="186" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B356" s="186"/>
       <c r="C356" s="186"/>
@@ -21189,10 +21192,10 @@
         <v>60</v>
       </c>
       <c r="B360" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C360" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -21244,10 +21247,10 @@
         <v>225</v>
       </c>
       <c r="B365" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C365" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -21255,10 +21258,10 @@
         <v>226</v>
       </c>
       <c r="B366" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C366" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -21277,7 +21280,7 @@
         <v>164</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C368" s="13"/>
     </row>
@@ -21286,7 +21289,7 @@
         <v>69</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C369" s="13"/>
     </row>
@@ -21313,7 +21316,7 @@
         <v>343</v>
       </c>
       <c r="B372" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C372" s="23"/>
     </row>
@@ -21322,7 +21325,7 @@
         <v>165</v>
       </c>
       <c r="B373" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C373" s="30"/>
     </row>
@@ -21331,71 +21334,71 @@
         <v>344</v>
       </c>
       <c r="B374" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C374" s="27"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B375" s="76" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C375" s="76" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B376" s="156" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C376" s="156" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="154" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B377" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C377" s="13"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="154" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="23" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B379" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C379" s="13"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="155" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B380" s="156" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C380" s="13"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="154" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B381" s="23" t="s">
         <v>68</v>
@@ -21406,18 +21409,18 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="154" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B382" s="23" t="s">
         <v>158</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="186" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B385" s="186"/>
       <c r="C385" s="186"/>
@@ -21460,10 +21463,10 @@
         <v>60</v>
       </c>
       <c r="B389" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C389" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -21515,10 +21518,10 @@
         <v>225</v>
       </c>
       <c r="B394" s="76" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C394" s="76" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -21526,10 +21529,10 @@
         <v>226</v>
       </c>
       <c r="B395" s="76" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C395" s="76" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -21548,7 +21551,7 @@
         <v>164</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C397" s="13"/>
     </row>
@@ -21557,7 +21560,7 @@
         <v>69</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C398" s="13"/>
     </row>
@@ -21566,7 +21569,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C399" s="13"/>
     </row>
@@ -21584,7 +21587,7 @@
         <v>343</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C401" s="23"/>
     </row>
@@ -21593,7 +21596,7 @@
         <v>165</v>
       </c>
       <c r="B402" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C402" s="30"/>
     </row>
@@ -21602,30 +21605,30 @@
         <v>344</v>
       </c>
       <c r="B403" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C403" s="27"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B404" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C404" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B405" s="76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C405" s="76" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -21682,10 +21685,10 @@
         <v>60</v>
       </c>
       <c r="B413" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C413" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -21737,10 +21740,10 @@
         <v>225</v>
       </c>
       <c r="B418" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C418" s="76" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -21748,10 +21751,10 @@
         <v>226</v>
       </c>
       <c r="B419" s="76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C419" s="76" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -21770,7 +21773,7 @@
         <v>164</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C421" s="13"/>
     </row>
@@ -21779,7 +21782,7 @@
         <v>69</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C422" s="13"/>
     </row>
@@ -21788,7 +21791,7 @@
         <v>342</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C423" s="13"/>
     </row>
@@ -21806,7 +21809,7 @@
         <v>343</v>
       </c>
       <c r="B425" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C425" s="23"/>
     </row>
@@ -21815,7 +21818,7 @@
         <v>165</v>
       </c>
       <c r="B426" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C426" s="30"/>
     </row>
@@ -21824,30 +21827,30 @@
         <v>344</v>
       </c>
       <c r="B427" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C427" s="27"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B428" s="76" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C428" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B429" s="76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C429" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -21861,7 +21864,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="186" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B433" s="186"/>
       <c r="C433" s="186"/>
@@ -21874,7 +21877,7 @@
         <v>70</v>
       </c>
       <c r="C434" s="76" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -21904,10 +21907,10 @@
         <v>60</v>
       </c>
       <c r="B437" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C437" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -21959,10 +21962,10 @@
         <v>225</v>
       </c>
       <c r="B442" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C442" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -21970,10 +21973,10 @@
         <v>226</v>
       </c>
       <c r="B443" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C443" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -22001,7 +22004,7 @@
         <v>69</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C446" s="13"/>
     </row>
@@ -22028,7 +22031,7 @@
         <v>343</v>
       </c>
       <c r="B449" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C449" s="23"/>
     </row>
@@ -22037,7 +22040,7 @@
         <v>165</v>
       </c>
       <c r="B450" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C450" s="30"/>
     </row>
@@ -22046,48 +22049,48 @@
         <v>344</v>
       </c>
       <c r="B451" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C451" s="27"/>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" s="154" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B452" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C452" s="13"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" s="154" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B453" s="23" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C453" s="13"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="154" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B454" s="23" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C454" s="23" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="154" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B455" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C455" s="23" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -22105,7 +22108,7 @@
         <v>70</v>
       </c>
       <c r="C459" s="76" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -22135,10 +22138,10 @@
         <v>60</v>
       </c>
       <c r="B462" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C462" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -22190,10 +22193,10 @@
         <v>225</v>
       </c>
       <c r="B467" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C467" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -22201,10 +22204,10 @@
         <v>226</v>
       </c>
       <c r="B468" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C468" s="76" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -22223,7 +22226,7 @@
         <v>164</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C470" s="13"/>
     </row>
@@ -22232,7 +22235,7 @@
         <v>69</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C471" s="13"/>
     </row>
@@ -22259,7 +22262,7 @@
         <v>343</v>
       </c>
       <c r="B474" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C474" s="23"/>
     </row>
@@ -22268,7 +22271,7 @@
         <v>165</v>
       </c>
       <c r="B475" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C475" s="30"/>
     </row>
@@ -22277,57 +22280,57 @@
         <v>344</v>
       </c>
       <c r="B476" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C476" s="27"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" s="154" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B477" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C477" s="13"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" s="154" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B478" s="23" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C478" s="13"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" s="154" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B479" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C479" s="13"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B480" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C480" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B481" s="76" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C481" s="76" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -22335,10 +22338,10 @@
         <v>199</v>
       </c>
       <c r="B482" s="24" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C482" s="23" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -22352,24 +22355,24 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B486" s="76" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C486" s="76" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B487" s="76" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C487" s="76" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -22410,10 +22413,10 @@
         <v>60</v>
       </c>
       <c r="B492" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C492" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -22465,10 +22468,10 @@
         <v>225</v>
       </c>
       <c r="B497" s="76" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C497" s="76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -22476,10 +22479,10 @@
         <v>226</v>
       </c>
       <c r="B498" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C498" s="76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -22498,10 +22501,10 @@
         <v>164</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C500" s="13" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -22509,10 +22512,10 @@
         <v>69</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C501" s="13" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -22520,10 +22523,10 @@
         <v>342</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C502" s="13" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -22534,7 +22537,7 @@
         <v>167</v>
       </c>
       <c r="C503" s="23" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -22542,10 +22545,10 @@
         <v>343</v>
       </c>
       <c r="B504" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C504" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -22553,10 +22556,10 @@
         <v>165</v>
       </c>
       <c r="B505" s="30" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C505" s="30" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -22564,10 +22567,10 @@
         <v>344</v>
       </c>
       <c r="B506" s="27" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C506" s="27" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -22578,12 +22581,12 @@
         <v>180</v>
       </c>
       <c r="C507" s="76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510" s="160" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B510" s="160"/>
       <c r="C510" s="160" t="s">
@@ -22628,10 +22631,10 @@
         <v>60</v>
       </c>
       <c r="B514" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C514" s="67" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -22683,10 +22686,10 @@
         <v>225</v>
       </c>
       <c r="B519" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C519" s="76" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -22694,10 +22697,10 @@
         <v>226</v>
       </c>
       <c r="B520" s="76" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C520" s="76" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -22716,10 +22719,10 @@
         <v>164</v>
       </c>
       <c r="B522" s="13" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C522" s="13" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -22727,10 +22730,10 @@
         <v>69</v>
       </c>
       <c r="B523" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C523" s="13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -22738,10 +22741,10 @@
         <v>342</v>
       </c>
       <c r="B524" s="13" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C524" s="13" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -22760,10 +22763,10 @@
         <v>343</v>
       </c>
       <c r="B526" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C526" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -22771,10 +22774,10 @@
         <v>165</v>
       </c>
       <c r="B527" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C527" s="30" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -22782,37 +22785,37 @@
         <v>344</v>
       </c>
       <c r="B528" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C528" s="27" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B529" s="76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C529" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B530" s="76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C530" s="76" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B531" s="76" t="s">
         <v>195</v>
@@ -22823,10 +22826,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532" s="154" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B532" s="23" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C532" s="23" t="s">
         <v>180</v>
@@ -22834,7 +22837,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="154" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B533" s="90" t="s">
         <v>90</v>
@@ -22843,7 +22846,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="154" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B534" s="23" t="s">
         <v>158</v>
@@ -22852,7 +22855,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" s="154" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B535" s="23" t="s">
         <v>67</v>
